--- a/supETL.xlsx
+++ b/supETL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11022" uniqueCount="4765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11022" uniqueCount="4764">
   <si>
     <t>Key</t>
   </si>
@@ -5510,7 +5510,7 @@
     <t>指标定义</t>
   </si>
   <si>
-    <t>indicator definition</t>
+    <t>Indicator definition</t>
   </si>
   <si>
     <t>dataModel.text.t10</t>
@@ -10406,9 +10406,6 @@
     <t>新建规则</t>
   </si>
   <si>
-    <t>Create rule</t>
-  </si>
-  <si>
     <t>quality.text.t44</t>
   </si>
   <si>
@@ -10823,7 +10820,7 @@
     <t>根据标准新建规则</t>
   </si>
   <si>
-    <t>Create rule based on standard</t>
+    <t>Add rule based on standard</t>
   </si>
   <si>
     <t>qualityRule.text.t8</t>
@@ -15308,18 +15305,17 @@
   <sheetPr/>
   <dimension ref="A1:H1826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1782" workbookViewId="0">
-      <selection activeCell="C1796" sqref="C1796"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="35.6583333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="3" customWidth="1"/>
-    <col min="4" max="7" width="17.5" style="3" customWidth="1"/>
-    <col min="8" max="16382" width="8.75" style="3"/>
-    <col min="16383" max="16384" width="8.75" style="4"/>
+    <col min="1" max="1" width="27.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="3" customWidth="1"/>
+    <col min="3" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="7" max="16381" width="8.75" style="3"/>
+    <col min="16382" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
@@ -30772,16 +30768,16 @@
       </c>
       <c r="D643" s="3"/>
       <c r="E643" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F643" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G643" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H643" s="5">
-        <v>44952.8194444444</v>
+        <v>44993.35625</v>
       </c>
     </row>
     <row r="644" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
@@ -46278,31 +46274,31 @@
         <v>3462</v>
       </c>
       <c r="C1287" s="3" t="s">
-        <v>3463</v>
+        <v>3446</v>
       </c>
       <c r="D1287" s="3"/>
       <c r="E1287" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F1287" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1287" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1287" s="5">
-        <v>44952.8194444444</v>
+        <v>44993.3673611111</v>
       </c>
     </row>
     <row r="1288" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1288" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1288" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="B1288" s="3" t="s">
+      <c r="C1288" s="3" t="s">
         <v>3465</v>
-      </c>
-      <c r="C1288" s="3" t="s">
-        <v>3466</v>
       </c>
       <c r="D1288" s="3"/>
       <c r="E1288" s="3" t="s">
@@ -46320,13 +46316,13 @@
     </row>
     <row r="1289" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1289" s="3" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B1289" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="B1289" s="3" t="s">
+      <c r="C1289" s="3" t="s">
         <v>3468</v>
-      </c>
-      <c r="C1289" s="3" t="s">
-        <v>3469</v>
       </c>
       <c r="D1289" s="3"/>
       <c r="E1289" s="3" t="s">
@@ -46344,13 +46340,13 @@
     </row>
     <row r="1290" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1290" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1290" s="3" t="s">
         <v>3470</v>
       </c>
-      <c r="B1290" s="3" t="s">
+      <c r="C1290" s="3" t="s">
         <v>3471</v>
-      </c>
-      <c r="C1290" s="3" t="s">
-        <v>3472</v>
       </c>
       <c r="D1290" s="3"/>
       <c r="E1290" s="3" t="s">
@@ -46368,13 +46364,13 @@
     </row>
     <row r="1291" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1291" s="3" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B1291" s="3" t="s">
         <v>3473</v>
       </c>
-      <c r="B1291" s="3" t="s">
+      <c r="C1291" s="3" t="s">
         <v>3474</v>
-      </c>
-      <c r="C1291" s="3" t="s">
-        <v>3475</v>
       </c>
       <c r="D1291" s="3"/>
       <c r="E1291" s="3" t="s">
@@ -46392,7 +46388,7 @@
     </row>
     <row r="1292" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1292" s="3" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="B1292" s="3" t="s">
         <v>1029</v>
@@ -46416,7 +46412,7 @@
     </row>
     <row r="1293" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1293" s="3" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B1293" s="3" t="s">
         <v>2922</v>
@@ -46440,7 +46436,7 @@
     </row>
     <row r="1294" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1294" s="3" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="B1294" s="3" t="s">
         <v>108</v>
@@ -46464,13 +46460,13 @@
     </row>
     <row r="1295" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1295" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1295" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="B1295" s="3" t="s">
+      <c r="C1295" s="3" t="s">
         <v>3480</v>
-      </c>
-      <c r="C1295" s="3" t="s">
-        <v>3481</v>
       </c>
       <c r="D1295" s="3"/>
       <c r="E1295" s="3" t="s">
@@ -46488,13 +46484,13 @@
     </row>
     <row r="1296" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1296" s="3" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1296" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="B1296" s="3" t="s">
+      <c r="C1296" s="3" t="s">
         <v>3483</v>
-      </c>
-      <c r="C1296" s="3" t="s">
-        <v>3484</v>
       </c>
       <c r="D1296" s="3"/>
       <c r="E1296" s="3" t="s">
@@ -46512,7 +46508,7 @@
     </row>
     <row r="1297" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1297" s="3" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B1297" s="3" t="s">
         <v>2852</v>
@@ -46536,7 +46532,7 @@
     </row>
     <row r="1298" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1298" s="3" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="B1298" s="3" t="s">
         <v>111</v>
@@ -46560,13 +46556,13 @@
     </row>
     <row r="1299" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1299" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B1299" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="B1299" s="3" t="s">
+      <c r="C1299" s="3" t="s">
         <v>3488</v>
-      </c>
-      <c r="C1299" s="3" t="s">
-        <v>3489</v>
       </c>
       <c r="D1299" s="3"/>
       <c r="E1299" s="3" t="s">
@@ -46584,13 +46580,13 @@
     </row>
     <row r="1300" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1300" s="3" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1300" s="3" t="s">
         <v>3490</v>
       </c>
-      <c r="B1300" s="3" t="s">
+      <c r="C1300" s="3" t="s">
         <v>3491</v>
-      </c>
-      <c r="C1300" s="3" t="s">
-        <v>3492</v>
       </c>
       <c r="D1300" s="3"/>
       <c r="E1300" s="3" t="s">
@@ -46608,7 +46604,7 @@
     </row>
     <row r="1301" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1301" s="3" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="B1301" s="3" t="s">
         <v>3186</v>
@@ -46632,13 +46628,13 @@
     </row>
     <row r="1302" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1302" s="3" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1302" s="3" t="s">
         <v>3494</v>
       </c>
-      <c r="B1302" s="3" t="s">
+      <c r="C1302" s="3" t="s">
         <v>3495</v>
-      </c>
-      <c r="C1302" s="3" t="s">
-        <v>3496</v>
       </c>
       <c r="D1302" s="3"/>
       <c r="E1302" s="3" t="s">
@@ -46656,7 +46652,7 @@
     </row>
     <row r="1303" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1303" s="3" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="B1303" s="3" t="s">
         <v>2416</v>
@@ -46665,7 +46661,7 @@
         <v>2417</v>
       </c>
       <c r="D1303" s="3" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="E1303" s="3" t="s">
         <v>71</v>
@@ -46682,13 +46678,13 @@
     </row>
     <row r="1304" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1304" s="3" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1304" s="3" t="s">
         <v>3499</v>
       </c>
-      <c r="B1304" s="3" t="s">
+      <c r="C1304" s="3" t="s">
         <v>3500</v>
-      </c>
-      <c r="C1304" s="3" t="s">
-        <v>3501</v>
       </c>
       <c r="D1304" s="3"/>
       <c r="E1304" s="3" t="s">
@@ -46706,13 +46702,13 @@
     </row>
     <row r="1305" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1305" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1305" s="3" t="s">
         <v>3502</v>
       </c>
-      <c r="B1305" s="3" t="s">
+      <c r="C1305" s="3" t="s">
         <v>3503</v>
-      </c>
-      <c r="C1305" s="3" t="s">
-        <v>3504</v>
       </c>
       <c r="D1305" s="3"/>
       <c r="E1305" s="3" t="s">
@@ -46730,10 +46726,10 @@
     </row>
     <row r="1306" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1306" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B1306" s="3" t="s">
         <v>3505</v>
-      </c>
-      <c r="B1306" s="3" t="s">
-        <v>3506</v>
       </c>
       <c r="C1306" s="3" t="s">
         <v>3027</v>
@@ -46754,7 +46750,7 @@
     </row>
     <row r="1307" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1307" s="3" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B1307" s="3" t="s">
         <v>3029</v>
@@ -46778,7 +46774,7 @@
     </row>
     <row r="1308" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1308" s="3" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B1308" s="3" t="s">
         <v>3032</v>
@@ -46802,7 +46798,7 @@
     </row>
     <row r="1309" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1309" s="3" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B1309" s="3" t="s">
         <v>3035</v>
@@ -46826,13 +46822,13 @@
     </row>
     <row r="1310" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1310" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1310" s="3" t="s">
         <v>3510</v>
       </c>
-      <c r="B1310" s="3" t="s">
+      <c r="C1310" s="3" t="s">
         <v>3511</v>
-      </c>
-      <c r="C1310" s="3" t="s">
-        <v>3512</v>
       </c>
       <c r="D1310" s="3"/>
       <c r="E1310" s="3" t="s">
@@ -46850,13 +46846,13 @@
     </row>
     <row r="1311" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1311" s="3" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B1311" s="3" t="s">
         <v>3513</v>
       </c>
-      <c r="B1311" s="3" t="s">
+      <c r="C1311" s="3" t="s">
         <v>3514</v>
-      </c>
-      <c r="C1311" s="3" t="s">
-        <v>3515</v>
       </c>
       <c r="D1311" s="3"/>
       <c r="E1311" s="3" t="s">
@@ -46874,13 +46870,13 @@
     </row>
     <row r="1312" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1312" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B1312" s="3" t="s">
         <v>3516</v>
       </c>
-      <c r="B1312" s="3" t="s">
+      <c r="C1312" s="3" t="s">
         <v>3517</v>
-      </c>
-      <c r="C1312" s="3" t="s">
-        <v>3518</v>
       </c>
       <c r="D1312" s="3"/>
       <c r="E1312" s="3" t="s">
@@ -46898,13 +46894,13 @@
     </row>
     <row r="1313" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1313" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B1313" s="3" t="s">
         <v>3519</v>
       </c>
-      <c r="B1313" s="3" t="s">
+      <c r="C1313" s="3" t="s">
         <v>3520</v>
-      </c>
-      <c r="C1313" s="3" t="s">
-        <v>3521</v>
       </c>
       <c r="D1313" s="3"/>
       <c r="E1313" s="3" t="s">
@@ -46922,13 +46918,13 @@
     </row>
     <row r="1314" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1314" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1314" s="3" t="s">
         <v>3522</v>
       </c>
-      <c r="B1314" s="3" t="s">
+      <c r="C1314" s="3" t="s">
         <v>3523</v>
-      </c>
-      <c r="C1314" s="3" t="s">
-        <v>3524</v>
       </c>
       <c r="D1314" s="3"/>
       <c r="E1314" s="3" t="s">
@@ -46946,13 +46942,13 @@
     </row>
     <row r="1315" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1315" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B1315" s="3" t="s">
         <v>3525</v>
       </c>
-      <c r="B1315" s="3" t="s">
+      <c r="C1315" s="3" t="s">
         <v>3526</v>
-      </c>
-      <c r="C1315" s="3" t="s">
-        <v>3527</v>
       </c>
       <c r="D1315" s="3"/>
       <c r="E1315" s="3" t="s">
@@ -46970,13 +46966,13 @@
     </row>
     <row r="1316" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1316" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1316" s="3" t="s">
         <v>3528</v>
       </c>
-      <c r="B1316" s="3" t="s">
+      <c r="C1316" s="3" t="s">
         <v>3529</v>
-      </c>
-      <c r="C1316" s="3" t="s">
-        <v>3530</v>
       </c>
       <c r="D1316" s="3"/>
       <c r="E1316" s="3" t="s">
@@ -46994,13 +46990,13 @@
     </row>
     <row r="1317" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1317" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B1317" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="B1317" s="3" t="s">
+      <c r="C1317" s="3" t="s">
         <v>3532</v>
-      </c>
-      <c r="C1317" s="3" t="s">
-        <v>3533</v>
       </c>
       <c r="D1317" s="3"/>
       <c r="E1317" s="3" t="s">
@@ -47018,13 +47014,13 @@
     </row>
     <row r="1318" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1318" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1318" s="3" t="s">
         <v>3534</v>
       </c>
-      <c r="B1318" s="3" t="s">
+      <c r="C1318" s="3" t="s">
         <v>3535</v>
-      </c>
-      <c r="C1318" s="3" t="s">
-        <v>3536</v>
       </c>
       <c r="D1318" s="3"/>
       <c r="E1318" s="3" t="s">
@@ -47042,7 +47038,7 @@
     </row>
     <row r="1319" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1319" s="3" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="B1319" s="3" t="s">
         <v>515</v>
@@ -47066,7 +47062,7 @@
     </row>
     <row r="1320" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1320" s="3" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="B1320" s="3" t="s">
         <v>517</v>
@@ -47090,7 +47086,7 @@
     </row>
     <row r="1321" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1321" s="3" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="B1321" s="3" t="s">
         <v>240</v>
@@ -47114,7 +47110,7 @@
     </row>
     <row r="1322" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1322" s="3" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="B1322" s="3" t="s">
         <v>243</v>
@@ -47138,13 +47134,13 @@
     </row>
     <row r="1323" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1323" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1323" s="3" t="s">
         <v>3541</v>
       </c>
-      <c r="B1323" s="3" t="s">
+      <c r="C1323" s="3" t="s">
         <v>3542</v>
-      </c>
-      <c r="C1323" s="3" t="s">
-        <v>3543</v>
       </c>
       <c r="D1323" s="3"/>
       <c r="E1323" s="3" t="s">
@@ -47162,13 +47158,13 @@
     </row>
     <row r="1324" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1324" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B1324" s="3" t="s">
         <v>3544</v>
       </c>
-      <c r="B1324" s="3" t="s">
+      <c r="C1324" s="3" t="s">
         <v>3545</v>
-      </c>
-      <c r="C1324" s="3" t="s">
-        <v>3546</v>
       </c>
       <c r="D1324" s="3"/>
       <c r="E1324" s="3" t="s">
@@ -47186,13 +47182,13 @@
     </row>
     <row r="1325" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1325" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1325" s="3" t="s">
         <v>3547</v>
       </c>
-      <c r="B1325" s="3" t="s">
+      <c r="C1325" s="3" t="s">
         <v>3548</v>
-      </c>
-      <c r="C1325" s="3" t="s">
-        <v>3549</v>
       </c>
       <c r="D1325" s="3"/>
       <c r="E1325" s="3" t="s">
@@ -47210,13 +47206,13 @@
     </row>
     <row r="1326" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1326" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1326" s="3" t="s">
         <v>3550</v>
       </c>
-      <c r="B1326" s="3" t="s">
+      <c r="C1326" s="3" t="s">
         <v>3551</v>
-      </c>
-      <c r="C1326" s="3" t="s">
-        <v>3552</v>
       </c>
       <c r="D1326" s="3"/>
       <c r="E1326" s="3" t="s">
@@ -47234,13 +47230,13 @@
     </row>
     <row r="1327" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1327" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B1327" s="3" t="s">
         <v>3553</v>
       </c>
-      <c r="B1327" s="3" t="s">
+      <c r="C1327" s="3" t="s">
         <v>3554</v>
-      </c>
-      <c r="C1327" s="3" t="s">
-        <v>3555</v>
       </c>
       <c r="D1327" s="3"/>
       <c r="E1327" s="3" t="s">
@@ -47258,13 +47254,13 @@
     </row>
     <row r="1328" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1328" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1328" s="3" t="s">
         <v>3556</v>
       </c>
-      <c r="B1328" s="3" t="s">
+      <c r="C1328" s="3" t="s">
         <v>3557</v>
-      </c>
-      <c r="C1328" s="3" t="s">
-        <v>3558</v>
       </c>
       <c r="D1328" s="3"/>
       <c r="E1328" s="3" t="s">
@@ -47282,13 +47278,13 @@
     </row>
     <row r="1329" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1329" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1329" s="3" t="s">
         <v>3559</v>
       </c>
-      <c r="B1329" s="3" t="s">
+      <c r="C1329" s="3" t="s">
         <v>3560</v>
-      </c>
-      <c r="C1329" s="3" t="s">
-        <v>3561</v>
       </c>
       <c r="D1329" s="3"/>
       <c r="E1329" s="3" t="s">
@@ -47306,13 +47302,13 @@
     </row>
     <row r="1330" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1330" s="3" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1330" s="3" t="s">
         <v>3562</v>
       </c>
-      <c r="B1330" s="3" t="s">
+      <c r="C1330" s="3" t="s">
         <v>3563</v>
-      </c>
-      <c r="C1330" s="3" t="s">
-        <v>3564</v>
       </c>
       <c r="D1330" s="3"/>
       <c r="E1330" s="3" t="s">
@@ -47330,7 +47326,7 @@
     </row>
     <row r="1331" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1331" s="3" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B1331" s="3" t="s">
         <v>129</v>
@@ -47354,7 +47350,7 @@
     </row>
     <row r="1332" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1332" s="3" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B1332" s="3" t="s">
         <v>134</v>
@@ -47378,7 +47374,7 @@
     </row>
     <row r="1333" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1333" s="3" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B1333" s="3" t="s">
         <v>171</v>
@@ -47402,7 +47398,7 @@
     </row>
     <row r="1334" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1334" s="3" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B1334" s="3" t="s">
         <v>174</v>
@@ -47426,13 +47422,13 @@
     </row>
     <row r="1335" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1335" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B1335" s="3" t="s">
         <v>3569</v>
       </c>
-      <c r="B1335" s="3" t="s">
+      <c r="C1335" s="3" t="s">
         <v>3570</v>
-      </c>
-      <c r="C1335" s="3" t="s">
-        <v>3571</v>
       </c>
       <c r="D1335" s="3"/>
       <c r="E1335" s="3" t="s">
@@ -47450,7 +47446,7 @@
     </row>
     <row r="1336" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1336" s="3" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B1336" s="3" t="s">
         <v>136</v>
@@ -47474,7 +47470,7 @@
     </row>
     <row r="1337" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1337" s="3" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B1337" s="3" t="s">
         <v>141</v>
@@ -47498,7 +47494,7 @@
     </row>
     <row r="1338" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1338" s="3" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B1338" s="3" t="s">
         <v>131</v>
@@ -47522,13 +47518,13 @@
     </row>
     <row r="1339" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1339" s="3" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B1339" s="3" t="s">
         <v>3575</v>
       </c>
-      <c r="B1339" s="3" t="s">
+      <c r="C1339" s="3" t="s">
         <v>3576</v>
-      </c>
-      <c r="C1339" s="3" t="s">
-        <v>3577</v>
       </c>
       <c r="D1339" s="3"/>
       <c r="E1339" s="3" t="s">
@@ -47546,13 +47542,13 @@
     </row>
     <row r="1340" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1340" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1340" s="3" t="s">
         <v>3578</v>
       </c>
-      <c r="B1340" s="3" t="s">
+      <c r="C1340" s="3" t="s">
         <v>3579</v>
-      </c>
-      <c r="C1340" s="3" t="s">
-        <v>3580</v>
       </c>
       <c r="D1340" s="3"/>
       <c r="E1340" s="3" t="s">
@@ -47570,13 +47566,13 @@
     </row>
     <row r="1341" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1341" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1341" s="3" t="s">
         <v>3581</v>
       </c>
-      <c r="B1341" s="3" t="s">
+      <c r="C1341" s="3" t="s">
         <v>3582</v>
-      </c>
-      <c r="C1341" s="3" t="s">
-        <v>3583</v>
       </c>
       <c r="D1341" s="3"/>
       <c r="E1341" s="3" t="s">
@@ -47594,13 +47590,13 @@
     </row>
     <row r="1342" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1342" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1342" s="3" t="s">
         <v>3584</v>
       </c>
-      <c r="B1342" s="3" t="s">
+      <c r="C1342" s="3" t="s">
         <v>3585</v>
-      </c>
-      <c r="C1342" s="3" t="s">
-        <v>3586</v>
       </c>
       <c r="D1342" s="3"/>
       <c r="E1342" s="3" t="s">
@@ -47618,13 +47614,13 @@
     </row>
     <row r="1343" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1343" s="3" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B1343" s="3" t="s">
         <v>3587</v>
       </c>
-      <c r="B1343" s="3" t="s">
+      <c r="C1343" s="3" t="s">
         <v>3588</v>
-      </c>
-      <c r="C1343" s="3" t="s">
-        <v>3589</v>
       </c>
       <c r="D1343" s="3"/>
       <c r="E1343" s="3" t="s">
@@ -47642,13 +47638,13 @@
     </row>
     <row r="1344" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1344" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1344" s="3" t="s">
         <v>3590</v>
       </c>
-      <c r="B1344" s="3" t="s">
+      <c r="C1344" s="3" t="s">
         <v>3591</v>
-      </c>
-      <c r="C1344" s="3" t="s">
-        <v>3592</v>
       </c>
       <c r="D1344" s="3"/>
       <c r="E1344" s="3" t="s">
@@ -47666,13 +47662,13 @@
     </row>
     <row r="1345" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1345" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B1345" s="3" t="s">
         <v>3593</v>
       </c>
-      <c r="B1345" s="3" t="s">
+      <c r="C1345" s="3" t="s">
         <v>3594</v>
-      </c>
-      <c r="C1345" s="3" t="s">
-        <v>3595</v>
       </c>
       <c r="D1345" s="3"/>
       <c r="E1345" s="3" t="s">
@@ -47690,13 +47686,13 @@
     </row>
     <row r="1346" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1346" s="3" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1346" s="3" t="s">
         <v>3596</v>
       </c>
-      <c r="B1346" s="3" t="s">
+      <c r="C1346" s="3" t="s">
         <v>3597</v>
-      </c>
-      <c r="C1346" s="3" t="s">
-        <v>3598</v>
       </c>
       <c r="D1346" s="3"/>
       <c r="E1346" s="3" t="s">
@@ -47714,55 +47710,55 @@
     </row>
     <row r="1347" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1347" s="3" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="B1347" s="3" t="s">
         <v>3462</v>
       </c>
       <c r="C1347" s="3" t="s">
-        <v>3463</v>
+        <v>3446</v>
       </c>
       <c r="D1347" s="3"/>
       <c r="E1347" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F1347" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1347" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1347" s="5">
-        <v>44952.8194444444</v>
+        <v>44993.36875</v>
       </c>
     </row>
     <row r="1348" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1348" s="3" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1348" s="3" t="s">
         <v>3600</v>
       </c>
-      <c r="B1348" s="3" t="s">
+      <c r="C1348" s="3" t="s">
         <v>3601</v>
-      </c>
-      <c r="C1348" s="3" t="s">
-        <v>3602</v>
       </c>
       <c r="D1348" s="3"/>
       <c r="E1348" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F1348" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1348" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1348" s="5">
-        <v>44952.8194444444</v>
+        <v>44993.36875</v>
       </c>
     </row>
     <row r="1349" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1349" s="3" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B1349" s="3" t="s">
         <v>3362</v>
@@ -47786,13 +47782,13 @@
     </row>
     <row r="1350" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1350" s="3" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B1350" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C1350" s="3" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="D1350" s="3"/>
       <c r="E1350" s="3" t="s">
@@ -47810,10 +47806,10 @@
     </row>
     <row r="1351" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1351" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1351" s="3" t="s">
         <v>3606</v>
-      </c>
-      <c r="B1351" s="3" t="s">
-        <v>3607</v>
       </c>
       <c r="C1351" s="3" t="s">
         <v>10</v>
@@ -47834,7 +47830,7 @@
     </row>
     <row r="1352" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1352" s="3" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="B1352" s="3" t="s">
         <v>35</v>
@@ -47858,7 +47854,7 @@
     </row>
     <row r="1353" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1353" s="3" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="B1353" s="3" t="s">
         <v>3448</v>
@@ -47882,13 +47878,13 @@
     </row>
     <row r="1354" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1354" s="3" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1354" s="3" t="s">
         <v>3610</v>
       </c>
-      <c r="B1354" s="3" t="s">
+      <c r="C1354" s="3" t="s">
         <v>3611</v>
-      </c>
-      <c r="C1354" s="3" t="s">
-        <v>3612</v>
       </c>
       <c r="D1354" s="3"/>
       <c r="E1354" s="3" t="s">
@@ -47906,13 +47902,13 @@
     </row>
     <row r="1355" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1355" s="3" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B1355" s="3" t="s">
         <v>3613</v>
       </c>
-      <c r="B1355" s="3" t="s">
+      <c r="C1355" s="3" t="s">
         <v>3614</v>
-      </c>
-      <c r="C1355" s="3" t="s">
-        <v>3615</v>
       </c>
       <c r="D1355" s="3"/>
       <c r="E1355" s="3" t="s">
@@ -47930,13 +47926,13 @@
     </row>
     <row r="1356" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1356" s="3" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1356" s="3" t="s">
         <v>3616</v>
       </c>
-      <c r="B1356" s="3" t="s">
+      <c r="C1356" s="3" t="s">
         <v>3617</v>
-      </c>
-      <c r="C1356" s="3" t="s">
-        <v>3618</v>
       </c>
       <c r="D1356" s="3"/>
       <c r="E1356" s="3" t="s">
@@ -47954,13 +47950,13 @@
     </row>
     <row r="1357" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1357" s="3" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B1357" s="3" t="s">
         <v>3619</v>
       </c>
-      <c r="B1357" s="3" t="s">
+      <c r="C1357" s="3" t="s">
         <v>3620</v>
-      </c>
-      <c r="C1357" s="3" t="s">
-        <v>3621</v>
       </c>
       <c r="D1357" s="3"/>
       <c r="E1357" s="3" t="s">
@@ -47978,13 +47974,13 @@
     </row>
     <row r="1358" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1358" s="3" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1358" s="3" t="s">
         <v>3622</v>
       </c>
-      <c r="B1358" s="3" t="s">
+      <c r="C1358" s="3" t="s">
         <v>3623</v>
-      </c>
-      <c r="C1358" s="3" t="s">
-        <v>3624</v>
       </c>
       <c r="D1358" s="3"/>
       <c r="E1358" s="3" t="s">
@@ -48002,7 +47998,7 @@
     </row>
     <row r="1359" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1359" s="3" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B1359" s="3" t="s">
         <v>330</v>
@@ -48026,13 +48022,13 @@
     </row>
     <row r="1360" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1360" s="3" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B1360" s="3" t="s">
         <v>3626</v>
       </c>
-      <c r="B1360" s="3" t="s">
+      <c r="C1360" s="3" t="s">
         <v>3627</v>
-      </c>
-      <c r="C1360" s="3" t="s">
-        <v>3628</v>
       </c>
       <c r="D1360" s="3"/>
       <c r="E1360" s="3" t="s">
@@ -48050,13 +48046,13 @@
     </row>
     <row r="1361" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1361" s="3" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B1361" s="3" t="s">
         <v>3629</v>
       </c>
-      <c r="B1361" s="3" t="s">
+      <c r="C1361" s="3" t="s">
         <v>3630</v>
-      </c>
-      <c r="C1361" s="3" t="s">
-        <v>3631</v>
       </c>
       <c r="D1361" s="3"/>
       <c r="E1361" s="3" t="s">
@@ -48074,13 +48070,13 @@
     </row>
     <row r="1362" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1362" s="3" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1362" s="3" t="s">
         <v>3632</v>
       </c>
-      <c r="B1362" s="3" t="s">
+      <c r="C1362" s="3" t="s">
         <v>3633</v>
-      </c>
-      <c r="C1362" s="3" t="s">
-        <v>3634</v>
       </c>
       <c r="D1362" s="3"/>
       <c r="E1362" s="3" t="s">
@@ -48098,13 +48094,13 @@
     </row>
     <row r="1363" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1363" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B1363" s="3" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C1363" s="3" t="s">
         <v>3635</v>
-      </c>
-      <c r="B1363" s="3" t="s">
-        <v>3480</v>
-      </c>
-      <c r="C1363" s="3" t="s">
-        <v>3636</v>
       </c>
       <c r="D1363" s="3"/>
       <c r="E1363" s="3" t="s">
@@ -48122,13 +48118,13 @@
     </row>
     <row r="1364" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1364" s="3" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1364" s="3" t="s">
         <v>3637</v>
       </c>
-      <c r="B1364" s="3" t="s">
+      <c r="C1364" s="3" t="s">
         <v>3638</v>
-      </c>
-      <c r="C1364" s="3" t="s">
-        <v>3639</v>
       </c>
       <c r="D1364" s="3"/>
       <c r="E1364" s="3" t="s">
@@ -48146,13 +48142,13 @@
     </row>
     <row r="1365" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1365" s="3" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B1365" s="3" t="s">
         <v>3640</v>
       </c>
-      <c r="B1365" s="3" t="s">
+      <c r="C1365" s="3" t="s">
         <v>3641</v>
-      </c>
-      <c r="C1365" s="3" t="s">
-        <v>3642</v>
       </c>
       <c r="D1365" s="3"/>
       <c r="E1365" s="3" t="s">
@@ -48170,13 +48166,13 @@
     </row>
     <row r="1366" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1366" s="3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B1366" s="3" t="s">
         <v>3643</v>
       </c>
-      <c r="B1366" s="3" t="s">
+      <c r="C1366" s="3" t="s">
         <v>3644</v>
-      </c>
-      <c r="C1366" s="3" t="s">
-        <v>3645</v>
       </c>
       <c r="D1366" s="3"/>
       <c r="E1366" s="3" t="s">
@@ -48194,13 +48190,13 @@
     </row>
     <row r="1367" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1367" s="3" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1367" s="3" t="s">
         <v>3646</v>
       </c>
-      <c r="B1367" s="3" t="s">
+      <c r="C1367" s="3" t="s">
         <v>3647</v>
-      </c>
-      <c r="C1367" s="3" t="s">
-        <v>3648</v>
       </c>
       <c r="D1367" s="3"/>
       <c r="E1367" s="3" t="s">
@@ -48218,13 +48214,13 @@
     </row>
     <row r="1368" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1368" s="3" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B1368" s="3" t="s">
         <v>3649</v>
       </c>
-      <c r="B1368" s="3" t="s">
+      <c r="C1368" s="3" t="s">
         <v>3650</v>
-      </c>
-      <c r="C1368" s="3" t="s">
-        <v>3651</v>
       </c>
       <c r="D1368" s="3"/>
       <c r="E1368" s="3" t="s">
@@ -48242,13 +48238,13 @@
     </row>
     <row r="1369" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1369" s="3" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B1369" s="3" t="s">
         <v>3652</v>
       </c>
-      <c r="B1369" s="3" t="s">
+      <c r="C1369" s="3" t="s">
         <v>3653</v>
-      </c>
-      <c r="C1369" s="3" t="s">
-        <v>3654</v>
       </c>
       <c r="D1369" s="3"/>
       <c r="E1369" s="3" t="s">
@@ -48266,7 +48262,7 @@
     </row>
     <row r="1370" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1370" s="3" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B1370" s="3" t="s">
         <v>330</v>
@@ -48290,7 +48286,7 @@
     </row>
     <row r="1371" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1371" s="3" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B1371" s="3" t="s">
         <v>1486</v>
@@ -48314,7 +48310,7 @@
     </row>
     <row r="1372" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1372" s="3" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B1372" s="3" t="s">
         <v>1490</v>
@@ -48338,10 +48334,10 @@
     </row>
     <row r="1373" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1373" s="3" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B1373" s="3" t="s">
         <v>3658</v>
-      </c>
-      <c r="B1373" s="3" t="s">
-        <v>3659</v>
       </c>
       <c r="C1373" s="3" t="s">
         <v>241</v>
@@ -48362,7 +48358,7 @@
     </row>
     <row r="1374" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1374" s="3" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="B1374" s="3" t="s">
         <v>108</v>
@@ -48386,13 +48382,13 @@
     </row>
     <row r="1375" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1375" s="3" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B1375" s="3" t="s">
         <v>3661</v>
       </c>
-      <c r="B1375" s="3" t="s">
+      <c r="C1375" s="3" t="s">
         <v>3662</v>
-      </c>
-      <c r="C1375" s="3" t="s">
-        <v>3663</v>
       </c>
       <c r="D1375" s="3"/>
       <c r="E1375" s="3" t="s">
@@ -48410,7 +48406,7 @@
     </row>
     <row r="1376" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1376" s="3" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B1376" s="3" t="s">
         <v>123</v>
@@ -48434,7 +48430,7 @@
     </row>
     <row r="1377" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1377" s="3" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="B1377" s="3" t="s">
         <v>252</v>
@@ -48458,13 +48454,13 @@
     </row>
     <row r="1378" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1378" s="3" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1378" s="3" t="s">
         <v>3666</v>
       </c>
-      <c r="B1378" s="3" t="s">
+      <c r="C1378" s="3" t="s">
         <v>3667</v>
-      </c>
-      <c r="C1378" s="3" t="s">
-        <v>3668</v>
       </c>
       <c r="D1378" s="3"/>
       <c r="E1378" s="3" t="s">
@@ -48482,13 +48478,13 @@
     </row>
     <row r="1379" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1379" s="3" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="B1379" s="3" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C1379" s="3" t="s">
         <v>3488</v>
-      </c>
-      <c r="C1379" s="3" t="s">
-        <v>3489</v>
       </c>
       <c r="D1379" s="3"/>
       <c r="E1379" s="3" t="s">
@@ -48506,7 +48502,7 @@
     </row>
     <row r="1380" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1380" s="3" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="B1380" s="3" t="s">
         <v>111</v>
@@ -48530,7 +48526,7 @@
     </row>
     <row r="1381" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1381" s="3" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="B1381" s="3" t="s">
         <v>249</v>
@@ -48554,7 +48550,7 @@
     </row>
     <row r="1382" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1382" s="3" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="B1382" s="3" t="s">
         <v>3354</v>
@@ -48578,13 +48574,13 @@
     </row>
     <row r="1383" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1383" s="3" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="B1383" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C1383" s="3" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="D1383" s="3"/>
       <c r="E1383" s="3" t="s">
@@ -48602,13 +48598,13 @@
     </row>
     <row r="1384" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1384" s="3" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="B1384" s="3" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1384" s="3" t="s">
         <v>3495</v>
-      </c>
-      <c r="C1384" s="3" t="s">
-        <v>3496</v>
       </c>
       <c r="D1384" s="3"/>
       <c r="E1384" s="3" t="s">
@@ -48626,13 +48622,13 @@
     </row>
     <row r="1385" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1385" s="3" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B1385" s="3" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C1385" s="3" t="s">
         <v>3676</v>
-      </c>
-      <c r="B1385" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C1385" s="3" t="s">
-        <v>3677</v>
       </c>
       <c r="D1385" s="3"/>
       <c r="E1385" s="3" t="s">
@@ -48650,13 +48646,13 @@
     </row>
     <row r="1386" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1386" s="3" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="B1386" s="3" t="s">
         <v>3186</v>
       </c>
       <c r="C1386" s="3" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="D1386" s="3"/>
       <c r="E1386" s="3" t="s">
@@ -48674,13 +48670,13 @@
     </row>
     <row r="1387" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1387" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B1387" s="3" t="s">
         <v>3680</v>
       </c>
-      <c r="B1387" s="3" t="s">
+      <c r="C1387" s="3" t="s">
         <v>3681</v>
-      </c>
-      <c r="C1387" s="3" t="s">
-        <v>3682</v>
       </c>
       <c r="D1387" s="3"/>
       <c r="E1387" s="3" t="s">
@@ -48698,13 +48694,13 @@
     </row>
     <row r="1388" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1388" s="3" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B1388" s="3" t="s">
         <v>3683</v>
       </c>
-      <c r="B1388" s="3" t="s">
+      <c r="C1388" s="3" t="s">
         <v>3684</v>
-      </c>
-      <c r="C1388" s="3" t="s">
-        <v>3685</v>
       </c>
       <c r="D1388" s="3"/>
       <c r="E1388" s="3" t="s">
@@ -48722,13 +48718,13 @@
     </row>
     <row r="1389" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1389" s="3" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B1389" s="3" t="s">
         <v>3686</v>
       </c>
-      <c r="B1389" s="3" t="s">
-        <v>3687</v>
-      </c>
       <c r="C1389" s="3" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="D1389" s="3"/>
       <c r="E1389" s="3" t="s">
@@ -48746,13 +48742,13 @@
     </row>
     <row r="1390" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1390" s="3" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1390" s="3" t="s">
         <v>3688</v>
       </c>
-      <c r="B1390" s="3" t="s">
+      <c r="C1390" s="3" t="s">
         <v>3689</v>
-      </c>
-      <c r="C1390" s="3" t="s">
-        <v>3690</v>
       </c>
       <c r="D1390" s="3"/>
       <c r="E1390" s="3" t="s">
@@ -48770,13 +48766,13 @@
     </row>
     <row r="1391" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1391" s="3" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1391" s="3" t="s">
         <v>3691</v>
       </c>
-      <c r="B1391" s="3" t="s">
+      <c r="C1391" s="3" t="s">
         <v>3692</v>
-      </c>
-      <c r="C1391" s="3" t="s">
-        <v>3693</v>
       </c>
       <c r="D1391" s="3"/>
       <c r="E1391" s="3" t="s">
@@ -48794,13 +48790,13 @@
     </row>
     <row r="1392" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1392" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1392" s="3" t="s">
         <v>3694</v>
       </c>
-      <c r="B1392" s="3" t="s">
+      <c r="C1392" s="3" t="s">
         <v>3695</v>
-      </c>
-      <c r="C1392" s="3" t="s">
-        <v>3696</v>
       </c>
       <c r="D1392" s="3"/>
       <c r="E1392" s="3" t="s">
@@ -48818,13 +48814,13 @@
     </row>
     <row r="1393" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1393" s="3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B1393" s="3" t="s">
         <v>3697</v>
       </c>
-      <c r="B1393" s="3" t="s">
+      <c r="C1393" s="3" t="s">
         <v>3698</v>
-      </c>
-      <c r="C1393" s="3" t="s">
-        <v>3699</v>
       </c>
       <c r="D1393" s="3"/>
       <c r="E1393" s="3" t="s">
@@ -48842,13 +48838,13 @@
     </row>
     <row r="1394" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1394" s="3" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="B1394" s="3" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C1394" s="3" t="s">
         <v>3594</v>
-      </c>
-      <c r="C1394" s="3" t="s">
-        <v>3595</v>
       </c>
       <c r="D1394" s="3"/>
       <c r="E1394" s="3" t="s">
@@ -48866,7 +48862,7 @@
     </row>
     <row r="1395" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1395" s="3" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="B1395" s="3" t="s">
         <v>2823</v>
@@ -48890,13 +48886,13 @@
     </row>
     <row r="1396" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1396" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1396" s="3" t="s">
         <v>3702</v>
       </c>
-      <c r="B1396" s="3" t="s">
+      <c r="C1396" s="3" t="s">
         <v>3703</v>
-      </c>
-      <c r="C1396" s="3" t="s">
-        <v>3704</v>
       </c>
       <c r="D1396" s="3"/>
       <c r="E1396" s="3" t="s">
@@ -48914,13 +48910,13 @@
     </row>
     <row r="1397" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1397" s="3" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1397" s="3" t="s">
         <v>3705</v>
       </c>
-      <c r="B1397" s="3" t="s">
+      <c r="C1397" s="3" t="s">
         <v>3706</v>
-      </c>
-      <c r="C1397" s="3" t="s">
-        <v>3707</v>
       </c>
       <c r="D1397" s="3"/>
       <c r="E1397" s="3" t="s">
@@ -48938,13 +48934,13 @@
     </row>
     <row r="1398" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1398" s="3" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="B1398" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C1398" s="3" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="D1398" s="3"/>
       <c r="E1398" s="3" t="s">
@@ -48962,7 +48958,7 @@
     </row>
     <row r="1399" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1399" s="3" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="B1399" s="3" t="s">
         <v>3448</v>
@@ -48986,10 +48982,10 @@
     </row>
     <row r="1400" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1400" s="3" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B1400" s="3" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="C1400" s="3" t="s">
         <v>10</v>
@@ -49010,13 +49006,13 @@
     </row>
     <row r="1401" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1401" s="3" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B1401" s="3" t="s">
         <v>3712</v>
       </c>
-      <c r="B1401" s="3" t="s">
+      <c r="C1401" s="3" t="s">
         <v>3713</v>
-      </c>
-      <c r="C1401" s="3" t="s">
-        <v>3714</v>
       </c>
       <c r="D1401" s="3"/>
       <c r="E1401" s="3" t="s">
@@ -49034,13 +49030,13 @@
     </row>
     <row r="1402" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1402" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B1402" s="3" t="s">
         <v>3715</v>
       </c>
-      <c r="B1402" s="3" t="s">
+      <c r="C1402" s="3" t="s">
         <v>3716</v>
-      </c>
-      <c r="C1402" s="3" t="s">
-        <v>3717</v>
       </c>
       <c r="D1402" s="3"/>
       <c r="E1402" s="3" t="s">
@@ -49058,7 +49054,7 @@
     </row>
     <row r="1403" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1403" s="3" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="B1403" s="3" t="s">
         <v>3445</v>
@@ -49082,13 +49078,13 @@
     </row>
     <row r="1404" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1404" s="3" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B1404" s="3" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1404" s="3" t="s">
         <v>3719</v>
-      </c>
-      <c r="B1404" s="3" t="s">
-        <v>3689</v>
-      </c>
-      <c r="C1404" s="3" t="s">
-        <v>3720</v>
       </c>
       <c r="D1404" s="3"/>
       <c r="E1404" s="3" t="s">
@@ -49106,13 +49102,13 @@
     </row>
     <row r="1405" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1405" s="3" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1405" s="3" t="s">
         <v>3721</v>
       </c>
-      <c r="B1405" s="3" t="s">
+      <c r="C1405" s="3" t="s">
         <v>3722</v>
-      </c>
-      <c r="C1405" s="3" t="s">
-        <v>3723</v>
       </c>
       <c r="D1405" s="3"/>
       <c r="E1405" s="3" t="s">
@@ -49130,7 +49126,7 @@
     </row>
     <row r="1406" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1406" s="3" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="B1406" s="3" t="s">
         <v>1088</v>
@@ -49154,13 +49150,13 @@
     </row>
     <row r="1407" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1407" s="3" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1407" s="3" t="s">
         <v>3725</v>
       </c>
-      <c r="B1407" s="3" t="s">
+      <c r="C1407" s="3" t="s">
         <v>3726</v>
-      </c>
-      <c r="C1407" s="3" t="s">
-        <v>3727</v>
       </c>
       <c r="D1407" s="3"/>
       <c r="E1407" s="3" t="s">
@@ -49178,13 +49174,13 @@
     </row>
     <row r="1408" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1408" s="3" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B1408" s="3" t="s">
         <v>3728</v>
       </c>
-      <c r="B1408" s="3" t="s">
+      <c r="C1408" s="3" t="s">
         <v>3729</v>
-      </c>
-      <c r="C1408" s="3" t="s">
-        <v>3730</v>
       </c>
       <c r="D1408" s="3"/>
       <c r="E1408" s="3" t="s">
@@ -49202,13 +49198,13 @@
     </row>
     <row r="1409" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1409" s="3" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B1409" s="3" t="s">
         <v>3731</v>
       </c>
-      <c r="B1409" s="3" t="s">
+      <c r="C1409" s="3" t="s">
         <v>3732</v>
-      </c>
-      <c r="C1409" s="3" t="s">
-        <v>3733</v>
       </c>
       <c r="D1409" s="3"/>
       <c r="E1409" s="3" t="s">
@@ -49226,13 +49222,13 @@
     </row>
     <row r="1410" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1410" s="3" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1410" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="B1410" s="3" t="s">
+      <c r="C1410" s="3" t="s">
         <v>3735</v>
-      </c>
-      <c r="C1410" s="3" t="s">
-        <v>3736</v>
       </c>
       <c r="D1410" s="3"/>
       <c r="E1410" s="3" t="s">
@@ -49250,13 +49246,13 @@
     </row>
     <row r="1411" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1411" s="3" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B1411" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="B1411" s="3" t="s">
+      <c r="C1411" s="3" t="s">
         <v>3738</v>
-      </c>
-      <c r="C1411" s="3" t="s">
-        <v>3739</v>
       </c>
       <c r="D1411" s="3"/>
       <c r="E1411" s="3" t="s">
@@ -49274,7 +49270,7 @@
     </row>
     <row r="1412" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1412" s="3" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="B1412" s="3" t="s">
         <v>108</v>
@@ -49298,7 +49294,7 @@
     </row>
     <row r="1413" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1413" s="3" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="B1413" s="3" t="s">
         <v>3233</v>
@@ -49322,7 +49318,7 @@
     </row>
     <row r="1414" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1414" s="3" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="B1414" s="3" t="s">
         <v>249</v>
@@ -49346,13 +49342,13 @@
     </row>
     <row r="1415" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1415" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1415" s="3" t="s">
         <v>3743</v>
       </c>
-      <c r="B1415" s="3" t="s">
+      <c r="C1415" s="3" t="s">
         <v>3744</v>
-      </c>
-      <c r="C1415" s="3" t="s">
-        <v>3745</v>
       </c>
       <c r="D1415" s="3"/>
       <c r="E1415" s="3" t="s">
@@ -49370,13 +49366,13 @@
     </row>
     <row r="1416" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1416" s="3" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1416" s="3" t="s">
         <v>3746</v>
       </c>
-      <c r="B1416" s="3" t="s">
+      <c r="C1416" s="3" t="s">
         <v>3747</v>
-      </c>
-      <c r="C1416" s="3" t="s">
-        <v>3748</v>
       </c>
       <c r="D1416" s="3"/>
       <c r="E1416" s="3" t="s">
@@ -49394,13 +49390,13 @@
     </row>
     <row r="1417" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1417" s="3" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1417" s="3" t="s">
         <v>3749</v>
       </c>
-      <c r="B1417" s="3" t="s">
+      <c r="C1417" s="3" t="s">
         <v>3750</v>
-      </c>
-      <c r="C1417" s="3" t="s">
-        <v>3751</v>
       </c>
       <c r="D1417" s="3"/>
       <c r="E1417" s="3" t="s">
@@ -49418,13 +49414,13 @@
     </row>
     <row r="1418" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1418" s="3" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1418" s="3" t="s">
         <v>3752</v>
       </c>
-      <c r="B1418" s="3" t="s">
+      <c r="C1418" s="3" t="s">
         <v>3753</v>
-      </c>
-      <c r="C1418" s="3" t="s">
-        <v>3754</v>
       </c>
       <c r="D1418" s="3"/>
       <c r="E1418" s="3" t="s">
@@ -49442,7 +49438,7 @@
     </row>
     <row r="1419" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1419" s="3" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="B1419" s="3" t="s">
         <v>111</v>
@@ -49466,7 +49462,7 @@
     </row>
     <row r="1420" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1420" s="3" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="B1420" s="3" t="s">
         <v>108</v>
@@ -49490,7 +49486,7 @@
     </row>
     <row r="1421" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1421" s="3" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="B1421" s="3" t="s">
         <v>123</v>
@@ -49514,13 +49510,13 @@
     </row>
     <row r="1422" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1422" s="3" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="B1422" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C1422" s="3" t="s">
         <v>3667</v>
-      </c>
-      <c r="C1422" s="3" t="s">
-        <v>3668</v>
       </c>
       <c r="D1422" s="3"/>
       <c r="E1422" s="3" t="s">
@@ -49538,13 +49534,13 @@
     </row>
     <row r="1423" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1423" s="3" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B1423" s="3" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C1423" s="3" t="s">
         <v>3488</v>
-      </c>
-      <c r="C1423" s="3" t="s">
-        <v>3489</v>
       </c>
       <c r="D1423" s="3"/>
       <c r="E1423" s="3" t="s">
@@ -49562,13 +49558,13 @@
     </row>
     <row r="1424" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1424" s="3" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B1424" s="3" t="s">
         <v>3760</v>
       </c>
-      <c r="B1424" s="3" t="s">
+      <c r="C1424" s="3" t="s">
         <v>3761</v>
-      </c>
-      <c r="C1424" s="3" t="s">
-        <v>3762</v>
       </c>
       <c r="D1424" s="3"/>
       <c r="E1424" s="3" t="s">
@@ -49586,13 +49582,13 @@
     </row>
     <row r="1425" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1425" s="3" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B1425" s="3" t="s">
         <v>3763</v>
       </c>
-      <c r="B1425" s="3" t="s">
+      <c r="C1425" s="3" t="s">
         <v>3764</v>
-      </c>
-      <c r="C1425" s="3" t="s">
-        <v>3765</v>
       </c>
       <c r="D1425" s="3"/>
       <c r="E1425" s="3" t="s">
@@ -49610,7 +49606,7 @@
     </row>
     <row r="1426" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1426" s="3" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="B1426" s="3" t="s">
         <v>108</v>
@@ -49634,7 +49630,7 @@
     </row>
     <row r="1427" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1427" s="3" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="B1427" s="3" t="s">
         <v>111</v>
@@ -49658,13 +49654,13 @@
     </row>
     <row r="1428" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1428" s="3" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B1428" s="3" t="s">
         <v>3768</v>
       </c>
-      <c r="B1428" s="3" t="s">
+      <c r="C1428" s="3" t="s">
         <v>3769</v>
-      </c>
-      <c r="C1428" s="3" t="s">
-        <v>3770</v>
       </c>
       <c r="D1428" s="3"/>
       <c r="E1428" s="3" t="s">
@@ -49682,7 +49678,7 @@
     </row>
     <row r="1429" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1429" s="3" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="B1429" s="3" t="s">
         <v>1620</v>
@@ -49706,13 +49702,13 @@
     </row>
     <row r="1430" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1430" s="3" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B1430" s="3" t="s">
         <v>3772</v>
       </c>
-      <c r="B1430" s="3" t="s">
+      <c r="C1430" s="3" t="s">
         <v>3773</v>
-      </c>
-      <c r="C1430" s="3" t="s">
-        <v>3774</v>
       </c>
       <c r="D1430" s="3"/>
       <c r="E1430" s="3" t="s">
@@ -49730,13 +49726,13 @@
     </row>
     <row r="1431" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1431" s="3" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B1431" s="3" t="s">
         <v>3775</v>
       </c>
-      <c r="B1431" s="3" t="s">
+      <c r="C1431" s="3" t="s">
         <v>3776</v>
-      </c>
-      <c r="C1431" s="3" t="s">
-        <v>3777</v>
       </c>
       <c r="D1431" s="3"/>
       <c r="E1431" s="3" t="s">
@@ -49754,13 +49750,13 @@
     </row>
     <row r="1432" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1432" s="3" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1432" s="3" t="s">
         <v>3778</v>
       </c>
-      <c r="B1432" s="3" t="s">
+      <c r="C1432" s="3" t="s">
         <v>3779</v>
-      </c>
-      <c r="C1432" s="3" t="s">
-        <v>3780</v>
       </c>
       <c r="D1432" s="3"/>
       <c r="E1432" s="3" t="s">
@@ -49778,13 +49774,13 @@
     </row>
     <row r="1433" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1433" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1433" s="3" t="s">
         <v>3781</v>
       </c>
-      <c r="B1433" s="3" t="s">
+      <c r="C1433" s="3" t="s">
         <v>3782</v>
-      </c>
-      <c r="C1433" s="3" t="s">
-        <v>3783</v>
       </c>
       <c r="D1433" s="3"/>
       <c r="E1433" s="3" t="s">
@@ -49802,13 +49798,13 @@
     </row>
     <row r="1434" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1434" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1434" s="3" t="s">
         <v>3784</v>
       </c>
-      <c r="B1434" s="3" t="s">
+      <c r="C1434" s="3" t="s">
         <v>3785</v>
-      </c>
-      <c r="C1434" s="3" t="s">
-        <v>3786</v>
       </c>
       <c r="D1434" s="3"/>
       <c r="E1434" s="3" t="s">
@@ -49826,7 +49822,7 @@
     </row>
     <row r="1435" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1435" s="3" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="B1435" s="3" t="s">
         <v>261</v>
@@ -49850,10 +49846,10 @@
     </row>
     <row r="1436" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1436" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B1436" s="3" t="s">
         <v>3788</v>
-      </c>
-      <c r="B1436" s="3" t="s">
-        <v>3789</v>
       </c>
       <c r="C1436" s="3" t="s">
         <v>265</v>
@@ -49874,13 +49870,13 @@
     </row>
     <row r="1437" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1437" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1437" s="3" t="s">
         <v>3790</v>
       </c>
-      <c r="B1437" s="3" t="s">
+      <c r="C1437" s="3" t="s">
         <v>3791</v>
-      </c>
-      <c r="C1437" s="3" t="s">
-        <v>3792</v>
       </c>
       <c r="D1437" s="3"/>
       <c r="E1437" s="3" t="s">
@@ -49898,13 +49894,13 @@
     </row>
     <row r="1438" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1438" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B1438" s="3" t="s">
         <v>3793</v>
       </c>
-      <c r="B1438" s="3" t="s">
+      <c r="C1438" s="3" t="s">
         <v>3794</v>
-      </c>
-      <c r="C1438" s="3" t="s">
-        <v>3795</v>
       </c>
       <c r="D1438" s="3"/>
       <c r="E1438" s="3" t="s">
@@ -49922,13 +49918,13 @@
     </row>
     <row r="1439" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1439" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1439" s="3" t="s">
         <v>3796</v>
       </c>
-      <c r="B1439" s="3" t="s">
+      <c r="C1439" s="3" t="s">
         <v>3797</v>
-      </c>
-      <c r="C1439" s="3" t="s">
-        <v>3798</v>
       </c>
       <c r="D1439" s="3"/>
       <c r="E1439" s="3" t="s">
@@ -49946,13 +49942,13 @@
     </row>
     <row r="1440" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1440" s="3" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="B1440" s="3" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="C1440" s="3" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="D1440" s="3"/>
       <c r="E1440" s="3" t="s">
@@ -49970,13 +49966,13 @@
     </row>
     <row r="1441" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1441" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1441" s="3" t="s">
         <v>3800</v>
       </c>
-      <c r="B1441" s="3" t="s">
+      <c r="C1441" s="3" t="s">
         <v>3801</v>
-      </c>
-      <c r="C1441" s="3" t="s">
-        <v>3802</v>
       </c>
       <c r="D1441" s="3"/>
       <c r="E1441" s="3" t="s">
@@ -49994,13 +49990,13 @@
     </row>
     <row r="1442" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1442" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B1442" s="3" t="s">
         <v>3803</v>
       </c>
-      <c r="B1442" s="3" t="s">
+      <c r="C1442" s="3" t="s">
         <v>3804</v>
-      </c>
-      <c r="C1442" s="3" t="s">
-        <v>3805</v>
       </c>
       <c r="D1442" s="3"/>
       <c r="E1442" s="3" t="s">
@@ -50018,13 +50014,13 @@
     </row>
     <row r="1443" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1443" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1443" s="3" t="s">
         <v>3806</v>
       </c>
-      <c r="B1443" s="3" t="s">
+      <c r="C1443" s="3" t="s">
         <v>3807</v>
-      </c>
-      <c r="C1443" s="3" t="s">
-        <v>3808</v>
       </c>
       <c r="D1443" s="3"/>
       <c r="E1443" s="3" t="s">
@@ -50042,13 +50038,13 @@
     </row>
     <row r="1444" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1444" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B1444" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="B1444" s="3" t="s">
+      <c r="C1444" s="3" t="s">
         <v>3810</v>
-      </c>
-      <c r="C1444" s="3" t="s">
-        <v>3811</v>
       </c>
       <c r="D1444" s="3"/>
       <c r="E1444" s="3" t="s">
@@ -50066,7 +50062,7 @@
     </row>
     <row r="1445" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1445" s="3" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="B1445" s="3" t="s">
         <v>351</v>
@@ -50090,13 +50086,13 @@
     </row>
     <row r="1446" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1446" s="3" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B1446" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C1446" s="3" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="D1446" s="3"/>
       <c r="E1446" s="3" t="s">
@@ -50114,13 +50110,13 @@
     </row>
     <row r="1447" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1447" s="3" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B1447" s="3" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C1447" s="3" t="s">
         <v>3773</v>
-      </c>
-      <c r="C1447" s="3" t="s">
-        <v>3774</v>
       </c>
       <c r="D1447" s="3"/>
       <c r="E1447" s="3" t="s">
@@ -50138,10 +50134,10 @@
     </row>
     <row r="1448" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1448" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B1448" s="3" t="s">
         <v>3815</v>
-      </c>
-      <c r="B1448" s="3" t="s">
-        <v>3816</v>
       </c>
       <c r="C1448" s="3" t="s">
         <v>208</v>
@@ -50162,13 +50158,13 @@
     </row>
     <row r="1449" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1449" s="3" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="B1449" s="3" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1449" s="3" t="s">
         <v>3465</v>
-      </c>
-      <c r="C1449" s="3" t="s">
-        <v>3466</v>
       </c>
       <c r="D1449" s="3"/>
       <c r="E1449" s="3" t="s">
@@ -50186,13 +50182,13 @@
     </row>
     <row r="1450" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1450" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1450" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C1450" s="3" t="s">
         <v>3818</v>
-      </c>
-      <c r="B1450" s="3" t="s">
-        <v>3468</v>
-      </c>
-      <c r="C1450" s="3" t="s">
-        <v>3819</v>
       </c>
       <c r="D1450" s="3"/>
       <c r="E1450" s="3" t="s">
@@ -50210,13 +50206,13 @@
     </row>
     <row r="1451" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1451" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1451" s="3" t="s">
         <v>3820</v>
       </c>
-      <c r="B1451" s="3" t="s">
+      <c r="C1451" s="3" t="s">
         <v>3821</v>
-      </c>
-      <c r="C1451" s="3" t="s">
-        <v>3822</v>
       </c>
       <c r="D1451" s="3"/>
       <c r="E1451" s="3" t="s">
@@ -50234,7 +50230,7 @@
     </row>
     <row r="1452" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1452" s="3" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="B1452" s="3" t="s">
         <v>108</v>
@@ -50258,13 +50254,13 @@
     </row>
     <row r="1453" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1453" s="3" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="B1453" s="3" t="s">
         <v>2757</v>
       </c>
       <c r="C1453" s="3" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="D1453" s="3"/>
       <c r="E1453" s="3" t="s">
@@ -50282,13 +50278,13 @@
     </row>
     <row r="1454" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1454" s="3" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1454" s="3" t="s">
         <v>3826</v>
       </c>
-      <c r="B1454" s="3" t="s">
+      <c r="C1454" s="3" t="s">
         <v>3827</v>
-      </c>
-      <c r="C1454" s="3" t="s">
-        <v>3828</v>
       </c>
       <c r="D1454" s="3"/>
       <c r="E1454" s="3" t="s">
@@ -50306,13 +50302,13 @@
     </row>
     <row r="1455" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1455" s="3" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="B1455" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C1455" s="3" t="s">
         <v>3468</v>
-      </c>
-      <c r="C1455" s="3" t="s">
-        <v>3469</v>
       </c>
       <c r="D1455" s="3"/>
       <c r="E1455" s="3" t="s">
@@ -50330,13 +50326,13 @@
     </row>
     <row r="1456" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1456" s="3" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B1456" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1456" s="3" t="s">
         <v>3747</v>
-      </c>
-      <c r="C1456" s="3" t="s">
-        <v>3748</v>
       </c>
       <c r="D1456" s="3"/>
       <c r="E1456" s="3" t="s">
@@ -50354,13 +50350,13 @@
     </row>
     <row r="1457" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1457" s="3" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1457" s="3" t="s">
         <v>3831</v>
       </c>
-      <c r="B1457" s="3" t="s">
+      <c r="C1457" s="3" t="s">
         <v>3832</v>
-      </c>
-      <c r="C1457" s="3" t="s">
-        <v>3833</v>
       </c>
       <c r="D1457" s="3"/>
       <c r="E1457" s="3" t="s">
@@ -50378,13 +50374,13 @@
     </row>
     <row r="1458" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1458" s="3" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="B1458" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C1458" s="3" t="s">
         <v>3662</v>
-      </c>
-      <c r="C1458" s="3" t="s">
-        <v>3663</v>
       </c>
       <c r="D1458" s="3"/>
       <c r="E1458" s="3" t="s">
@@ -50402,7 +50398,7 @@
     </row>
     <row r="1459" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1459" s="3" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B1459" s="3" t="s">
         <v>123</v>
@@ -50426,13 +50422,13 @@
     </row>
     <row r="1460" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1460" s="3" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="B1460" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C1460" s="3" t="s">
         <v>3667</v>
-      </c>
-      <c r="C1460" s="3" t="s">
-        <v>3668</v>
       </c>
       <c r="D1460" s="3"/>
       <c r="E1460" s="3" t="s">
@@ -50450,13 +50446,13 @@
     </row>
     <row r="1461" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1461" s="3" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B1461" s="3" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C1461" s="3" t="s">
         <v>3488</v>
-      </c>
-      <c r="C1461" s="3" t="s">
-        <v>3489</v>
       </c>
       <c r="D1461" s="3"/>
       <c r="E1461" s="3" t="s">
@@ -50474,13 +50470,13 @@
     </row>
     <row r="1462" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1462" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1462" s="3" t="s">
         <v>3838</v>
       </c>
-      <c r="B1462" s="3" t="s">
+      <c r="C1462" s="3" t="s">
         <v>3839</v>
-      </c>
-      <c r="C1462" s="3" t="s">
-        <v>3840</v>
       </c>
       <c r="D1462" s="3"/>
       <c r="E1462" s="3" t="s">
@@ -50498,13 +50494,13 @@
     </row>
     <row r="1463" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1463" s="3" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B1463" s="3" t="s">
         <v>3841</v>
       </c>
-      <c r="B1463" s="3" t="s">
+      <c r="C1463" s="3" t="s">
         <v>3842</v>
-      </c>
-      <c r="C1463" s="3" t="s">
-        <v>3843</v>
       </c>
       <c r="D1463" s="3"/>
       <c r="E1463" s="3" t="s">
@@ -50522,13 +50518,13 @@
     </row>
     <row r="1464" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1464" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1464" s="3" t="s">
         <v>3844</v>
       </c>
-      <c r="B1464" s="3" t="s">
+      <c r="C1464" s="3" t="s">
         <v>3845</v>
-      </c>
-      <c r="C1464" s="3" t="s">
-        <v>3846</v>
       </c>
       <c r="D1464" s="3"/>
       <c r="E1464" s="3" t="s">
@@ -50546,7 +50542,7 @@
     </row>
     <row r="1465" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1465" s="3" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="B1465" s="3" t="s">
         <v>1591</v>
@@ -50570,13 +50566,13 @@
     </row>
     <row r="1466" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1466" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B1466" s="3" t="s">
         <v>3848</v>
       </c>
-      <c r="B1466" s="3" t="s">
+      <c r="C1466" s="3" t="s">
         <v>3849</v>
-      </c>
-      <c r="C1466" s="3" t="s">
-        <v>3850</v>
       </c>
       <c r="D1466" s="3"/>
       <c r="E1466" s="3" t="s">
@@ -50594,7 +50590,7 @@
     </row>
     <row r="1467" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1467" s="3" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B1467" s="3" t="s">
         <v>354</v>
@@ -50618,13 +50614,13 @@
     </row>
     <row r="1468" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1468" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1468" s="3" t="s">
         <v>3852</v>
       </c>
-      <c r="B1468" s="3" t="s">
+      <c r="C1468" s="3" t="s">
         <v>3853</v>
-      </c>
-      <c r="C1468" s="3" t="s">
-        <v>3854</v>
       </c>
       <c r="D1468" s="3"/>
       <c r="E1468" s="3" t="s">
@@ -50642,13 +50638,13 @@
     </row>
     <row r="1469" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1469" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1469" s="3" t="s">
         <v>3855</v>
       </c>
-      <c r="B1469" s="3" t="s">
+      <c r="C1469" s="3" t="s">
         <v>3856</v>
-      </c>
-      <c r="C1469" s="3" t="s">
-        <v>3857</v>
       </c>
       <c r="D1469" s="3"/>
       <c r="E1469" s="3" t="s">
@@ -50666,13 +50662,13 @@
     </row>
     <row r="1470" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1470" s="3" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1470" s="3" t="s">
         <v>3858</v>
       </c>
-      <c r="B1470" s="3" t="s">
+      <c r="C1470" s="3" t="s">
         <v>3859</v>
-      </c>
-      <c r="C1470" s="3" t="s">
-        <v>3860</v>
       </c>
       <c r="D1470" s="3"/>
       <c r="E1470" s="3" t="s">
@@ -50690,13 +50686,13 @@
     </row>
     <row r="1471" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1471" s="3" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1471" s="3" t="s">
         <v>3861</v>
       </c>
-      <c r="B1471" s="3" t="s">
+      <c r="C1471" s="3" t="s">
         <v>3862</v>
-      </c>
-      <c r="C1471" s="3" t="s">
-        <v>3863</v>
       </c>
       <c r="D1471" s="3"/>
       <c r="E1471" s="3" t="s">
@@ -50714,13 +50710,13 @@
     </row>
     <row r="1472" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1472" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1472" s="3" t="s">
         <v>3864</v>
       </c>
-      <c r="B1472" s="3" t="s">
+      <c r="C1472" s="3" t="s">
         <v>3865</v>
-      </c>
-      <c r="C1472" s="3" t="s">
-        <v>3866</v>
       </c>
       <c r="D1472" s="3"/>
       <c r="E1472" s="3" t="s">
@@ -50738,13 +50734,13 @@
     </row>
     <row r="1473" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1473" s="3" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="B1473" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C1473" s="3" t="s">
         <v>3662</v>
-      </c>
-      <c r="C1473" s="3" t="s">
-        <v>3663</v>
       </c>
       <c r="D1473" s="3"/>
       <c r="E1473" s="3" t="s">
@@ -50762,13 +50758,13 @@
     </row>
     <row r="1474" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1474" s="3" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="B1474" s="3" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C1474" s="3" t="s">
         <v>3638</v>
-      </c>
-      <c r="C1474" s="3" t="s">
-        <v>3639</v>
       </c>
       <c r="D1474" s="3"/>
       <c r="E1474" s="3" t="s">
@@ -50786,13 +50782,13 @@
     </row>
     <row r="1475" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1475" s="3" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="B1475" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C1475" s="3" t="s">
         <v>3667</v>
-      </c>
-      <c r="C1475" s="3" t="s">
-        <v>3668</v>
       </c>
       <c r="D1475" s="3"/>
       <c r="E1475" s="3" t="s">
@@ -50810,13 +50806,13 @@
     </row>
     <row r="1476" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1476" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1476" s="3" t="s">
         <v>3870</v>
       </c>
-      <c r="B1476" s="3" t="s">
+      <c r="C1476" s="3" t="s">
         <v>3871</v>
-      </c>
-      <c r="C1476" s="3" t="s">
-        <v>3872</v>
       </c>
       <c r="D1476" s="3"/>
       <c r="E1476" s="3" t="s">
@@ -50834,13 +50830,13 @@
     </row>
     <row r="1477" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1477" s="3" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1477" s="3" t="s">
         <v>3873</v>
       </c>
-      <c r="B1477" s="3" t="s">
+      <c r="C1477" s="3" t="s">
         <v>3874</v>
-      </c>
-      <c r="C1477" s="3" t="s">
-        <v>3875</v>
       </c>
       <c r="D1477" s="3"/>
       <c r="E1477" s="3" t="s">
@@ -50858,13 +50854,13 @@
     </row>
     <row r="1478" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1478" s="3" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="B1478" s="3" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1478" s="3" t="s">
         <v>3471</v>
-      </c>
-      <c r="C1478" s="3" t="s">
-        <v>3472</v>
       </c>
       <c r="D1478" s="3"/>
       <c r="E1478" s="3" t="s">
@@ -50882,7 +50878,7 @@
     </row>
     <row r="1479" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1479" s="3" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="B1479" s="3" t="s">
         <v>1088</v>
@@ -50906,13 +50902,13 @@
     </row>
     <row r="1480" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1480" s="3" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1480" s="3" t="s">
         <v>3878</v>
       </c>
-      <c r="B1480" s="3" t="s">
+      <c r="C1480" s="3" t="s">
         <v>3879</v>
-      </c>
-      <c r="C1480" s="3" t="s">
-        <v>3880</v>
       </c>
       <c r="D1480" s="3"/>
       <c r="E1480" s="3" t="s">
@@ -50930,13 +50926,13 @@
     </row>
     <row r="1481" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1481" s="3" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1481" s="3" t="s">
         <v>3881</v>
       </c>
-      <c r="B1481" s="3" t="s">
+      <c r="C1481" s="3" t="s">
         <v>3882</v>
-      </c>
-      <c r="C1481" s="3" t="s">
-        <v>3883</v>
       </c>
       <c r="D1481" s="3"/>
       <c r="E1481" s="3" t="s">
@@ -50954,13 +50950,13 @@
     </row>
     <row r="1482" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1482" s="3" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B1482" s="3" t="s">
         <v>3884</v>
       </c>
-      <c r="B1482" s="3" t="s">
+      <c r="C1482" s="3" t="s">
         <v>3885</v>
-      </c>
-      <c r="C1482" s="3" t="s">
-        <v>3886</v>
       </c>
       <c r="D1482" s="3"/>
       <c r="E1482" s="3" t="s">
@@ -50978,13 +50974,13 @@
     </row>
     <row r="1483" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1483" s="3" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B1483" s="3" t="s">
         <v>3887</v>
       </c>
-      <c r="B1483" s="3" t="s">
+      <c r="C1483" s="3" t="s">
         <v>3888</v>
-      </c>
-      <c r="C1483" s="3" t="s">
-        <v>3889</v>
       </c>
       <c r="D1483" s="3"/>
       <c r="E1483" s="3" t="s">
@@ -51002,13 +50998,13 @@
     </row>
     <row r="1484" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1484" s="3" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1484" s="3" t="s">
         <v>3890</v>
       </c>
-      <c r="B1484" s="3" t="s">
+      <c r="C1484" s="3" t="s">
         <v>3891</v>
-      </c>
-      <c r="C1484" s="3" t="s">
-        <v>3892</v>
       </c>
       <c r="D1484" s="3"/>
       <c r="E1484" s="3" t="s">
@@ -51026,13 +51022,13 @@
     </row>
     <row r="1485" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1485" s="3" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B1485" s="3" t="s">
         <v>3893</v>
       </c>
-      <c r="B1485" s="3" t="s">
+      <c r="C1485" s="3" t="s">
         <v>3894</v>
-      </c>
-      <c r="C1485" s="3" t="s">
-        <v>3895</v>
       </c>
       <c r="D1485" s="3"/>
       <c r="E1485" s="3" t="s">
@@ -51050,13 +51046,13 @@
     </row>
     <row r="1486" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1486" s="3" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B1486" s="3" t="s">
         <v>3896</v>
       </c>
-      <c r="B1486" s="3" t="s">
+      <c r="C1486" s="3" t="s">
         <v>3897</v>
-      </c>
-      <c r="C1486" s="3" t="s">
-        <v>3898</v>
       </c>
       <c r="D1486" s="3"/>
       <c r="E1486" s="3" t="s">
@@ -51074,13 +51070,13 @@
     </row>
     <row r="1487" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1487" s="3" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1487" s="3" t="s">
         <v>3899</v>
       </c>
-      <c r="B1487" s="3" t="s">
+      <c r="C1487" s="3" t="s">
         <v>3900</v>
-      </c>
-      <c r="C1487" s="3" t="s">
-        <v>3901</v>
       </c>
       <c r="D1487" s="3"/>
       <c r="E1487" s="3" t="s">
@@ -51098,13 +51094,13 @@
     </row>
     <row r="1488" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1488" s="3" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1488" s="3" t="s">
         <v>3902</v>
       </c>
-      <c r="B1488" s="3" t="s">
+      <c r="C1488" s="3" t="s">
         <v>3903</v>
-      </c>
-      <c r="C1488" s="3" t="s">
-        <v>3904</v>
       </c>
       <c r="D1488" s="3"/>
       <c r="E1488" s="3" t="s">
@@ -51122,13 +51118,13 @@
     </row>
     <row r="1489" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1489" s="3" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B1489" s="3" t="s">
         <v>3905</v>
       </c>
-      <c r="B1489" s="3" t="s">
+      <c r="C1489" s="3" t="s">
         <v>3906</v>
-      </c>
-      <c r="C1489" s="3" t="s">
-        <v>3907</v>
       </c>
       <c r="D1489" s="3"/>
       <c r="E1489" s="3" t="s">
@@ -51146,13 +51142,13 @@
     </row>
     <row r="1490" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1490" s="3" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B1490" s="3" t="s">
         <v>3908</v>
       </c>
-      <c r="B1490" s="3" t="s">
+      <c r="C1490" s="3" t="s">
         <v>3909</v>
-      </c>
-      <c r="C1490" s="3" t="s">
-        <v>3910</v>
       </c>
       <c r="D1490" s="3"/>
       <c r="E1490" s="3" t="s">
@@ -51170,13 +51166,13 @@
     </row>
     <row r="1491" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1491" s="3" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1491" s="3" t="s">
         <v>3911</v>
       </c>
-      <c r="B1491" s="3" t="s">
+      <c r="C1491" s="3" t="s">
         <v>3912</v>
-      </c>
-      <c r="C1491" s="3" t="s">
-        <v>3913</v>
       </c>
       <c r="D1491" s="3"/>
       <c r="E1491" s="3" t="s">
@@ -51194,13 +51190,13 @@
     </row>
     <row r="1492" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1492" s="3" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1492" s="3" t="s">
         <v>3914</v>
       </c>
-      <c r="B1492" s="3" t="s">
+      <c r="C1492" s="3" t="s">
         <v>3915</v>
-      </c>
-      <c r="C1492" s="3" t="s">
-        <v>3916</v>
       </c>
       <c r="D1492" s="3"/>
       <c r="E1492" s="3" t="s">
@@ -51218,13 +51214,13 @@
     </row>
     <row r="1493" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1493" s="3" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1493" s="3" t="s">
         <v>3917</v>
       </c>
-      <c r="B1493" s="3" t="s">
+      <c r="C1493" s="3" t="s">
         <v>3918</v>
-      </c>
-      <c r="C1493" s="3" t="s">
-        <v>3919</v>
       </c>
       <c r="D1493" s="3"/>
       <c r="E1493" s="3" t="s">
@@ -51242,13 +51238,13 @@
     </row>
     <row r="1494" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1494" s="3" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B1494" s="3" t="s">
         <v>3920</v>
       </c>
-      <c r="B1494" s="3" t="s">
+      <c r="C1494" s="3" t="s">
         <v>3921</v>
-      </c>
-      <c r="C1494" s="3" t="s">
-        <v>3922</v>
       </c>
       <c r="D1494" s="3"/>
       <c r="E1494" s="3" t="s">
@@ -51266,13 +51262,13 @@
     </row>
     <row r="1495" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1495" s="3" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1495" s="3" t="s">
         <v>3923</v>
       </c>
-      <c r="B1495" s="3" t="s">
+      <c r="C1495" s="3" t="s">
         <v>3924</v>
-      </c>
-      <c r="C1495" s="3" t="s">
-        <v>3925</v>
       </c>
       <c r="D1495" s="3"/>
       <c r="E1495" s="3" t="s">
@@ -51290,13 +51286,13 @@
     </row>
     <row r="1496" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1496" s="3" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1496" s="3" t="s">
         <v>3926</v>
       </c>
-      <c r="B1496" s="3" t="s">
+      <c r="C1496" s="3" t="s">
         <v>3927</v>
-      </c>
-      <c r="C1496" s="3" t="s">
-        <v>3928</v>
       </c>
       <c r="D1496" s="3"/>
       <c r="E1496" s="3" t="s">
@@ -51314,16 +51310,16 @@
     </row>
     <row r="1497" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1497" s="3" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1497" s="3" t="s">
         <v>3929</v>
       </c>
-      <c r="B1497" s="3" t="s">
+      <c r="C1497" s="3" t="s">
         <v>3930</v>
       </c>
-      <c r="C1497" s="3" t="s">
+      <c r="D1497" s="3" t="s">
         <v>3931</v>
-      </c>
-      <c r="D1497" s="3" t="s">
-        <v>3932</v>
       </c>
       <c r="E1497" s="3" t="s">
         <v>71</v>
@@ -51340,16 +51336,16 @@
     </row>
     <row r="1498" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1498" s="3" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1498" s="3" t="s">
         <v>3933</v>
       </c>
-      <c r="B1498" s="3" t="s">
+      <c r="C1498" s="3" t="s">
         <v>3934</v>
       </c>
-      <c r="C1498" s="3" t="s">
+      <c r="D1498" s="3" t="s">
         <v>3935</v>
-      </c>
-      <c r="D1498" s="3" t="s">
-        <v>3936</v>
       </c>
       <c r="E1498" s="3" t="s">
         <v>71</v>
@@ -51366,13 +51362,13 @@
     </row>
     <row r="1499" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1499" s="3" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1499" s="3" t="s">
         <v>3937</v>
       </c>
-      <c r="B1499" s="3" t="s">
+      <c r="C1499" s="3" t="s">
         <v>3938</v>
-      </c>
-      <c r="C1499" s="3" t="s">
-        <v>3939</v>
       </c>
       <c r="D1499" s="3"/>
       <c r="E1499" s="3" t="s">
@@ -51390,13 +51386,13 @@
     </row>
     <row r="1500" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1500" s="3" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B1500" s="3" t="s">
         <v>3940</v>
       </c>
-      <c r="B1500" s="3" t="s">
+      <c r="C1500" s="3" t="s">
         <v>3941</v>
-      </c>
-      <c r="C1500" s="3" t="s">
-        <v>3942</v>
       </c>
       <c r="D1500" s="3"/>
       <c r="E1500" s="3" t="s">
@@ -51414,13 +51410,13 @@
     </row>
     <row r="1501" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1501" s="3" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1501" s="3" t="s">
         <v>3943</v>
       </c>
-      <c r="B1501" s="3" t="s">
+      <c r="C1501" s="3" t="s">
         <v>3944</v>
-      </c>
-      <c r="C1501" s="3" t="s">
-        <v>3945</v>
       </c>
       <c r="D1501" s="3"/>
       <c r="E1501" s="3" t="s">
@@ -51438,13 +51434,13 @@
     </row>
     <row r="1502" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1502" s="3" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1502" s="3" t="s">
         <v>3946</v>
       </c>
-      <c r="B1502" s="3" t="s">
+      <c r="C1502" s="3" t="s">
         <v>3947</v>
-      </c>
-      <c r="C1502" s="3" t="s">
-        <v>3948</v>
       </c>
       <c r="D1502" s="3"/>
       <c r="E1502" s="3" t="s">
@@ -51462,13 +51458,13 @@
     </row>
     <row r="1503" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1503" s="3" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1503" s="3" t="s">
         <v>3949</v>
       </c>
-      <c r="B1503" s="3" t="s">
+      <c r="C1503" s="3" t="s">
         <v>3950</v>
-      </c>
-      <c r="C1503" s="3" t="s">
-        <v>3951</v>
       </c>
       <c r="D1503" s="3"/>
       <c r="E1503" s="3" t="s">
@@ -51486,7 +51482,7 @@
     </row>
     <row r="1504" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1504" s="3" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="B1504" s="3" t="s">
         <v>1420</v>
@@ -51510,7 +51506,7 @@
     </row>
     <row r="1505" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1505" s="3" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="B1505" s="3" t="s">
         <v>390</v>
@@ -51534,7 +51530,7 @@
     </row>
     <row r="1506" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1506" s="3" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="B1506" s="3" t="s">
         <v>387</v>
@@ -51558,10 +51554,10 @@
     </row>
     <row r="1507" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1507" s="3" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1507" s="3" t="s">
         <v>3955</v>
-      </c>
-      <c r="B1507" s="3" t="s">
-        <v>3956</v>
       </c>
       <c r="C1507" s="3" t="s">
         <v>3365</v>
@@ -51582,13 +51578,13 @@
     </row>
     <row r="1508" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1508" s="3" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1508" s="3" t="s">
         <v>3957</v>
       </c>
-      <c r="B1508" s="3" t="s">
+      <c r="C1508" s="3" t="s">
         <v>3958</v>
-      </c>
-      <c r="C1508" s="3" t="s">
-        <v>3959</v>
       </c>
       <c r="D1508" s="3"/>
       <c r="E1508" s="3" t="s">
@@ -51606,7 +51602,7 @@
     </row>
     <row r="1509" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1509" s="3" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="B1509" s="3" t="s">
         <v>1854</v>
@@ -51630,7 +51626,7 @@
     </row>
     <row r="1510" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1510" s="3" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B1510" s="3" t="s">
         <v>1856</v>
@@ -51654,7 +51650,7 @@
     </row>
     <row r="1511" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1511" s="3" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="B1511" s="3" t="s">
         <v>1858</v>
@@ -51678,13 +51674,13 @@
     </row>
     <row r="1512" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1512" s="3" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1512" s="3" t="s">
         <v>3963</v>
       </c>
-      <c r="B1512" s="3" t="s">
+      <c r="C1512" s="3" t="s">
         <v>3964</v>
-      </c>
-      <c r="C1512" s="3" t="s">
-        <v>3965</v>
       </c>
       <c r="D1512" s="3"/>
       <c r="E1512" s="3" t="s">
@@ -51702,7 +51698,7 @@
     </row>
     <row r="1513" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1513" s="3" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B1513" s="3" t="s">
         <v>1860</v>
@@ -51726,13 +51722,13 @@
     </row>
     <row r="1514" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1514" s="3" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1514" s="3" t="s">
         <v>3967</v>
       </c>
-      <c r="B1514" s="3" t="s">
+      <c r="C1514" s="3" t="s">
         <v>3968</v>
-      </c>
-      <c r="C1514" s="3" t="s">
-        <v>3969</v>
       </c>
       <c r="D1514" s="3"/>
       <c r="E1514" s="3" t="s">
@@ -51750,13 +51746,13 @@
     </row>
     <row r="1515" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1515" s="3" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B1515" s="3" t="s">
         <v>3970</v>
       </c>
-      <c r="B1515" s="3" t="s">
+      <c r="C1515" s="3" t="s">
         <v>3971</v>
-      </c>
-      <c r="C1515" s="3" t="s">
-        <v>3972</v>
       </c>
       <c r="D1515" s="3"/>
       <c r="E1515" s="3" t="s">
@@ -51774,13 +51770,13 @@
     </row>
     <row r="1516" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1516" s="3" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1516" s="3" t="s">
         <v>3973</v>
       </c>
-      <c r="B1516" s="3" t="s">
+      <c r="C1516" s="3" t="s">
         <v>3974</v>
-      </c>
-      <c r="C1516" s="3" t="s">
-        <v>3975</v>
       </c>
       <c r="D1516" s="3"/>
       <c r="E1516" s="3" t="s">
@@ -51798,13 +51794,13 @@
     </row>
     <row r="1517" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1517" s="3" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="B1517" s="3" t="s">
         <v>2582</v>
       </c>
       <c r="C1517" s="3" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="D1517" s="3"/>
       <c r="E1517" s="3" t="s">
@@ -51822,13 +51818,13 @@
     </row>
     <row r="1518" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1518" s="3" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1518" s="3" t="s">
         <v>3978</v>
       </c>
-      <c r="B1518" s="3" t="s">
+      <c r="C1518" s="3" t="s">
         <v>3979</v>
-      </c>
-      <c r="C1518" s="3" t="s">
-        <v>3980</v>
       </c>
       <c r="D1518" s="3"/>
       <c r="E1518" s="3" t="s">
@@ -51846,13 +51842,13 @@
     </row>
     <row r="1519" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1519" s="3" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1519" s="3" t="s">
         <v>3981</v>
       </c>
-      <c r="B1519" s="3" t="s">
+      <c r="C1519" s="3" t="s">
         <v>3982</v>
-      </c>
-      <c r="C1519" s="3" t="s">
-        <v>3983</v>
       </c>
       <c r="D1519" s="3"/>
       <c r="E1519" s="3" t="s">
@@ -51870,13 +51866,13 @@
     </row>
     <row r="1520" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1520" s="3" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B1520" s="3" t="s">
         <v>3984</v>
       </c>
-      <c r="B1520" s="3" t="s">
+      <c r="C1520" s="3" t="s">
         <v>3985</v>
-      </c>
-      <c r="C1520" s="3" t="s">
-        <v>3986</v>
       </c>
       <c r="D1520" s="3"/>
       <c r="E1520" s="3" t="s">
@@ -51894,13 +51890,13 @@
     </row>
     <row r="1521" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1521" s="3" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1521" s="3" t="s">
         <v>3987</v>
       </c>
-      <c r="B1521" s="3" t="s">
+      <c r="C1521" s="3" t="s">
         <v>3988</v>
-      </c>
-      <c r="C1521" s="3" t="s">
-        <v>3989</v>
       </c>
       <c r="D1521" s="3"/>
       <c r="E1521" s="3" t="s">
@@ -51918,13 +51914,13 @@
     </row>
     <row r="1522" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1522" s="3" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1522" s="3" t="s">
         <v>3990</v>
       </c>
-      <c r="B1522" s="3" t="s">
+      <c r="C1522" s="3" t="s">
         <v>3991</v>
-      </c>
-      <c r="C1522" s="3" t="s">
-        <v>3992</v>
       </c>
       <c r="D1522" s="3"/>
       <c r="E1522" s="3" t="s">
@@ -51942,7 +51938,7 @@
     </row>
     <row r="1523" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1523" s="3" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="B1523" s="3" t="s">
         <v>405</v>
@@ -51966,13 +51962,13 @@
     </row>
     <row r="1524" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1524" s="3" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1524" s="3" t="s">
         <v>3994</v>
       </c>
-      <c r="B1524" s="3" t="s">
+      <c r="C1524" s="3" t="s">
         <v>3995</v>
-      </c>
-      <c r="C1524" s="3" t="s">
-        <v>3996</v>
       </c>
       <c r="D1524" s="3"/>
       <c r="E1524" s="3" t="s">
@@ -51990,7 +51986,7 @@
     </row>
     <row r="1525" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1525" s="3" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="B1525" s="3" t="s">
         <v>408</v>
@@ -52014,13 +52010,13 @@
     </row>
     <row r="1526" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1526" s="3" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1526" s="3" t="s">
         <v>3998</v>
       </c>
-      <c r="B1526" s="3" t="s">
+      <c r="C1526" s="3" t="s">
         <v>3999</v>
-      </c>
-      <c r="C1526" s="3" t="s">
-        <v>4000</v>
       </c>
       <c r="D1526" s="3"/>
       <c r="E1526" s="3" t="s">
@@ -52038,13 +52034,13 @@
     </row>
     <row r="1527" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1527" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1527" s="3" t="s">
         <v>4001</v>
       </c>
-      <c r="B1527" s="3" t="s">
+      <c r="C1527" s="3" t="s">
         <v>4002</v>
-      </c>
-      <c r="C1527" s="3" t="s">
-        <v>4003</v>
       </c>
       <c r="D1527" s="3"/>
       <c r="E1527" s="3" t="s">
@@ -52062,13 +52058,13 @@
     </row>
     <row r="1528" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1528" s="3" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1528" s="3" t="s">
         <v>4004</v>
       </c>
-      <c r="B1528" s="3" t="s">
+      <c r="C1528" s="3" t="s">
         <v>4005</v>
-      </c>
-      <c r="C1528" s="3" t="s">
-        <v>4006</v>
       </c>
       <c r="D1528" s="3"/>
       <c r="E1528" s="3" t="s">
@@ -52086,13 +52082,13 @@
     </row>
     <row r="1529" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1529" s="3" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1529" s="3" t="s">
         <v>4007</v>
       </c>
-      <c r="B1529" s="3" t="s">
+      <c r="C1529" s="3" t="s">
         <v>4008</v>
-      </c>
-      <c r="C1529" s="3" t="s">
-        <v>4009</v>
       </c>
       <c r="D1529" s="3"/>
       <c r="E1529" s="3" t="s">
@@ -52110,7 +52106,7 @@
     </row>
     <row r="1530" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1530" s="3" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B1530" s="3" t="s">
         <v>267</v>
@@ -52134,13 +52130,13 @@
     </row>
     <row r="1531" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1531" s="3" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1531" s="3" t="s">
         <v>4011</v>
       </c>
-      <c r="B1531" s="3" t="s">
+      <c r="C1531" s="3" t="s">
         <v>4012</v>
-      </c>
-      <c r="C1531" s="3" t="s">
-        <v>4013</v>
       </c>
       <c r="D1531" s="3"/>
       <c r="E1531" s="3" t="s">
@@ -52158,13 +52154,13 @@
     </row>
     <row r="1532" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1532" s="3" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1532" s="3" t="s">
         <v>4014</v>
       </c>
-      <c r="B1532" s="3" t="s">
+      <c r="C1532" s="3" t="s">
         <v>4015</v>
-      </c>
-      <c r="C1532" s="3" t="s">
-        <v>4016</v>
       </c>
       <c r="D1532" s="3"/>
       <c r="E1532" s="3" t="s">
@@ -52182,13 +52178,13 @@
     </row>
     <row r="1533" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1533" s="3" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B1533" s="3" t="s">
         <v>4017</v>
       </c>
-      <c r="B1533" s="3" t="s">
+      <c r="C1533" s="3" t="s">
         <v>4018</v>
-      </c>
-      <c r="C1533" s="3" t="s">
-        <v>4019</v>
       </c>
       <c r="D1533" s="3"/>
       <c r="E1533" s="3" t="s">
@@ -52206,13 +52202,13 @@
     </row>
     <row r="1534" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1534" s="3" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B1534" s="3" t="s">
         <v>4020</v>
       </c>
-      <c r="B1534" s="3" t="s">
+      <c r="C1534" s="3" t="s">
         <v>4021</v>
-      </c>
-      <c r="C1534" s="3" t="s">
-        <v>4022</v>
       </c>
       <c r="D1534" s="3"/>
       <c r="E1534" s="3" t="s">
@@ -52230,13 +52226,13 @@
     </row>
     <row r="1535" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1535" s="3" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1535" s="3" t="s">
         <v>4023</v>
       </c>
-      <c r="B1535" s="3" t="s">
+      <c r="C1535" s="3" t="s">
         <v>4024</v>
-      </c>
-      <c r="C1535" s="3" t="s">
-        <v>4025</v>
       </c>
       <c r="D1535" s="3"/>
       <c r="E1535" s="3" t="s">
@@ -52254,13 +52250,13 @@
     </row>
     <row r="1536" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1536" s="3" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1536" s="3" t="s">
         <v>4026</v>
       </c>
-      <c r="B1536" s="3" t="s">
+      <c r="C1536" s="3" t="s">
         <v>4027</v>
-      </c>
-      <c r="C1536" s="3" t="s">
-        <v>4028</v>
       </c>
       <c r="D1536" s="3"/>
       <c r="E1536" s="3" t="s">
@@ -52278,13 +52274,13 @@
     </row>
     <row r="1537" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1537" s="3" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B1537" s="3" t="s">
         <v>4029</v>
       </c>
-      <c r="B1537" s="3" t="s">
+      <c r="C1537" s="3" t="s">
         <v>4030</v>
-      </c>
-      <c r="C1537" s="3" t="s">
-        <v>4031</v>
       </c>
       <c r="D1537" s="3"/>
       <c r="E1537" s="3" t="s">
@@ -52302,13 +52298,13 @@
     </row>
     <row r="1538" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1538" s="3" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B1538" s="3" t="s">
         <v>4032</v>
       </c>
-      <c r="B1538" s="3" t="s">
+      <c r="C1538" s="3" t="s">
         <v>4033</v>
-      </c>
-      <c r="C1538" s="3" t="s">
-        <v>4034</v>
       </c>
       <c r="D1538" s="3"/>
       <c r="E1538" s="3" t="s">
@@ -52326,13 +52322,13 @@
     </row>
     <row r="1539" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1539" s="3" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B1539" s="3" t="s">
         <v>4035</v>
       </c>
-      <c r="B1539" s="3" t="s">
+      <c r="C1539" s="3" t="s">
         <v>4036</v>
-      </c>
-      <c r="C1539" s="3" t="s">
-        <v>4037</v>
       </c>
       <c r="D1539" s="3"/>
       <c r="E1539" s="3" t="s">
@@ -52350,13 +52346,13 @@
     </row>
     <row r="1540" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1540" s="3" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B1540" s="3" t="s">
         <v>4038</v>
       </c>
-      <c r="B1540" s="3" t="s">
+      <c r="C1540" s="3" t="s">
         <v>4039</v>
-      </c>
-      <c r="C1540" s="3" t="s">
-        <v>4040</v>
       </c>
       <c r="D1540" s="3"/>
       <c r="E1540" s="3" t="s">
@@ -52374,13 +52370,13 @@
     </row>
     <row r="1541" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1541" s="3" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B1541" s="3" t="s">
         <v>4041</v>
       </c>
-      <c r="B1541" s="3" t="s">
+      <c r="C1541" s="3" t="s">
         <v>4042</v>
-      </c>
-      <c r="C1541" s="3" t="s">
-        <v>4043</v>
       </c>
       <c r="D1541" s="3"/>
       <c r="E1541" s="3" t="s">
@@ -52398,7 +52394,7 @@
     </row>
     <row r="1542" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1542" s="3" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B1542" s="3" t="s">
         <v>1148</v>
@@ -52422,13 +52418,13 @@
     </row>
     <row r="1543" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1543" s="3" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B1543" s="3" t="s">
         <v>4045</v>
       </c>
-      <c r="B1543" s="3" t="s">
+      <c r="C1543" s="3" t="s">
         <v>4046</v>
-      </c>
-      <c r="C1543" s="3" t="s">
-        <v>4047</v>
       </c>
       <c r="D1543" s="3"/>
       <c r="E1543" s="3" t="s">
@@ -52446,13 +52442,13 @@
     </row>
     <row r="1544" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1544" s="3" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B1544" s="3" t="s">
         <v>4048</v>
       </c>
-      <c r="B1544" s="3" t="s">
+      <c r="C1544" s="3" t="s">
         <v>4049</v>
-      </c>
-      <c r="C1544" s="3" t="s">
-        <v>4050</v>
       </c>
       <c r="D1544" s="3"/>
       <c r="E1544" s="3" t="s">
@@ -52470,7 +52466,7 @@
     </row>
     <row r="1545" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1545" s="3" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="B1545" s="3" t="s">
         <v>984</v>
@@ -52494,13 +52490,13 @@
     </row>
     <row r="1546" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1546" s="3" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1546" s="3" t="s">
         <v>4052</v>
       </c>
-      <c r="B1546" s="3" t="s">
+      <c r="C1546" s="3" t="s">
         <v>4053</v>
-      </c>
-      <c r="C1546" s="3" t="s">
-        <v>4054</v>
       </c>
       <c r="D1546" s="3"/>
       <c r="E1546" s="3" t="s">
@@ -52518,13 +52514,13 @@
     </row>
     <row r="1547" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1547" s="3" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B1547" s="3" t="s">
         <v>781</v>
       </c>
       <c r="C1547" s="3" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="D1547" s="3"/>
       <c r="E1547" s="3" t="s">
@@ -52542,7 +52538,7 @@
     </row>
     <row r="1548" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1548" s="3" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="B1548" s="3" t="s">
         <v>784</v>
@@ -52566,13 +52562,13 @@
     </row>
     <row r="1549" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1549" s="3" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1549" s="3" t="s">
         <v>4058</v>
       </c>
-      <c r="B1549" s="3" t="s">
+      <c r="C1549" s="3" t="s">
         <v>4059</v>
-      </c>
-      <c r="C1549" s="3" t="s">
-        <v>4060</v>
       </c>
       <c r="D1549" s="3"/>
       <c r="E1549" s="3" t="s">
@@ -52590,7 +52586,7 @@
     </row>
     <row r="1550" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1550" s="3" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="B1550" s="3" t="s">
         <v>787</v>
@@ -52614,13 +52610,13 @@
     </row>
     <row r="1551" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1551" s="3" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1551" s="3" t="s">
         <v>4062</v>
       </c>
-      <c r="B1551" s="3" t="s">
+      <c r="C1551" s="3" t="s">
         <v>4063</v>
-      </c>
-      <c r="C1551" s="3" t="s">
-        <v>4064</v>
       </c>
       <c r="D1551" s="3"/>
       <c r="E1551" s="3" t="s">
@@ -52638,13 +52634,13 @@
     </row>
     <row r="1552" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1552" s="3" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B1552" s="3" t="s">
         <v>4065</v>
       </c>
-      <c r="B1552" s="3" t="s">
+      <c r="C1552" s="3" t="s">
         <v>4066</v>
-      </c>
-      <c r="C1552" s="3" t="s">
-        <v>4067</v>
       </c>
       <c r="D1552" s="3"/>
       <c r="E1552" s="3" t="s">
@@ -52662,7 +52658,7 @@
     </row>
     <row r="1553" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1553" s="3" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="B1553" s="3" t="s">
         <v>796</v>
@@ -52686,13 +52682,13 @@
     </row>
     <row r="1554" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1554" s="3" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B1554" s="3" t="s">
         <v>4069</v>
       </c>
-      <c r="B1554" s="3" t="s">
+      <c r="C1554" s="3" t="s">
         <v>4070</v>
-      </c>
-      <c r="C1554" s="3" t="s">
-        <v>4071</v>
       </c>
       <c r="D1554" s="3"/>
       <c r="E1554" s="3" t="s">
@@ -52710,13 +52706,13 @@
     </row>
     <row r="1555" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1555" s="3" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B1555" s="3" t="s">
         <v>4072</v>
       </c>
-      <c r="B1555" s="3" t="s">
+      <c r="C1555" s="3" t="s">
         <v>4073</v>
-      </c>
-      <c r="C1555" s="3" t="s">
-        <v>4074</v>
       </c>
       <c r="D1555" s="3"/>
       <c r="E1555" s="3" t="s">
@@ -52734,13 +52730,13 @@
     </row>
     <row r="1556" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1556" s="3" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1556" s="3" t="s">
         <v>4075</v>
       </c>
-      <c r="B1556" s="3" t="s">
+      <c r="C1556" s="3" t="s">
         <v>4076</v>
-      </c>
-      <c r="C1556" s="3" t="s">
-        <v>4077</v>
       </c>
       <c r="D1556" s="3"/>
       <c r="E1556" s="3" t="s">
@@ -52758,13 +52754,13 @@
     </row>
     <row r="1557" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1557" s="3" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B1557" s="3" t="s">
         <v>4078</v>
       </c>
-      <c r="B1557" s="3" t="s">
+      <c r="C1557" s="3" t="s">
         <v>4079</v>
-      </c>
-      <c r="C1557" s="3" t="s">
-        <v>4080</v>
       </c>
       <c r="D1557" s="3"/>
       <c r="E1557" s="3" t="s">
@@ -52782,13 +52778,13 @@
     </row>
     <row r="1558" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1558" s="3" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B1558" s="3" t="s">
         <v>4081</v>
       </c>
-      <c r="B1558" s="3" t="s">
+      <c r="C1558" s="3" t="s">
         <v>4082</v>
-      </c>
-      <c r="C1558" s="3" t="s">
-        <v>4083</v>
       </c>
       <c r="D1558" s="3"/>
       <c r="E1558" s="3" t="s">
@@ -52806,13 +52802,13 @@
     </row>
     <row r="1559" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1559" s="3" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B1559" s="3" t="s">
         <v>4084</v>
       </c>
-      <c r="B1559" s="3" t="s">
+      <c r="C1559" s="3" t="s">
         <v>4085</v>
-      </c>
-      <c r="C1559" s="3" t="s">
-        <v>4086</v>
       </c>
       <c r="D1559" s="3"/>
       <c r="E1559" s="3" t="s">
@@ -52830,13 +52826,13 @@
     </row>
     <row r="1560" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1560" s="3" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1560" s="3" t="s">
         <v>4087</v>
       </c>
-      <c r="B1560" s="3" t="s">
+      <c r="C1560" s="3" t="s">
         <v>4088</v>
-      </c>
-      <c r="C1560" s="3" t="s">
-        <v>4089</v>
       </c>
       <c r="D1560" s="3"/>
       <c r="E1560" s="3" t="s">
@@ -52854,13 +52850,13 @@
     </row>
     <row r="1561" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1561" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B1561" s="3" t="s">
         <v>4090</v>
       </c>
-      <c r="B1561" s="3" t="s">
+      <c r="C1561" s="3" t="s">
         <v>4091</v>
-      </c>
-      <c r="C1561" s="3" t="s">
-        <v>4092</v>
       </c>
       <c r="D1561" s="3"/>
       <c r="E1561" s="3" t="s">
@@ -52878,13 +52874,13 @@
     </row>
     <row r="1562" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1562" s="3" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B1562" s="3" t="s">
         <v>4093</v>
       </c>
-      <c r="B1562" s="3" t="s">
+      <c r="C1562" s="3" t="s">
         <v>4094</v>
-      </c>
-      <c r="C1562" s="3" t="s">
-        <v>4095</v>
       </c>
       <c r="D1562" s="3"/>
       <c r="E1562" s="3" t="s">
@@ -52902,13 +52898,13 @@
     </row>
     <row r="1563" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1563" s="3" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B1563" s="3" t="s">
         <v>4096</v>
       </c>
-      <c r="B1563" s="3" t="s">
+      <c r="C1563" s="3" t="s">
         <v>4097</v>
-      </c>
-      <c r="C1563" s="3" t="s">
-        <v>4098</v>
       </c>
       <c r="D1563" s="3"/>
       <c r="E1563" s="3" t="s">
@@ -52926,13 +52922,13 @@
     </row>
     <row r="1564" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1564" s="3" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B1564" s="3" t="s">
         <v>4099</v>
       </c>
-      <c r="B1564" s="3" t="s">
+      <c r="C1564" s="3" t="s">
         <v>4100</v>
-      </c>
-      <c r="C1564" s="3" t="s">
-        <v>4101</v>
       </c>
       <c r="D1564" s="3"/>
       <c r="E1564" s="3" t="s">
@@ -52950,13 +52946,13 @@
     </row>
     <row r="1565" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1565" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B1565" s="3" t="s">
         <v>4102</v>
       </c>
-      <c r="B1565" s="3" t="s">
+      <c r="C1565" s="3" t="s">
         <v>4103</v>
-      </c>
-      <c r="C1565" s="3" t="s">
-        <v>4104</v>
       </c>
       <c r="D1565" s="3"/>
       <c r="E1565" s="3" t="s">
@@ -52974,13 +52970,13 @@
     </row>
     <row r="1566" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1566" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1566" s="3" t="s">
         <v>4105</v>
       </c>
-      <c r="B1566" s="3" t="s">
+      <c r="C1566" s="3" t="s">
         <v>4106</v>
-      </c>
-      <c r="C1566" s="3" t="s">
-        <v>4107</v>
       </c>
       <c r="D1566" s="3"/>
       <c r="E1566" s="3" t="s">
@@ -52998,13 +52994,13 @@
     </row>
     <row r="1567" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1567" s="3" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1567" s="3" t="s">
         <v>4108</v>
       </c>
-      <c r="B1567" s="3" t="s">
+      <c r="C1567" s="3" t="s">
         <v>4109</v>
-      </c>
-      <c r="C1567" s="3" t="s">
-        <v>4110</v>
       </c>
       <c r="D1567" s="3"/>
       <c r="E1567" s="3" t="s">
@@ -53022,13 +53018,13 @@
     </row>
     <row r="1568" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1568" s="3" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B1568" s="3" t="s">
         <v>4111</v>
       </c>
-      <c r="B1568" s="3" t="s">
+      <c r="C1568" s="3" t="s">
         <v>4112</v>
-      </c>
-      <c r="C1568" s="3" t="s">
-        <v>4113</v>
       </c>
       <c r="D1568" s="3"/>
       <c r="E1568" s="3" t="s">
@@ -53046,13 +53042,13 @@
     </row>
     <row r="1569" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1569" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B1569" s="3" t="s">
         <v>4114</v>
       </c>
-      <c r="B1569" s="3" t="s">
+      <c r="C1569" s="3" t="s">
         <v>4115</v>
-      </c>
-      <c r="C1569" s="3" t="s">
-        <v>4116</v>
       </c>
       <c r="D1569" s="3"/>
       <c r="E1569" s="3" t="s">
@@ -53070,13 +53066,13 @@
     </row>
     <row r="1570" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1570" s="3" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B1570" s="3" t="s">
         <v>4117</v>
       </c>
-      <c r="B1570" s="3" t="s">
+      <c r="C1570" s="3" t="s">
         <v>4118</v>
-      </c>
-      <c r="C1570" s="3" t="s">
-        <v>4119</v>
       </c>
       <c r="D1570" s="3"/>
       <c r="E1570" s="3" t="s">
@@ -53094,13 +53090,13 @@
     </row>
     <row r="1571" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1571" s="3" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B1571" s="3" t="s">
         <v>4120</v>
       </c>
-      <c r="B1571" s="3" t="s">
+      <c r="C1571" s="3" t="s">
         <v>4121</v>
-      </c>
-      <c r="C1571" s="3" t="s">
-        <v>4122</v>
       </c>
       <c r="D1571" s="3"/>
       <c r="E1571" s="3" t="s">
@@ -53118,13 +53114,13 @@
     </row>
     <row r="1572" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1572" s="3" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B1572" s="3" t="s">
         <v>4123</v>
       </c>
-      <c r="B1572" s="3" t="s">
+      <c r="C1572" s="3" t="s">
         <v>4124</v>
-      </c>
-      <c r="C1572" s="3" t="s">
-        <v>4125</v>
       </c>
       <c r="D1572" s="3"/>
       <c r="E1572" s="3" t="s">
@@ -53142,13 +53138,13 @@
     </row>
     <row r="1573" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1573" s="3" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B1573" s="3" t="s">
         <v>4126</v>
       </c>
-      <c r="B1573" s="3" t="s">
+      <c r="C1573" s="3" t="s">
         <v>4127</v>
-      </c>
-      <c r="C1573" s="3" t="s">
-        <v>4128</v>
       </c>
       <c r="D1573" s="3"/>
       <c r="E1573" s="3" t="s">
@@ -53166,13 +53162,13 @@
     </row>
     <row r="1574" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1574" s="3" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1574" s="3" t="s">
         <v>4129</v>
       </c>
-      <c r="B1574" s="3" t="s">
+      <c r="C1574" s="3" t="s">
         <v>4130</v>
-      </c>
-      <c r="C1574" s="3" t="s">
-        <v>4131</v>
       </c>
       <c r="D1574" s="3"/>
       <c r="E1574" s="3" t="s">
@@ -53190,16 +53186,16 @@
     </row>
     <row r="1575" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1575" s="3" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B1575" s="3" t="s">
         <v>4132</v>
       </c>
-      <c r="B1575" s="3" t="s">
+      <c r="C1575" s="3" t="s">
         <v>4133</v>
       </c>
-      <c r="C1575" s="3" t="s">
+      <c r="D1575" s="3" t="s">
         <v>4134</v>
-      </c>
-      <c r="D1575" s="3" t="s">
-        <v>4135</v>
       </c>
       <c r="E1575" s="3" t="s">
         <v>58</v>
@@ -53216,13 +53212,13 @@
     </row>
     <row r="1576" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1576" s="3" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B1576" s="3" t="s">
         <v>4136</v>
       </c>
-      <c r="B1576" s="3" t="s">
+      <c r="C1576" s="3" t="s">
         <v>4137</v>
-      </c>
-      <c r="C1576" s="3" t="s">
-        <v>4138</v>
       </c>
       <c r="D1576" s="3"/>
       <c r="E1576" s="3" t="s">
@@ -53240,13 +53236,13 @@
     </row>
     <row r="1577" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1577" s="3" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B1577" s="3" t="s">
         <v>4139</v>
       </c>
-      <c r="B1577" s="3" t="s">
+      <c r="C1577" s="3" t="s">
         <v>4140</v>
-      </c>
-      <c r="C1577" s="3" t="s">
-        <v>4141</v>
       </c>
       <c r="D1577" s="3"/>
       <c r="E1577" s="3" t="s">
@@ -53264,13 +53260,13 @@
     </row>
     <row r="1578" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1578" s="3" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B1578" s="3" t="s">
         <v>4142</v>
       </c>
-      <c r="B1578" s="3" t="s">
+      <c r="C1578" s="3" t="s">
         <v>4143</v>
-      </c>
-      <c r="C1578" s="3" t="s">
-        <v>4144</v>
       </c>
       <c r="D1578" s="3"/>
       <c r="E1578" s="3" t="s">
@@ -53288,13 +53284,13 @@
     </row>
     <row r="1579" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1579" s="3" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B1579" s="3" t="s">
         <v>4145</v>
       </c>
-      <c r="B1579" s="3" t="s">
+      <c r="C1579" s="3" t="s">
         <v>4146</v>
-      </c>
-      <c r="C1579" s="3" t="s">
-        <v>4147</v>
       </c>
       <c r="D1579" s="3"/>
       <c r="E1579" s="3" t="s">
@@ -53312,13 +53308,13 @@
     </row>
     <row r="1580" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1580" s="3" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B1580" s="3" t="s">
         <v>4148</v>
       </c>
-      <c r="B1580" s="3" t="s">
+      <c r="C1580" s="3" t="s">
         <v>4149</v>
-      </c>
-      <c r="C1580" s="3" t="s">
-        <v>4150</v>
       </c>
       <c r="D1580" s="3"/>
       <c r="E1580" s="3" t="s">
@@ -53336,13 +53332,13 @@
     </row>
     <row r="1581" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1581" s="3" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1581" s="3" t="s">
         <v>4151</v>
       </c>
-      <c r="B1581" s="3" t="s">
+      <c r="C1581" s="3" t="s">
         <v>4152</v>
-      </c>
-      <c r="C1581" s="3" t="s">
-        <v>4153</v>
       </c>
       <c r="D1581" s="3"/>
       <c r="E1581" s="3" t="s">
@@ -53360,13 +53356,13 @@
     </row>
     <row r="1582" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1582" s="3" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B1582" s="3" t="s">
         <v>4154</v>
       </c>
-      <c r="B1582" s="3" t="s">
+      <c r="C1582" s="3" t="s">
         <v>4155</v>
-      </c>
-      <c r="C1582" s="3" t="s">
-        <v>4156</v>
       </c>
       <c r="D1582" s="3"/>
       <c r="E1582" s="3" t="s">
@@ -53384,13 +53380,13 @@
     </row>
     <row r="1583" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1583" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1583" s="3" t="s">
         <v>4157</v>
       </c>
-      <c r="B1583" s="3" t="s">
+      <c r="C1583" s="3" t="s">
         <v>4158</v>
-      </c>
-      <c r="C1583" s="3" t="s">
-        <v>4159</v>
       </c>
       <c r="D1583" s="3"/>
       <c r="E1583" s="3" t="s">
@@ -53408,16 +53404,16 @@
     </row>
     <row r="1584" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1584" s="3" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B1584" s="3" t="s">
         <v>4160</v>
       </c>
-      <c r="B1584" s="3" t="s">
+      <c r="C1584" s="3" t="s">
         <v>4161</v>
       </c>
-      <c r="C1584" s="3" t="s">
+      <c r="D1584" s="3" t="s">
         <v>4162</v>
-      </c>
-      <c r="D1584" s="3" t="s">
-        <v>4163</v>
       </c>
       <c r="E1584" s="3" t="s">
         <v>71</v>
@@ -53434,13 +53430,13 @@
     </row>
     <row r="1585" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1585" s="3" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="B1585" s="3" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C1585" s="3" t="s">
         <v>3611</v>
-      </c>
-      <c r="C1585" s="3" t="s">
-        <v>3612</v>
       </c>
       <c r="D1585" s="3"/>
       <c r="E1585" s="3" t="s">
@@ -53458,13 +53454,13 @@
     </row>
     <row r="1586" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1586" s="3" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B1586" s="3" t="s">
         <v>4165</v>
       </c>
-      <c r="B1586" s="3" t="s">
+      <c r="C1586" s="3" t="s">
         <v>4166</v>
-      </c>
-      <c r="C1586" s="3" t="s">
-        <v>4167</v>
       </c>
       <c r="D1586" s="3"/>
       <c r="E1586" s="3" t="s">
@@ -53482,13 +53478,13 @@
     </row>
     <row r="1587" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1587" s="3" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B1587" s="3" t="s">
         <v>4168</v>
       </c>
-      <c r="B1587" s="3" t="s">
+      <c r="C1587" s="3" t="s">
         <v>4169</v>
-      </c>
-      <c r="C1587" s="3" t="s">
-        <v>4170</v>
       </c>
       <c r="D1587" s="3"/>
       <c r="E1587" s="3" t="s">
@@ -53506,13 +53502,13 @@
     </row>
     <row r="1588" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1588" s="3" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B1588" s="3" t="s">
         <v>4171</v>
       </c>
-      <c r="B1588" s="3" t="s">
+      <c r="C1588" s="3" t="s">
         <v>4172</v>
-      </c>
-      <c r="C1588" s="3" t="s">
-        <v>4173</v>
       </c>
       <c r="D1588" s="3"/>
       <c r="E1588" s="3" t="s">
@@ -53530,13 +53526,13 @@
     </row>
     <row r="1589" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1589" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B1589" s="3" t="s">
         <v>4174</v>
       </c>
-      <c r="B1589" s="3" t="s">
+      <c r="C1589" s="3" t="s">
         <v>4175</v>
-      </c>
-      <c r="C1589" s="3" t="s">
-        <v>4176</v>
       </c>
       <c r="D1589" s="3"/>
       <c r="E1589" s="3" t="s">
@@ -53554,13 +53550,13 @@
     </row>
     <row r="1590" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1590" s="3" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1590" s="3" t="s">
         <v>4177</v>
       </c>
-      <c r="B1590" s="3" t="s">
+      <c r="C1590" s="3" t="s">
         <v>4178</v>
-      </c>
-      <c r="C1590" s="3" t="s">
-        <v>4179</v>
       </c>
       <c r="D1590" s="3"/>
       <c r="E1590" s="3" t="s">
@@ -53578,7 +53574,7 @@
     </row>
     <row r="1591" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1591" s="3" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="B1591" s="3" t="s">
         <v>282</v>
@@ -53602,10 +53598,10 @@
     </row>
     <row r="1592" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1592" s="3" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B1592" s="3" t="s">
         <v>4181</v>
-      </c>
-      <c r="B1592" s="3" t="s">
-        <v>4182</v>
       </c>
       <c r="C1592" s="3" t="s">
         <v>61</v>
@@ -53626,7 +53622,7 @@
     </row>
     <row r="1593" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1593" s="3" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B1593" s="3" t="s">
         <v>466</v>
@@ -53650,7 +53646,7 @@
     </row>
     <row r="1594" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1594" s="3" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="B1594" s="3" t="s">
         <v>2050</v>
@@ -53674,13 +53670,13 @@
     </row>
     <row r="1595" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1595" s="3" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B1595" s="3" t="s">
         <v>4185</v>
       </c>
-      <c r="B1595" s="3" t="s">
+      <c r="C1595" s="3" t="s">
         <v>4186</v>
-      </c>
-      <c r="C1595" s="3" t="s">
-        <v>4187</v>
       </c>
       <c r="D1595" s="3"/>
       <c r="E1595" s="3" t="s">
@@ -53698,13 +53694,13 @@
     </row>
     <row r="1596" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1596" s="3" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B1596" s="3" t="s">
         <v>4188</v>
       </c>
-      <c r="B1596" s="3" t="s">
+      <c r="C1596" s="3" t="s">
         <v>4189</v>
-      </c>
-      <c r="C1596" s="3" t="s">
-        <v>4190</v>
       </c>
       <c r="D1596" s="3"/>
       <c r="E1596" s="3" t="s">
@@ -53722,13 +53718,13 @@
     </row>
     <row r="1597" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1597" s="3" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B1597" s="3" t="s">
         <v>4191</v>
       </c>
-      <c r="B1597" s="3" t="s">
+      <c r="C1597" s="3" t="s">
         <v>4192</v>
-      </c>
-      <c r="C1597" s="3" t="s">
-        <v>4193</v>
       </c>
       <c r="D1597" s="3"/>
       <c r="E1597" s="3" t="s">
@@ -53746,13 +53742,13 @@
     </row>
     <row r="1598" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1598" s="3" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1598" s="3" t="s">
         <v>4194</v>
       </c>
-      <c r="B1598" s="3" t="s">
+      <c r="C1598" s="3" t="s">
         <v>4195</v>
-      </c>
-      <c r="C1598" s="3" t="s">
-        <v>4196</v>
       </c>
       <c r="D1598" s="3"/>
       <c r="E1598" s="3" t="s">
@@ -53770,13 +53766,13 @@
     </row>
     <row r="1599" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1599" s="3" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B1599" s="3" t="s">
         <v>4197</v>
       </c>
-      <c r="B1599" s="3" t="s">
+      <c r="C1599" s="3" t="s">
         <v>4198</v>
-      </c>
-      <c r="C1599" s="3" t="s">
-        <v>4199</v>
       </c>
       <c r="D1599" s="3"/>
       <c r="E1599" s="3" t="s">
@@ -53794,10 +53790,10 @@
     </row>
     <row r="1600" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1600" s="3" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="B1600" s="3" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="C1600" s="3" t="s">
         <v>10</v>
@@ -53818,13 +53814,13 @@
     </row>
     <row r="1601" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1601" s="3" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B1601" s="3" t="s">
         <v>4201</v>
       </c>
-      <c r="B1601" s="3" t="s">
+      <c r="C1601" s="3" t="s">
         <v>4202</v>
-      </c>
-      <c r="C1601" s="3" t="s">
-        <v>4203</v>
       </c>
       <c r="D1601" s="3"/>
       <c r="E1601" s="3" t="s">
@@ -53842,13 +53838,13 @@
     </row>
     <row r="1602" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1602" s="3" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B1602" s="3" t="s">
         <v>4204</v>
       </c>
-      <c r="B1602" s="3" t="s">
+      <c r="C1602" s="3" t="s">
         <v>4205</v>
-      </c>
-      <c r="C1602" s="3" t="s">
-        <v>4206</v>
       </c>
       <c r="D1602" s="3"/>
       <c r="E1602" s="3" t="s">
@@ -53866,7 +53862,7 @@
     </row>
     <row r="1603" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1603" s="3" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="B1603" s="3" t="s">
         <v>9</v>
@@ -53890,13 +53886,13 @@
     </row>
     <row r="1604" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1604" s="3" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B1604" s="3" t="s">
         <v>4208</v>
       </c>
-      <c r="B1604" s="3" t="s">
+      <c r="C1604" s="3" t="s">
         <v>4209</v>
-      </c>
-      <c r="C1604" s="3" t="s">
-        <v>4210</v>
       </c>
       <c r="D1604" s="3"/>
       <c r="E1604" s="3" t="s">
@@ -53914,7 +53910,7 @@
     </row>
     <row r="1605" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1605" s="3" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="B1605" s="3" t="s">
         <v>2047</v>
@@ -53938,13 +53934,13 @@
     </row>
     <row r="1606" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1606" s="3" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B1606" s="3" t="s">
         <v>4212</v>
       </c>
-      <c r="B1606" s="3" t="s">
+      <c r="C1606" s="3" t="s">
         <v>4213</v>
-      </c>
-      <c r="C1606" s="3" t="s">
-        <v>4214</v>
       </c>
       <c r="D1606" s="3"/>
       <c r="E1606" s="3" t="s">
@@ -53962,13 +53958,13 @@
     </row>
     <row r="1607" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1607" s="3" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B1607" s="3" t="s">
         <v>4215</v>
       </c>
-      <c r="B1607" s="3" t="s">
+      <c r="C1607" s="3" t="s">
         <v>4216</v>
-      </c>
-      <c r="C1607" s="3" t="s">
-        <v>4217</v>
       </c>
       <c r="D1607" s="3"/>
       <c r="E1607" s="3" t="s">
@@ -53986,7 +53982,7 @@
     </row>
     <row r="1608" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1608" s="3" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="B1608" s="3" t="s">
         <v>384</v>
@@ -54010,13 +54006,13 @@
     </row>
     <row r="1609" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1609" s="3" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B1609" s="3" t="s">
         <v>4219</v>
       </c>
-      <c r="B1609" s="3" t="s">
+      <c r="C1609" s="3" t="s">
         <v>4220</v>
-      </c>
-      <c r="C1609" s="3" t="s">
-        <v>4221</v>
       </c>
       <c r="D1609" s="3"/>
       <c r="E1609" s="3" t="s">
@@ -54034,13 +54030,13 @@
     </row>
     <row r="1610" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1610" s="3" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B1610" s="3" t="s">
         <v>4222</v>
       </c>
-      <c r="B1610" s="3" t="s">
+      <c r="C1610" s="3" t="s">
         <v>4223</v>
-      </c>
-      <c r="C1610" s="3" t="s">
-        <v>4224</v>
       </c>
       <c r="D1610" s="3"/>
       <c r="E1610" s="3" t="s">
@@ -54058,13 +54054,13 @@
     </row>
     <row r="1611" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1611" s="3" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B1611" s="3" t="s">
         <v>4225</v>
       </c>
-      <c r="B1611" s="3" t="s">
+      <c r="C1611" s="3" t="s">
         <v>4226</v>
-      </c>
-      <c r="C1611" s="3" t="s">
-        <v>4227</v>
       </c>
       <c r="D1611" s="3"/>
       <c r="E1611" s="3" t="s">
@@ -54082,13 +54078,13 @@
     </row>
     <row r="1612" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1612" s="3" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="B1612" s="3" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C1612" s="3" t="s">
         <v>3934</v>
-      </c>
-      <c r="C1612" s="3" t="s">
-        <v>3935</v>
       </c>
       <c r="D1612" s="3"/>
       <c r="E1612" s="3" t="s">
@@ -54106,13 +54102,13 @@
     </row>
     <row r="1613" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1613" s="3" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B1613" s="3" t="s">
         <v>4229</v>
       </c>
-      <c r="B1613" s="3" t="s">
+      <c r="C1613" s="3" t="s">
         <v>4230</v>
-      </c>
-      <c r="C1613" s="3" t="s">
-        <v>4231</v>
       </c>
       <c r="D1613" s="3"/>
       <c r="E1613" s="3" t="s">
@@ -54130,13 +54126,13 @@
     </row>
     <row r="1614" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1614" s="3" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B1614" s="3" t="s">
         <v>4232</v>
       </c>
-      <c r="B1614" s="3" t="s">
+      <c r="C1614" s="3" t="s">
         <v>4233</v>
-      </c>
-      <c r="C1614" s="3" t="s">
-        <v>4234</v>
       </c>
       <c r="D1614" s="3"/>
       <c r="E1614" s="3" t="s">
@@ -54154,13 +54150,13 @@
     </row>
     <row r="1615" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1615" s="3" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B1615" s="3" t="s">
         <v>4235</v>
       </c>
-      <c r="B1615" s="3" t="s">
+      <c r="C1615" s="3" t="s">
         <v>4236</v>
-      </c>
-      <c r="C1615" s="3" t="s">
-        <v>4237</v>
       </c>
       <c r="D1615" s="3"/>
       <c r="E1615" s="3" t="s">
@@ -54178,13 +54174,13 @@
     </row>
     <row r="1616" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1616" s="3" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B1616" s="3" t="s">
         <v>4238</v>
       </c>
-      <c r="B1616" s="3" t="s">
+      <c r="C1616" s="3" t="s">
         <v>4239</v>
-      </c>
-      <c r="C1616" s="3" t="s">
-        <v>4240</v>
       </c>
       <c r="D1616" s="3"/>
       <c r="E1616" s="3" t="s">
@@ -54202,13 +54198,13 @@
     </row>
     <row r="1617" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1617" s="3" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B1617" s="3" t="s">
         <v>4241</v>
       </c>
-      <c r="B1617" s="3" t="s">
+      <c r="C1617" s="3" t="s">
         <v>4242</v>
-      </c>
-      <c r="C1617" s="3" t="s">
-        <v>4243</v>
       </c>
       <c r="D1617" s="3"/>
       <c r="E1617" s="3" t="s">
@@ -54226,13 +54222,13 @@
     </row>
     <row r="1618" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1618" s="3" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B1618" s="3" t="s">
         <v>4244</v>
       </c>
-      <c r="B1618" s="3" t="s">
+      <c r="C1618" s="3" t="s">
         <v>4245</v>
-      </c>
-      <c r="C1618" s="3" t="s">
-        <v>4246</v>
       </c>
       <c r="D1618" s="3"/>
       <c r="E1618" s="3" t="s">
@@ -54250,13 +54246,13 @@
     </row>
     <row r="1619" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1619" s="3" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B1619" s="3" t="s">
         <v>4247</v>
       </c>
-      <c r="B1619" s="3" t="s">
+      <c r="C1619" s="3" t="s">
         <v>4248</v>
-      </c>
-      <c r="C1619" s="3" t="s">
-        <v>4249</v>
       </c>
       <c r="D1619" s="3"/>
       <c r="E1619" s="3" t="s">
@@ -54274,13 +54270,13 @@
     </row>
     <row r="1620" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1620" s="3" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="B1620" s="3" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C1620" s="3" t="s">
         <v>3927</v>
-      </c>
-      <c r="C1620" s="3" t="s">
-        <v>3928</v>
       </c>
       <c r="D1620" s="3"/>
       <c r="E1620" s="3" t="s">
@@ -54298,13 +54294,13 @@
     </row>
     <row r="1621" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1621" s="3" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="B1621" s="3" t="s">
         <v>2670</v>
       </c>
       <c r="C1621" s="3" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="D1621" s="3"/>
       <c r="E1621" s="3" t="s">
@@ -54322,13 +54318,13 @@
     </row>
     <row r="1622" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1622" s="3" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B1622" s="3" t="s">
         <v>4253</v>
       </c>
-      <c r="B1622" s="3" t="s">
+      <c r="C1622" s="3" t="s">
         <v>4254</v>
-      </c>
-      <c r="C1622" s="3" t="s">
-        <v>4255</v>
       </c>
       <c r="D1622" s="3"/>
       <c r="E1622" s="3" t="s">
@@ -54346,13 +54342,13 @@
     </row>
     <row r="1623" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1623" s="3" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="B1623" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C1623" s="3" t="s">
         <v>3974</v>
-      </c>
-      <c r="C1623" s="3" t="s">
-        <v>3975</v>
       </c>
       <c r="D1623" s="3"/>
       <c r="E1623" s="3" t="s">
@@ -54370,13 +54366,13 @@
     </row>
     <row r="1624" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1624" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1624" s="3" t="s">
         <v>4257</v>
       </c>
-      <c r="B1624" s="3" t="s">
+      <c r="C1624" s="3" t="s">
         <v>4258</v>
-      </c>
-      <c r="C1624" s="3" t="s">
-        <v>4259</v>
       </c>
       <c r="D1624" s="3"/>
       <c r="E1624" s="3" t="s">
@@ -54394,13 +54390,13 @@
     </row>
     <row r="1625" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1625" s="3" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B1625" s="3" t="s">
         <v>4260</v>
       </c>
-      <c r="B1625" s="3" t="s">
+      <c r="C1625" s="3" t="s">
         <v>4261</v>
-      </c>
-      <c r="C1625" s="3" t="s">
-        <v>4262</v>
       </c>
       <c r="D1625" s="3"/>
       <c r="E1625" s="3" t="s">
@@ -54418,13 +54414,13 @@
     </row>
     <row r="1626" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1626" s="3" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B1626" s="3" t="s">
         <v>4263</v>
       </c>
-      <c r="B1626" s="3" t="s">
+      <c r="C1626" s="3" t="s">
         <v>4264</v>
-      </c>
-      <c r="C1626" s="3" t="s">
-        <v>4265</v>
       </c>
       <c r="D1626" s="3"/>
       <c r="E1626" s="3" t="s">
@@ -54442,13 +54438,13 @@
     </row>
     <row r="1627" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1627" s="3" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B1627" s="3" t="s">
         <v>4266</v>
       </c>
-      <c r="B1627" s="3" t="s">
+      <c r="C1627" s="3" t="s">
         <v>4267</v>
-      </c>
-      <c r="C1627" s="3" t="s">
-        <v>4268</v>
       </c>
       <c r="D1627" s="3"/>
       <c r="E1627" s="3" t="s">
@@ -54466,13 +54462,13 @@
     </row>
     <row r="1628" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1628" s="3" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B1628" s="3" t="s">
         <v>4269</v>
       </c>
-      <c r="B1628" s="3" t="s">
+      <c r="C1628" s="3" t="s">
         <v>4270</v>
-      </c>
-      <c r="C1628" s="3" t="s">
-        <v>4271</v>
       </c>
       <c r="D1628" s="3"/>
       <c r="E1628" s="3" t="s">
@@ -54490,13 +54486,13 @@
     </row>
     <row r="1629" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1629" s="3" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B1629" s="3" t="s">
         <v>4272</v>
       </c>
-      <c r="B1629" s="3" t="s">
+      <c r="C1629" s="3" t="s">
         <v>4273</v>
-      </c>
-      <c r="C1629" s="3" t="s">
-        <v>4274</v>
       </c>
       <c r="D1629" s="3"/>
       <c r="E1629" s="3" t="s">
@@ -54514,13 +54510,13 @@
     </row>
     <row r="1630" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1630" s="3" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B1630" s="3" t="s">
         <v>4275</v>
       </c>
-      <c r="B1630" s="3" t="s">
+      <c r="C1630" s="3" t="s">
         <v>4276</v>
-      </c>
-      <c r="C1630" s="3" t="s">
-        <v>4277</v>
       </c>
       <c r="D1630" s="3"/>
       <c r="E1630" s="3" t="s">
@@ -54538,13 +54534,13 @@
     </row>
     <row r="1631" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1631" s="3" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B1631" s="3" t="s">
         <v>4278</v>
       </c>
-      <c r="B1631" s="3" t="s">
+      <c r="C1631" s="3" t="s">
         <v>4279</v>
-      </c>
-      <c r="C1631" s="3" t="s">
-        <v>4280</v>
       </c>
       <c r="D1631" s="3"/>
       <c r="E1631" s="3" t="s">
@@ -54562,13 +54558,13 @@
     </row>
     <row r="1632" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1632" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B1632" s="3" t="s">
         <v>4281</v>
       </c>
-      <c r="B1632" s="3" t="s">
+      <c r="C1632" s="3" t="s">
         <v>4282</v>
-      </c>
-      <c r="C1632" s="3" t="s">
-        <v>4283</v>
       </c>
       <c r="D1632" s="3"/>
       <c r="E1632" s="3" t="s">
@@ -54586,13 +54582,13 @@
     </row>
     <row r="1633" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1633" s="3" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B1633" s="3" t="s">
         <v>4284</v>
       </c>
-      <c r="B1633" s="3" t="s">
+      <c r="C1633" s="3" t="s">
         <v>4285</v>
-      </c>
-      <c r="C1633" s="3" t="s">
-        <v>4286</v>
       </c>
       <c r="D1633" s="3"/>
       <c r="E1633" s="3" t="s">
@@ -54610,13 +54606,13 @@
     </row>
     <row r="1634" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1634" s="3" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B1634" s="3" t="s">
         <v>4287</v>
       </c>
-      <c r="B1634" s="3" t="s">
+      <c r="C1634" s="3" t="s">
         <v>4288</v>
-      </c>
-      <c r="C1634" s="3" t="s">
-        <v>4289</v>
       </c>
       <c r="D1634" s="3"/>
       <c r="E1634" s="3" t="s">
@@ -54634,13 +54630,13 @@
     </row>
     <row r="1635" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1635" s="3" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B1635" s="3" t="s">
         <v>4290</v>
       </c>
-      <c r="B1635" s="3" t="s">
+      <c r="C1635" s="3" t="s">
         <v>4291</v>
-      </c>
-      <c r="C1635" s="3" t="s">
-        <v>4292</v>
       </c>
       <c r="D1635" s="3"/>
       <c r="E1635" s="3" t="s">
@@ -54658,13 +54654,13 @@
     </row>
     <row r="1636" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1636" s="3" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B1636" s="3" t="s">
         <v>4293</v>
       </c>
-      <c r="B1636" s="3" t="s">
+      <c r="C1636" s="3" t="s">
         <v>4294</v>
-      </c>
-      <c r="C1636" s="3" t="s">
-        <v>4295</v>
       </c>
       <c r="D1636" s="3"/>
       <c r="E1636" s="3" t="s">
@@ -54682,13 +54678,13 @@
     </row>
     <row r="1637" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1637" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B1637" s="3" t="s">
         <v>4296</v>
       </c>
-      <c r="B1637" s="3" t="s">
+      <c r="C1637" s="3" t="s">
         <v>4297</v>
-      </c>
-      <c r="C1637" s="3" t="s">
-        <v>4298</v>
       </c>
       <c r="D1637" s="3"/>
       <c r="E1637" s="3" t="s">
@@ -54706,13 +54702,13 @@
     </row>
     <row r="1638" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1638" s="3" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B1638" s="3" t="s">
         <v>4299</v>
       </c>
-      <c r="B1638" s="3" t="s">
+      <c r="C1638" s="3" t="s">
         <v>4300</v>
-      </c>
-      <c r="C1638" s="3" t="s">
-        <v>4301</v>
       </c>
       <c r="D1638" s="3"/>
       <c r="E1638" s="3" t="s">
@@ -54730,16 +54726,16 @@
     </row>
     <row r="1639" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1639" s="3" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B1639" s="3" t="s">
         <v>4302</v>
       </c>
-      <c r="B1639" s="3" t="s">
+      <c r="C1639" s="3" t="s">
         <v>4303</v>
       </c>
-      <c r="C1639" s="3" t="s">
+      <c r="D1639" s="3" t="s">
         <v>4304</v>
-      </c>
-      <c r="D1639" s="3" t="s">
-        <v>4305</v>
       </c>
       <c r="E1639" s="3" t="s">
         <v>58</v>
@@ -54756,7 +54752,7 @@
     </row>
     <row r="1640" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1640" s="3" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="B1640" s="3" t="s">
         <v>1181</v>
@@ -54780,13 +54776,13 @@
     </row>
     <row r="1641" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1641" s="3" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B1641" s="3" t="s">
         <v>4307</v>
       </c>
-      <c r="B1641" s="3" t="s">
+      <c r="C1641" s="3" t="s">
         <v>4308</v>
-      </c>
-      <c r="C1641" s="3" t="s">
-        <v>4309</v>
       </c>
       <c r="D1641" s="3" t="s">
         <v>2752</v>
@@ -54806,7 +54802,7 @@
     </row>
     <row r="1642" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1642" s="3" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="B1642" s="3" t="s">
         <v>216</v>
@@ -54830,7 +54826,7 @@
     </row>
     <row r="1643" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1643" s="3" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B1643" s="3" t="s">
         <v>111</v>
@@ -54854,13 +54850,13 @@
     </row>
     <row r="1644" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1644" s="3" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B1644" s="3" t="s">
         <v>4312</v>
       </c>
-      <c r="B1644" s="3" t="s">
+      <c r="C1644" s="3" t="s">
         <v>4313</v>
-      </c>
-      <c r="C1644" s="3" t="s">
-        <v>4314</v>
       </c>
       <c r="D1644" s="3"/>
       <c r="E1644" s="3" t="s">
@@ -54878,13 +54874,13 @@
     </row>
     <row r="1645" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1645" s="3" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B1645" s="3" t="s">
         <v>4315</v>
       </c>
-      <c r="B1645" s="3" t="s">
+      <c r="C1645" s="3" t="s">
         <v>4316</v>
-      </c>
-      <c r="C1645" s="3" t="s">
-        <v>4317</v>
       </c>
       <c r="D1645" s="3"/>
       <c r="E1645" s="3" t="s">
@@ -54902,13 +54898,13 @@
     </row>
     <row r="1646" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1646" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B1646" s="3" t="s">
         <v>4318</v>
       </c>
-      <c r="B1646" s="3" t="s">
+      <c r="C1646" s="3" t="s">
         <v>4319</v>
-      </c>
-      <c r="C1646" s="3" t="s">
-        <v>4320</v>
       </c>
       <c r="D1646" s="3"/>
       <c r="E1646" s="3" t="s">
@@ -54926,7 +54922,7 @@
     </row>
     <row r="1647" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1647" s="3" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B1647" s="3" t="s">
         <v>1701</v>
@@ -54950,13 +54946,13 @@
     </row>
     <row r="1648" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1648" s="3" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B1648" s="3" t="s">
         <v>4322</v>
       </c>
-      <c r="B1648" s="3" t="s">
+      <c r="C1648" s="3" t="s">
         <v>4323</v>
-      </c>
-      <c r="C1648" s="3" t="s">
-        <v>4324</v>
       </c>
       <c r="D1648" s="3"/>
       <c r="E1648" s="3" t="s">
@@ -54974,13 +54970,13 @@
     </row>
     <row r="1649" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1649" s="3" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B1649" s="3" t="s">
         <v>4325</v>
       </c>
-      <c r="B1649" s="3" t="s">
+      <c r="C1649" s="3" t="s">
         <v>4326</v>
-      </c>
-      <c r="C1649" s="3" t="s">
-        <v>4327</v>
       </c>
       <c r="D1649" s="3"/>
       <c r="E1649" s="3" t="s">
@@ -54998,13 +54994,13 @@
     </row>
     <row r="1650" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1650" s="3" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B1650" s="3" t="s">
         <v>4328</v>
       </c>
-      <c r="B1650" s="3" t="s">
+      <c r="C1650" s="3" t="s">
         <v>4329</v>
-      </c>
-      <c r="C1650" s="3" t="s">
-        <v>4330</v>
       </c>
       <c r="D1650" s="3"/>
       <c r="E1650" s="3" t="s">
@@ -55022,13 +55018,13 @@
     </row>
     <row r="1651" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1651" s="3" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B1651" s="3" t="s">
         <v>1091</v>
       </c>
       <c r="C1651" s="3" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="D1651" s="3"/>
       <c r="E1651" s="3" t="s">
@@ -55046,13 +55042,13 @@
     </row>
     <row r="1652" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1652" s="3" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B1652" s="3" t="s">
         <v>4333</v>
       </c>
-      <c r="B1652" s="3" t="s">
+      <c r="C1652" s="3" t="s">
         <v>4334</v>
-      </c>
-      <c r="C1652" s="3" t="s">
-        <v>4335</v>
       </c>
       <c r="D1652" s="3"/>
       <c r="E1652" s="3" t="s">
@@ -55070,13 +55066,13 @@
     </row>
     <row r="1653" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1653" s="3" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B1653" s="3" t="s">
         <v>4336</v>
       </c>
-      <c r="B1653" s="3" t="s">
+      <c r="C1653" s="3" t="s">
         <v>4337</v>
-      </c>
-      <c r="C1653" s="3" t="s">
-        <v>4338</v>
       </c>
       <c r="D1653" s="3"/>
       <c r="E1653" s="3" t="s">
@@ -55094,7 +55090,7 @@
     </row>
     <row r="1654" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1654" s="3" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="B1654" s="3" t="s">
         <v>123</v>
@@ -55118,13 +55114,13 @@
     </row>
     <row r="1655" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1655" s="3" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B1655" s="3" t="s">
         <v>4340</v>
       </c>
-      <c r="B1655" s="3" t="s">
+      <c r="C1655" s="3" t="s">
         <v>4341</v>
-      </c>
-      <c r="C1655" s="3" t="s">
-        <v>4342</v>
       </c>
       <c r="D1655" s="3"/>
       <c r="E1655" s="3" t="s">
@@ -55142,13 +55138,13 @@
     </row>
     <row r="1656" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1656" s="3" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B1656" s="3" t="s">
         <v>4343</v>
       </c>
-      <c r="B1656" s="3" t="s">
+      <c r="C1656" s="3" t="s">
         <v>4344</v>
-      </c>
-      <c r="C1656" s="3" t="s">
-        <v>4345</v>
       </c>
       <c r="D1656" s="3"/>
       <c r="E1656" s="3" t="s">
@@ -55166,7 +55162,7 @@
     </row>
     <row r="1657" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1657" s="3" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="B1657" s="3" t="s">
         <v>2324</v>
@@ -55190,7 +55186,7 @@
     </row>
     <row r="1658" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1658" s="3" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="B1658" s="3" t="s">
         <v>249</v>
@@ -55214,13 +55210,13 @@
     </row>
     <row r="1659" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1659" s="3" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B1659" s="3" t="s">
         <v>4348</v>
       </c>
-      <c r="B1659" s="3" t="s">
+      <c r="C1659" s="3" t="s">
         <v>4349</v>
-      </c>
-      <c r="C1659" s="3" t="s">
-        <v>4350</v>
       </c>
       <c r="D1659" s="3"/>
       <c r="E1659" s="3" t="s">
@@ -55238,13 +55234,13 @@
     </row>
     <row r="1660" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1660" s="3" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="B1660" s="3" t="s">
         <v>1594</v>
       </c>
       <c r="C1660" s="3" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="D1660" s="3"/>
       <c r="E1660" s="3" t="s">
@@ -55262,13 +55258,13 @@
     </row>
     <row r="1661" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1661" s="3" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B1661" s="3" t="s">
         <v>4353</v>
       </c>
-      <c r="B1661" s="3" t="s">
+      <c r="C1661" s="3" t="s">
         <v>4354</v>
-      </c>
-      <c r="C1661" s="3" t="s">
-        <v>4355</v>
       </c>
       <c r="D1661" s="3"/>
       <c r="E1661" s="3" t="s">
@@ -55286,7 +55282,7 @@
     </row>
     <row r="1662" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1662" s="3" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="B1662" s="3" t="s">
         <v>1651</v>
@@ -55310,16 +55306,16 @@
     </row>
     <row r="1663" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1663" s="3" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B1663" s="3" t="s">
         <v>4357</v>
       </c>
-      <c r="B1663" s="3" t="s">
+      <c r="C1663" s="3" t="s">
         <v>4358</v>
       </c>
-      <c r="C1663" s="3" t="s">
+      <c r="D1663" s="3" t="s">
         <v>4359</v>
-      </c>
-      <c r="D1663" s="3" t="s">
-        <v>4360</v>
       </c>
       <c r="E1663" s="3" t="s">
         <v>71</v>
@@ -55336,7 +55332,7 @@
     </row>
     <row r="1664" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1664" s="3" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="B1664" s="3" t="s">
         <v>1118</v>
@@ -55360,13 +55356,13 @@
     </row>
     <row r="1665" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1665" s="3" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B1665" s="3" t="s">
         <v>4362</v>
       </c>
-      <c r="B1665" s="3" t="s">
+      <c r="C1665" s="3" t="s">
         <v>4363</v>
-      </c>
-      <c r="C1665" s="3" t="s">
-        <v>4364</v>
       </c>
       <c r="D1665" s="3"/>
       <c r="E1665" s="3" t="s">
@@ -55384,13 +55380,13 @@
     </row>
     <row r="1666" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1666" s="3" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B1666" s="3" t="s">
         <v>4365</v>
       </c>
-      <c r="B1666" s="3" t="s">
+      <c r="C1666" s="3" t="s">
         <v>4366</v>
-      </c>
-      <c r="C1666" s="3" t="s">
-        <v>4367</v>
       </c>
       <c r="D1666" s="3"/>
       <c r="E1666" s="3" t="s">
@@ -55408,13 +55404,13 @@
     </row>
     <row r="1667" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1667" s="3" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B1667" s="3" t="s">
         <v>4368</v>
       </c>
-      <c r="B1667" s="3" t="s">
+      <c r="C1667" s="3" t="s">
         <v>4369</v>
-      </c>
-      <c r="C1667" s="3" t="s">
-        <v>4370</v>
       </c>
       <c r="D1667" s="3"/>
       <c r="E1667" s="3" t="s">
@@ -55432,7 +55428,7 @@
     </row>
     <row r="1668" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1668" s="3" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="B1668" s="3" t="s">
         <v>1184</v>
@@ -55456,10 +55452,10 @@
     </row>
     <row r="1669" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1669" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B1669" s="3" t="s">
         <v>4372</v>
-      </c>
-      <c r="B1669" s="3" t="s">
-        <v>4373</v>
       </c>
       <c r="C1669" s="3" t="s">
         <v>1575</v>
@@ -55480,13 +55476,13 @@
     </row>
     <row r="1670" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1670" s="3" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B1670" s="3" t="s">
         <v>4374</v>
       </c>
-      <c r="B1670" s="3" t="s">
+      <c r="C1670" s="3" t="s">
         <v>4375</v>
-      </c>
-      <c r="C1670" s="3" t="s">
-        <v>4376</v>
       </c>
       <c r="D1670" s="3"/>
       <c r="E1670" s="3" t="s">
@@ -55504,13 +55500,13 @@
     </row>
     <row r="1671" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1671" s="3" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B1671" s="3" t="s">
         <v>4377</v>
       </c>
-      <c r="B1671" s="3" t="s">
+      <c r="C1671" s="3" t="s">
         <v>4378</v>
-      </c>
-      <c r="C1671" s="3" t="s">
-        <v>4379</v>
       </c>
       <c r="D1671" s="3"/>
       <c r="E1671" s="3" t="s">
@@ -55528,13 +55524,13 @@
     </row>
     <row r="1672" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1672" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1672" s="3" t="s">
         <v>4380</v>
       </c>
-      <c r="B1672" s="3" t="s">
+      <c r="C1672" s="3" t="s">
         <v>4381</v>
-      </c>
-      <c r="C1672" s="3" t="s">
-        <v>4382</v>
       </c>
       <c r="D1672" s="3"/>
       <c r="E1672" s="3" t="s">
@@ -55552,13 +55548,13 @@
     </row>
     <row r="1673" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1673" s="3" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B1673" s="3" t="s">
         <v>4383</v>
       </c>
-      <c r="B1673" s="3" t="s">
+      <c r="C1673" s="3" t="s">
         <v>4384</v>
-      </c>
-      <c r="C1673" s="3" t="s">
-        <v>4385</v>
       </c>
       <c r="D1673" s="3"/>
       <c r="E1673" s="3" t="s">
@@ -55576,13 +55572,13 @@
     </row>
     <row r="1674" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1674" s="3" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="B1674" s="3" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C1674" s="3" t="s">
         <v>4273</v>
-      </c>
-      <c r="C1674" s="3" t="s">
-        <v>4274</v>
       </c>
       <c r="D1674" s="3"/>
       <c r="E1674" s="3" t="s">
@@ -55600,7 +55596,7 @@
     </row>
     <row r="1675" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1675" s="3" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="B1675" s="3" t="s">
         <v>243</v>
@@ -55624,7 +55620,7 @@
     </row>
     <row r="1676" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1676" s="3" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="B1676" s="3" t="s">
         <v>240</v>
@@ -55648,7 +55644,7 @@
     </row>
     <row r="1677" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1677" s="3" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="B1677" s="3" t="s">
         <v>2281</v>
@@ -55672,7 +55668,7 @@
     </row>
     <row r="1678" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1678" s="3" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="B1678" s="3" t="s">
         <v>2283</v>
@@ -55696,13 +55692,13 @@
     </row>
     <row r="1679" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1679" s="3" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B1679" s="3" t="s">
         <v>4391</v>
       </c>
-      <c r="B1679" s="3" t="s">
+      <c r="C1679" s="3" t="s">
         <v>4392</v>
-      </c>
-      <c r="C1679" s="3" t="s">
-        <v>4393</v>
       </c>
       <c r="D1679" s="3"/>
       <c r="E1679" s="3" t="s">
@@ -55720,7 +55716,7 @@
     </row>
     <row r="1680" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1680" s="3" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="B1680" s="3" t="s">
         <v>261</v>
@@ -55744,10 +55740,10 @@
     </row>
     <row r="1681" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1681" s="3" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B1681" s="3" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="C1681" s="3" t="s">
         <v>265</v>
@@ -55768,7 +55764,7 @@
     </row>
     <row r="1682" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1682" s="3" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="B1682" s="3" t="s">
         <v>921</v>
@@ -55792,7 +55788,7 @@
     </row>
     <row r="1683" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1683" s="3" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="B1683" s="3" t="s">
         <v>924</v>
@@ -55816,13 +55812,13 @@
     </row>
     <row r="1684" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1684" s="3" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B1684" s="3" t="s">
         <v>4398</v>
       </c>
-      <c r="B1684" s="3" t="s">
+      <c r="C1684" s="3" t="s">
         <v>4399</v>
-      </c>
-      <c r="C1684" s="3" t="s">
-        <v>4400</v>
       </c>
       <c r="D1684" s="3"/>
       <c r="E1684" s="3" t="s">
@@ -55840,7 +55836,7 @@
     </row>
     <row r="1685" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1685" s="3" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="B1685" s="3" t="s">
         <v>2999</v>
@@ -55864,7 +55860,7 @@
     </row>
     <row r="1686" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1686" s="3" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B1686" s="3" t="s">
         <v>3002</v>
@@ -55888,7 +55884,7 @@
     </row>
     <row r="1687" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1687" s="3" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B1687" s="3" t="s">
         <v>180</v>
@@ -55912,7 +55908,7 @@
     </row>
     <row r="1688" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1688" s="3" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="B1688" s="3" t="s">
         <v>183</v>
@@ -55936,7 +55932,7 @@
     </row>
     <row r="1689" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1689" s="3" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="B1689" s="3" t="s">
         <v>186</v>
@@ -55960,7 +55956,7 @@
     </row>
     <row r="1690" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1690" s="3" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="B1690" s="3" t="s">
         <v>189</v>
@@ -55984,7 +55980,7 @@
     </row>
     <row r="1691" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1691" s="3" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="B1691" s="3" t="s">
         <v>192</v>
@@ -56008,7 +56004,7 @@
     </row>
     <row r="1692" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1692" s="3" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="B1692" s="3" t="s">
         <v>195</v>
@@ -56032,7 +56028,7 @@
     </row>
     <row r="1693" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1693" s="3" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="B1693" s="3" t="s">
         <v>198</v>
@@ -56056,7 +56052,7 @@
     </row>
     <row r="1694" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1694" s="3" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="B1694" s="3" t="s">
         <v>154</v>
@@ -56080,13 +56076,13 @@
     </row>
     <row r="1695" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1695" s="3" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B1695" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C1695" s="3" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="D1695" s="3"/>
       <c r="E1695" s="3" t="s">
@@ -56104,7 +56100,7 @@
     </row>
     <row r="1696" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1696" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="B1696" s="3" t="s">
         <v>136</v>
@@ -56128,7 +56124,7 @@
     </row>
     <row r="1697" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1697" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="B1697" s="3" t="s">
         <v>141</v>
@@ -56152,7 +56148,7 @@
     </row>
     <row r="1698" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1698" s="3" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="B1698" s="3" t="s">
         <v>131</v>
@@ -56176,7 +56172,7 @@
     </row>
     <row r="1699" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1699" s="3" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="B1699" s="3" t="s">
         <v>177</v>
@@ -56200,13 +56196,13 @@
     </row>
     <row r="1700" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1700" s="3" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B1700" s="3" t="s">
         <v>4417</v>
       </c>
-      <c r="B1700" s="3" t="s">
+      <c r="C1700" s="3" t="s">
         <v>4418</v>
-      </c>
-      <c r="C1700" s="3" t="s">
-        <v>4419</v>
       </c>
       <c r="D1700" s="3"/>
       <c r="E1700" s="3" t="s">
@@ -56224,13 +56220,13 @@
     </row>
     <row r="1701" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1701" s="3" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B1701" s="3" t="s">
         <v>4420</v>
       </c>
-      <c r="B1701" s="3" t="s">
+      <c r="C1701" s="3" t="s">
         <v>4421</v>
-      </c>
-      <c r="C1701" s="3" t="s">
-        <v>4422</v>
       </c>
       <c r="D1701" s="3"/>
       <c r="E1701" s="3" t="s">
@@ -56248,13 +56244,13 @@
     </row>
     <row r="1702" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1702" s="3" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1702" s="3" t="s">
         <v>4423</v>
       </c>
-      <c r="B1702" s="3" t="s">
+      <c r="C1702" s="3" t="s">
         <v>4424</v>
-      </c>
-      <c r="C1702" s="3" t="s">
-        <v>4425</v>
       </c>
       <c r="D1702" s="3"/>
       <c r="E1702" s="3" t="s">
@@ -56272,13 +56268,13 @@
     </row>
     <row r="1703" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1703" s="3" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B1703" s="3" t="s">
         <v>4426</v>
       </c>
-      <c r="B1703" s="3" t="s">
+      <c r="C1703" s="3" t="s">
         <v>4427</v>
-      </c>
-      <c r="C1703" s="3" t="s">
-        <v>4428</v>
       </c>
       <c r="D1703" s="3"/>
       <c r="E1703" s="3" t="s">
@@ -56296,10 +56292,10 @@
     </row>
     <row r="1704" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1704" s="3" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1704" s="3" t="s">
         <v>4429</v>
-      </c>
-      <c r="B1704" s="3" t="s">
-        <v>4430</v>
       </c>
       <c r="C1704" s="3" t="s">
         <v>2797</v>
@@ -56320,13 +56316,13 @@
     </row>
     <row r="1705" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1705" s="3" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B1705" s="3" t="s">
         <v>4431</v>
       </c>
-      <c r="B1705" s="3" t="s">
+      <c r="C1705" s="3" t="s">
         <v>4432</v>
-      </c>
-      <c r="C1705" s="3" t="s">
-        <v>4433</v>
       </c>
       <c r="D1705" s="3"/>
       <c r="E1705" s="3" t="s">
@@ -56344,13 +56340,13 @@
     </row>
     <row r="1706" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1706" s="3" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B1706" s="3" t="s">
         <v>4434</v>
       </c>
-      <c r="B1706" s="3" t="s">
+      <c r="C1706" s="3" t="s">
         <v>4435</v>
-      </c>
-      <c r="C1706" s="3" t="s">
-        <v>4436</v>
       </c>
       <c r="D1706" s="3"/>
       <c r="E1706" s="3" t="s">
@@ -56368,13 +56364,13 @@
     </row>
     <row r="1707" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1707" s="3" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B1707" s="3" t="s">
         <v>4437</v>
       </c>
-      <c r="B1707" s="3" t="s">
+      <c r="C1707" s="3" t="s">
         <v>4438</v>
-      </c>
-      <c r="C1707" s="3" t="s">
-        <v>4439</v>
       </c>
       <c r="D1707" s="3"/>
       <c r="E1707" s="3" t="s">
@@ -56392,7 +56388,7 @@
     </row>
     <row r="1708" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1708" s="3" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B1708" s="3" t="s">
         <v>2237</v>
@@ -56416,7 +56412,7 @@
     </row>
     <row r="1709" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1709" s="3" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="B1709" s="3" t="s">
         <v>2240</v>
@@ -56440,10 +56436,10 @@
     </row>
     <row r="1710" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1710" s="3" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B1710" s="3" t="s">
         <v>4442</v>
-      </c>
-      <c r="B1710" s="3" t="s">
-        <v>4443</v>
       </c>
       <c r="C1710" s="3" t="s">
         <v>3000</v>
@@ -56464,13 +56460,13 @@
     </row>
     <row r="1711" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1711" s="3" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B1711" s="3" t="s">
         <v>4444</v>
       </c>
-      <c r="B1711" s="3" t="s">
+      <c r="C1711" s="3" t="s">
         <v>4445</v>
-      </c>
-      <c r="C1711" s="3" t="s">
-        <v>4446</v>
       </c>
       <c r="D1711" s="3"/>
       <c r="E1711" s="3" t="s">
@@ -56488,13 +56484,13 @@
     </row>
     <row r="1712" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1712" s="3" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="B1712" s="3" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C1712" s="3" t="s">
         <v>4326</v>
-      </c>
-      <c r="C1712" s="3" t="s">
-        <v>4327</v>
       </c>
       <c r="D1712" s="3"/>
       <c r="E1712" s="3" t="s">
@@ -56512,13 +56508,13 @@
     </row>
     <row r="1713" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1713" s="3" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B1713" s="3" t="s">
         <v>4448</v>
       </c>
-      <c r="B1713" s="3" t="s">
+      <c r="C1713" s="3" t="s">
         <v>4449</v>
-      </c>
-      <c r="C1713" s="3" t="s">
-        <v>4450</v>
       </c>
       <c r="D1713" s="3"/>
       <c r="E1713" s="3" t="s">
@@ -56536,13 +56532,13 @@
     </row>
     <row r="1714" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1714" s="3" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B1714" s="3" t="s">
         <v>4451</v>
       </c>
-      <c r="B1714" s="3" t="s">
+      <c r="C1714" s="3" t="s">
         <v>4452</v>
-      </c>
-      <c r="C1714" s="3" t="s">
-        <v>4453</v>
       </c>
       <c r="D1714" s="3"/>
       <c r="E1714" s="3" t="s">
@@ -56560,7 +56556,7 @@
     </row>
     <row r="1715" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1715" s="3" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B1715" s="3" t="s">
         <v>111</v>
@@ -56584,7 +56580,7 @@
     </row>
     <row r="1716" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1716" s="3" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="B1716" s="3" t="s">
         <v>2324</v>
@@ -56608,7 +56604,7 @@
     </row>
     <row r="1717" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1717" s="3" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="B1717" s="3" t="s">
         <v>249</v>
@@ -56632,16 +56628,16 @@
     </row>
     <row r="1718" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1718" s="3" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B1718" s="3" t="s">
         <v>4457</v>
       </c>
-      <c r="B1718" s="3" t="s">
+      <c r="C1718" s="3" t="s">
         <v>4458</v>
       </c>
-      <c r="C1718" s="3" t="s">
+      <c r="D1718" s="3" t="s">
         <v>4459</v>
-      </c>
-      <c r="D1718" s="3" t="s">
-        <v>4460</v>
       </c>
       <c r="E1718" s="3" t="s">
         <v>71</v>
@@ -56658,13 +56654,13 @@
     </row>
     <row r="1719" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1719" s="3" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B1719" s="3" t="s">
         <v>4461</v>
       </c>
-      <c r="B1719" s="3" t="s">
+      <c r="C1719" s="3" t="s">
         <v>4462</v>
-      </c>
-      <c r="C1719" s="3" t="s">
-        <v>4463</v>
       </c>
       <c r="D1719" s="3"/>
       <c r="E1719" s="3" t="s">
@@ -56682,13 +56678,13 @@
     </row>
     <row r="1720" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1720" s="3" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B1720" s="3" t="s">
         <v>4464</v>
       </c>
-      <c r="B1720" s="3" t="s">
+      <c r="C1720" s="3" t="s">
         <v>4465</v>
-      </c>
-      <c r="C1720" s="3" t="s">
-        <v>4466</v>
       </c>
       <c r="D1720" s="3"/>
       <c r="E1720" s="3" t="s">
@@ -56706,13 +56702,13 @@
     </row>
     <row r="1721" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1721" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B1721" s="3" t="s">
         <v>4467</v>
       </c>
-      <c r="B1721" s="3" t="s">
+      <c r="C1721" s="3" t="s">
         <v>4468</v>
-      </c>
-      <c r="C1721" s="3" t="s">
-        <v>4469</v>
       </c>
       <c r="D1721" s="3"/>
       <c r="E1721" s="3" t="s">
@@ -56730,7 +56726,7 @@
     </row>
     <row r="1722" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1722" s="3" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B1722" s="3" t="s">
         <v>120</v>
@@ -56754,7 +56750,7 @@
     </row>
     <row r="1723" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1723" s="3" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="B1723" s="3" t="s">
         <v>1368</v>
@@ -56778,13 +56774,13 @@
     </row>
     <row r="1724" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1724" s="3" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B1724" s="3" t="s">
         <v>4472</v>
       </c>
-      <c r="B1724" s="3" t="s">
-        <v>4473</v>
-      </c>
       <c r="C1724" s="3" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="D1724" s="3"/>
       <c r="E1724" s="3" t="s">
@@ -56802,16 +56798,16 @@
     </row>
     <row r="1725" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1725" s="3" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B1725" s="3" t="s">
         <v>4474</v>
       </c>
-      <c r="B1725" s="3" t="s">
+      <c r="C1725" s="3" t="s">
         <v>4475</v>
       </c>
-      <c r="C1725" s="3" t="s">
+      <c r="D1725" s="3" t="s">
         <v>4476</v>
-      </c>
-      <c r="D1725" s="3" t="s">
-        <v>4477</v>
       </c>
       <c r="E1725" s="3" t="s">
         <v>71</v>
@@ -56828,13 +56824,13 @@
     </row>
     <row r="1726" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1726" s="3" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B1726" s="3" t="s">
         <v>4478</v>
       </c>
-      <c r="B1726" s="3" t="s">
+      <c r="C1726" s="3" t="s">
         <v>4479</v>
-      </c>
-      <c r="C1726" s="3" t="s">
-        <v>4480</v>
       </c>
       <c r="D1726" s="3"/>
       <c r="E1726" s="3" t="s">
@@ -56852,13 +56848,13 @@
     </row>
     <row r="1727" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1727" s="3" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B1727" s="3" t="s">
         <v>4481</v>
       </c>
-      <c r="B1727" s="3" t="s">
+      <c r="C1727" s="3" t="s">
         <v>4482</v>
-      </c>
-      <c r="C1727" s="3" t="s">
-        <v>4483</v>
       </c>
       <c r="D1727" s="3"/>
       <c r="E1727" s="3" t="s">
@@ -56876,13 +56872,13 @@
     </row>
     <row r="1728" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1728" s="3" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B1728" s="3" t="s">
         <v>4484</v>
       </c>
-      <c r="B1728" s="3" t="s">
+      <c r="C1728" s="3" t="s">
         <v>4485</v>
-      </c>
-      <c r="C1728" s="3" t="s">
-        <v>4486</v>
       </c>
       <c r="D1728" s="3"/>
       <c r="E1728" s="3" t="s">
@@ -56900,7 +56896,7 @@
     </row>
     <row r="1729" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1729" s="3" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="B1729" s="3" t="s">
         <v>1029</v>
@@ -56924,7 +56920,7 @@
     </row>
     <row r="1730" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1730" s="3" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="B1730" s="3" t="s">
         <v>1163</v>
@@ -56948,13 +56944,13 @@
     </row>
     <row r="1731" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1731" s="3" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="B1731" s="3" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C1731" s="3" t="s">
         <v>4337</v>
-      </c>
-      <c r="C1731" s="3" t="s">
-        <v>4338</v>
       </c>
       <c r="D1731" s="3"/>
       <c r="E1731" s="3" t="s">
@@ -56972,13 +56968,13 @@
     </row>
     <row r="1732" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1732" s="3" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="B1732" s="3" t="s">
+        <v>4328</v>
+      </c>
+      <c r="C1732" s="3" t="s">
         <v>4329</v>
-      </c>
-      <c r="C1732" s="3" t="s">
-        <v>4330</v>
       </c>
       <c r="D1732" s="3"/>
       <c r="E1732" s="3" t="s">
@@ -56996,13 +56992,13 @@
     </row>
     <row r="1733" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1733" s="3" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B1733" s="3" t="s">
         <v>4491</v>
       </c>
-      <c r="B1733" s="3" t="s">
+      <c r="C1733" s="3" t="s">
         <v>4492</v>
-      </c>
-      <c r="C1733" s="3" t="s">
-        <v>4493</v>
       </c>
       <c r="D1733" s="3"/>
       <c r="E1733" s="3" t="s">
@@ -57020,13 +57016,13 @@
     </row>
     <row r="1734" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1734" s="3" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B1734" s="3" t="s">
         <v>4494</v>
       </c>
-      <c r="B1734" s="3" t="s">
+      <c r="C1734" s="3" t="s">
         <v>4495</v>
-      </c>
-      <c r="C1734" s="3" t="s">
-        <v>4496</v>
       </c>
       <c r="D1734" s="3"/>
       <c r="E1734" s="3" t="s">
@@ -57044,13 +57040,13 @@
     </row>
     <row r="1735" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1735" s="3" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1735" s="3" t="s">
         <v>4497</v>
       </c>
-      <c r="B1735" s="3" t="s">
+      <c r="C1735" s="3" t="s">
         <v>4498</v>
-      </c>
-      <c r="C1735" s="3" t="s">
-        <v>4499</v>
       </c>
       <c r="D1735" s="3"/>
       <c r="E1735" s="3" t="s">
@@ -57068,13 +57064,13 @@
     </row>
     <row r="1736" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1736" s="3" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B1736" s="3" t="s">
         <v>4500</v>
       </c>
-      <c r="B1736" s="3" t="s">
+      <c r="C1736" s="3" t="s">
         <v>4501</v>
-      </c>
-      <c r="C1736" s="3" t="s">
-        <v>4502</v>
       </c>
       <c r="D1736" s="3"/>
       <c r="E1736" s="3" t="s">
@@ -57092,13 +57088,13 @@
     </row>
     <row r="1737" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1737" s="3" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B1737" s="3" t="s">
         <v>4503</v>
       </c>
-      <c r="B1737" s="3" t="s">
+      <c r="C1737" s="3" t="s">
         <v>4504</v>
-      </c>
-      <c r="C1737" s="3" t="s">
-        <v>4505</v>
       </c>
       <c r="D1737" s="3"/>
       <c r="E1737" s="3" t="s">
@@ -57116,13 +57112,13 @@
     </row>
     <row r="1738" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1738" s="3" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B1738" s="3" t="s">
         <v>4506</v>
       </c>
-      <c r="B1738" s="3" t="s">
+      <c r="C1738" s="3" t="s">
         <v>4507</v>
-      </c>
-      <c r="C1738" s="3" t="s">
-        <v>4508</v>
       </c>
       <c r="D1738" s="3"/>
       <c r="E1738" s="3" t="s">
@@ -57140,13 +57136,13 @@
     </row>
     <row r="1739" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1739" s="3" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B1739" s="3" t="s">
         <v>4509</v>
       </c>
-      <c r="B1739" s="3" t="s">
+      <c r="C1739" s="3" t="s">
         <v>4510</v>
-      </c>
-      <c r="C1739" s="3" t="s">
-        <v>4511</v>
       </c>
       <c r="D1739" s="3"/>
       <c r="E1739" s="3" t="s">
@@ -57164,13 +57160,13 @@
     </row>
     <row r="1740" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1740" s="3" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B1740" s="3" t="s">
         <v>4512</v>
       </c>
-      <c r="B1740" s="3" t="s">
+      <c r="C1740" s="3" t="s">
         <v>4513</v>
-      </c>
-      <c r="C1740" s="3" t="s">
-        <v>4514</v>
       </c>
       <c r="D1740" s="3"/>
       <c r="E1740" s="3" t="s">
@@ -57188,13 +57184,13 @@
     </row>
     <row r="1741" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1741" s="3" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B1741" s="3" t="s">
         <v>4515</v>
       </c>
-      <c r="B1741" s="3" t="s">
+      <c r="C1741" s="3" t="s">
         <v>4516</v>
-      </c>
-      <c r="C1741" s="3" t="s">
-        <v>4517</v>
       </c>
       <c r="D1741" s="3"/>
       <c r="E1741" s="3" t="s">
@@ -57212,13 +57208,13 @@
     </row>
     <row r="1742" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1742" s="3" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B1742" s="3" t="s">
         <v>4518</v>
       </c>
-      <c r="B1742" s="3" t="s">
+      <c r="C1742" s="3" t="s">
         <v>4519</v>
-      </c>
-      <c r="C1742" s="3" t="s">
-        <v>4520</v>
       </c>
       <c r="D1742" s="3"/>
       <c r="E1742" s="3" t="s">
@@ -57236,13 +57232,13 @@
     </row>
     <row r="1743" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1743" s="3" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B1743" s="3" t="s">
         <v>4521</v>
       </c>
-      <c r="B1743" s="3" t="s">
+      <c r="C1743" s="3" t="s">
         <v>4522</v>
-      </c>
-      <c r="C1743" s="3" t="s">
-        <v>4523</v>
       </c>
       <c r="D1743" s="3"/>
       <c r="E1743" s="3" t="s">
@@ -57260,7 +57256,7 @@
     </row>
     <row r="1744" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1744" s="3" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="B1744" s="3" t="s">
         <v>1336</v>
@@ -57284,13 +57280,13 @@
     </row>
     <row r="1745" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1745" s="3" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B1745" s="3" t="s">
         <v>4525</v>
       </c>
-      <c r="B1745" s="3" t="s">
+      <c r="C1745" s="3" t="s">
         <v>4526</v>
-      </c>
-      <c r="C1745" s="3" t="s">
-        <v>4527</v>
       </c>
       <c r="D1745" s="3"/>
       <c r="E1745" s="3" t="s">
@@ -57308,13 +57304,13 @@
     </row>
     <row r="1746" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1746" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B1746" s="3" t="s">
         <v>4528</v>
       </c>
-      <c r="B1746" s="3" t="s">
+      <c r="C1746" s="3" t="s">
         <v>4529</v>
-      </c>
-      <c r="C1746" s="3" t="s">
-        <v>4530</v>
       </c>
       <c r="D1746" s="3"/>
       <c r="E1746" s="3" t="s">
@@ -57332,13 +57328,13 @@
     </row>
     <row r="1747" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1747" s="3" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B1747" s="3" t="s">
         <v>4531</v>
       </c>
-      <c r="B1747" s="3" t="s">
+      <c r="C1747" s="3" t="s">
         <v>4532</v>
-      </c>
-      <c r="C1747" s="3" t="s">
-        <v>4533</v>
       </c>
       <c r="D1747" s="3"/>
       <c r="E1747" s="3" t="s">
@@ -57356,13 +57352,13 @@
     </row>
     <row r="1748" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1748" s="3" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B1748" s="3" t="s">
         <v>4534</v>
       </c>
-      <c r="B1748" s="3" t="s">
-        <v>4535</v>
-      </c>
       <c r="C1748" s="3" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="D1748" s="3"/>
       <c r="E1748" s="3" t="s">
@@ -57380,16 +57376,16 @@
     </row>
     <row r="1749" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1749" s="3" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B1749" s="3" t="s">
         <v>4536</v>
       </c>
-      <c r="B1749" s="3" t="s">
+      <c r="C1749" s="3" t="s">
         <v>4537</v>
       </c>
-      <c r="C1749" s="3" t="s">
+      <c r="D1749" s="3" t="s">
         <v>4538</v>
-      </c>
-      <c r="D1749" s="3" t="s">
-        <v>4539</v>
       </c>
       <c r="E1749" s="3" t="s">
         <v>71</v>
@@ -57406,16 +57402,16 @@
     </row>
     <row r="1750" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1750" s="3" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B1750" s="3" t="s">
         <v>4540</v>
       </c>
-      <c r="B1750" s="3" t="s">
+      <c r="C1750" s="3" t="s">
         <v>4541</v>
       </c>
-      <c r="C1750" s="3" t="s">
-        <v>4542</v>
-      </c>
       <c r="D1750" s="3" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="E1750" s="3" t="s">
         <v>71</v>
@@ -57432,13 +57428,13 @@
     </row>
     <row r="1751" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1751" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B1751" s="3" t="s">
         <v>4543</v>
       </c>
-      <c r="B1751" s="3" t="s">
+      <c r="C1751" s="3" t="s">
         <v>4544</v>
-      </c>
-      <c r="C1751" s="3" t="s">
-        <v>4545</v>
       </c>
       <c r="D1751" s="3"/>
       <c r="E1751" s="3" t="s">
@@ -57456,13 +57452,13 @@
     </row>
     <row r="1752" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1752" s="3" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B1752" s="3" t="s">
         <v>4546</v>
       </c>
-      <c r="B1752" s="3" t="s">
+      <c r="C1752" s="3" t="s">
         <v>4547</v>
-      </c>
-      <c r="C1752" s="3" t="s">
-        <v>4548</v>
       </c>
       <c r="D1752" s="3"/>
       <c r="E1752" s="3" t="s">
@@ -57480,13 +57476,13 @@
     </row>
     <row r="1753" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1753" s="3" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B1753" s="3" t="s">
         <v>4549</v>
       </c>
-      <c r="B1753" s="3" t="s">
+      <c r="C1753" s="3" t="s">
         <v>4550</v>
-      </c>
-      <c r="C1753" s="3" t="s">
-        <v>4551</v>
       </c>
       <c r="D1753" s="3"/>
       <c r="E1753" s="3" t="s">
@@ -57504,13 +57500,13 @@
     </row>
     <row r="1754" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1754" s="3" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B1754" s="3" t="s">
         <v>4552</v>
       </c>
-      <c r="B1754" s="3" t="s">
+      <c r="C1754" s="3" t="s">
         <v>4553</v>
-      </c>
-      <c r="C1754" s="3" t="s">
-        <v>4554</v>
       </c>
       <c r="D1754" s="3"/>
       <c r="E1754" s="3" t="s">
@@ -57528,13 +57524,13 @@
     </row>
     <row r="1755" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1755" s="3" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B1755" s="3" t="s">
         <v>4555</v>
       </c>
-      <c r="B1755" s="3" t="s">
+      <c r="C1755" s="3" t="s">
         <v>4556</v>
-      </c>
-      <c r="C1755" s="3" t="s">
-        <v>4557</v>
       </c>
       <c r="D1755" s="3"/>
       <c r="E1755" s="3" t="s">
@@ -57552,13 +57548,13 @@
     </row>
     <row r="1756" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1756" s="3" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B1756" s="3" t="s">
         <v>4558</v>
       </c>
-      <c r="B1756" s="3" t="s">
+      <c r="C1756" s="3" t="s">
         <v>4559</v>
-      </c>
-      <c r="C1756" s="3" t="s">
-        <v>4560</v>
       </c>
       <c r="D1756" s="3"/>
       <c r="E1756" s="3" t="s">
@@ -57576,13 +57572,13 @@
     </row>
     <row r="1757" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1757" s="3" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B1757" s="3" t="s">
         <v>4561</v>
       </c>
-      <c r="B1757" s="3" t="s">
+      <c r="C1757" s="3" t="s">
         <v>4562</v>
-      </c>
-      <c r="C1757" s="3" t="s">
-        <v>4563</v>
       </c>
       <c r="D1757" s="3"/>
       <c r="E1757" s="3" t="s">
@@ -57600,13 +57596,13 @@
     </row>
     <row r="1758" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1758" s="3" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B1758" s="3" t="s">
         <v>4564</v>
       </c>
-      <c r="B1758" s="3" t="s">
+      <c r="C1758" s="3" t="s">
         <v>4565</v>
-      </c>
-      <c r="C1758" s="3" t="s">
-        <v>4566</v>
       </c>
       <c r="D1758" s="3"/>
       <c r="E1758" s="3" t="s">
@@ -57624,13 +57620,13 @@
     </row>
     <row r="1759" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1759" s="3" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1759" s="3" t="s">
         <v>4567</v>
       </c>
-      <c r="B1759" s="3" t="s">
+      <c r="C1759" s="3" t="s">
         <v>4568</v>
-      </c>
-      <c r="C1759" s="3" t="s">
-        <v>4569</v>
       </c>
       <c r="D1759" s="3"/>
       <c r="E1759" s="3" t="s">
@@ -57648,13 +57644,13 @@
     </row>
     <row r="1760" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1760" s="3" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B1760" s="3" t="s">
         <v>4570</v>
       </c>
-      <c r="B1760" s="3" t="s">
+      <c r="C1760" s="3" t="s">
         <v>4571</v>
-      </c>
-      <c r="C1760" s="3" t="s">
-        <v>4572</v>
       </c>
       <c r="D1760" s="3"/>
       <c r="E1760" s="3" t="s">
@@ -57672,13 +57668,13 @@
     </row>
     <row r="1761" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1761" s="3" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B1761" s="3" t="s">
         <v>4573</v>
       </c>
-      <c r="B1761" s="3" t="s">
+      <c r="C1761" s="3" t="s">
         <v>4574</v>
-      </c>
-      <c r="C1761" s="3" t="s">
-        <v>4575</v>
       </c>
       <c r="D1761" s="3"/>
       <c r="E1761" s="3" t="s">
@@ -57696,13 +57692,13 @@
     </row>
     <row r="1762" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1762" s="3" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B1762" s="3" t="s">
         <v>4576</v>
       </c>
-      <c r="B1762" s="3" t="s">
+      <c r="C1762" s="3" t="s">
         <v>4577</v>
-      </c>
-      <c r="C1762" s="3" t="s">
-        <v>4578</v>
       </c>
       <c r="D1762" s="3"/>
       <c r="E1762" s="3" t="s">
@@ -57720,13 +57716,13 @@
     </row>
     <row r="1763" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1763" s="3" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B1763" s="3" t="s">
         <v>4579</v>
       </c>
-      <c r="B1763" s="3" t="s">
+      <c r="C1763" s="3" t="s">
         <v>4580</v>
-      </c>
-      <c r="C1763" s="3" t="s">
-        <v>4581</v>
       </c>
       <c r="D1763" s="3"/>
       <c r="E1763" s="3" t="s">
@@ -57744,13 +57740,13 @@
     </row>
     <row r="1764" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1764" s="3" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B1764" s="3" t="s">
         <v>4582</v>
       </c>
-      <c r="B1764" s="3" t="s">
+      <c r="C1764" s="3" t="s">
         <v>4583</v>
-      </c>
-      <c r="C1764" s="3" t="s">
-        <v>4584</v>
       </c>
       <c r="D1764" s="3"/>
       <c r="E1764" s="3" t="s">
@@ -57768,13 +57764,13 @@
     </row>
     <row r="1765" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1765" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B1765" s="3" t="s">
         <v>4585</v>
       </c>
-      <c r="B1765" s="3" t="s">
+      <c r="C1765" s="3" t="s">
         <v>4586</v>
-      </c>
-      <c r="C1765" s="3" t="s">
-        <v>4587</v>
       </c>
       <c r="D1765" s="3"/>
       <c r="E1765" s="3" t="s">
@@ -57792,13 +57788,13 @@
     </row>
     <row r="1766" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1766" s="3" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B1766" s="3" t="s">
         <v>4588</v>
       </c>
-      <c r="B1766" s="3" t="s">
+      <c r="C1766" s="3" t="s">
         <v>4589</v>
-      </c>
-      <c r="C1766" s="3" t="s">
-        <v>4590</v>
       </c>
       <c r="D1766" s="3"/>
       <c r="E1766" s="3" t="s">
@@ -57816,13 +57812,13 @@
     </row>
     <row r="1767" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1767" s="3" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B1767" s="3" t="s">
         <v>4591</v>
       </c>
-      <c r="B1767" s="3" t="s">
+      <c r="C1767" s="3" t="s">
         <v>4592</v>
-      </c>
-      <c r="C1767" s="3" t="s">
-        <v>4593</v>
       </c>
       <c r="D1767" s="3"/>
       <c r="E1767" s="3" t="s">
@@ -57840,13 +57836,13 @@
     </row>
     <row r="1768" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1768" s="3" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B1768" s="3" t="s">
         <v>4594</v>
       </c>
-      <c r="B1768" s="3" t="s">
+      <c r="C1768" s="3" t="s">
         <v>4595</v>
-      </c>
-      <c r="C1768" s="3" t="s">
-        <v>4596</v>
       </c>
       <c r="D1768" s="3"/>
       <c r="E1768" s="3" t="s">
@@ -57864,13 +57860,13 @@
     </row>
     <row r="1769" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1769" s="3" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B1769" s="3" t="s">
         <v>4597</v>
       </c>
-      <c r="B1769" s="3" t="s">
+      <c r="C1769" s="3" t="s">
         <v>4598</v>
-      </c>
-      <c r="C1769" s="3" t="s">
-        <v>4599</v>
       </c>
       <c r="D1769" s="3"/>
       <c r="E1769" s="3" t="s">
@@ -57888,13 +57884,13 @@
     </row>
     <row r="1770" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1770" s="3" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B1770" s="3" t="s">
         <v>4600</v>
       </c>
-      <c r="B1770" s="3" t="s">
+      <c r="C1770" s="3" t="s">
         <v>4601</v>
-      </c>
-      <c r="C1770" s="3" t="s">
-        <v>4602</v>
       </c>
       <c r="D1770" s="3"/>
       <c r="E1770" s="3" t="s">
@@ -57912,13 +57908,13 @@
     </row>
     <row r="1771" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1771" s="3" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B1771" s="3" t="s">
         <v>4603</v>
       </c>
-      <c r="B1771" s="3" t="s">
+      <c r="C1771" s="3" t="s">
         <v>4604</v>
-      </c>
-      <c r="C1771" s="3" t="s">
-        <v>4605</v>
       </c>
       <c r="D1771" s="3"/>
       <c r="E1771" s="3" t="s">
@@ -57936,13 +57932,13 @@
     </row>
     <row r="1772" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1772" s="3" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B1772" s="3" t="s">
         <v>4606</v>
       </c>
-      <c r="B1772" s="3" t="s">
+      <c r="C1772" s="3" t="s">
         <v>4607</v>
-      </c>
-      <c r="C1772" s="3" t="s">
-        <v>4608</v>
       </c>
       <c r="D1772" s="3"/>
       <c r="E1772" s="3" t="s">
@@ -57960,13 +57956,13 @@
     </row>
     <row r="1773" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1773" s="3" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B1773" s="3" t="s">
         <v>4609</v>
       </c>
-      <c r="B1773" s="3" t="s">
+      <c r="C1773" s="3" t="s">
         <v>4610</v>
-      </c>
-      <c r="C1773" s="3" t="s">
-        <v>4611</v>
       </c>
       <c r="D1773" s="3"/>
       <c r="E1773" s="3" t="s">
@@ -57984,13 +57980,13 @@
     </row>
     <row r="1774" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1774" s="3" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B1774" s="3" t="s">
         <v>4612</v>
       </c>
-      <c r="B1774" s="3" t="s">
+      <c r="C1774" s="3" t="s">
         <v>4613</v>
-      </c>
-      <c r="C1774" s="3" t="s">
-        <v>4614</v>
       </c>
       <c r="D1774" s="3"/>
       <c r="E1774" s="3" t="s">
@@ -58008,13 +58004,13 @@
     </row>
     <row r="1775" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1775" s="3" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B1775" s="3" t="s">
         <v>4615</v>
       </c>
-      <c r="B1775" s="3" t="s">
+      <c r="C1775" s="3" t="s">
         <v>4616</v>
-      </c>
-      <c r="C1775" s="3" t="s">
-        <v>4617</v>
       </c>
       <c r="D1775" s="3"/>
       <c r="E1775" s="3" t="s">
@@ -58032,13 +58028,13 @@
     </row>
     <row r="1776" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1776" s="3" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B1776" s="3" t="s">
         <v>4618</v>
       </c>
-      <c r="B1776" s="3" t="s">
-        <v>4619</v>
-      </c>
       <c r="C1776" s="3" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="D1776" s="3"/>
       <c r="E1776" s="3" t="s">
@@ -58056,13 +58052,13 @@
     </row>
     <row r="1777" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1777" s="3" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B1777" s="3" t="s">
         <v>4620</v>
       </c>
-      <c r="B1777" s="3" t="s">
+      <c r="C1777" s="3" t="s">
         <v>4621</v>
-      </c>
-      <c r="C1777" s="3" t="s">
-        <v>4622</v>
       </c>
       <c r="D1777" s="3"/>
       <c r="E1777" s="3" t="s">
@@ -58080,13 +58076,13 @@
     </row>
     <row r="1778" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1778" s="3" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B1778" s="3" t="s">
         <v>4623</v>
       </c>
-      <c r="B1778" s="3" t="s">
+      <c r="C1778" s="3" t="s">
         <v>4624</v>
-      </c>
-      <c r="C1778" s="3" t="s">
-        <v>4625</v>
       </c>
       <c r="D1778" s="3"/>
       <c r="E1778" s="3" t="s">
@@ -58104,13 +58100,13 @@
     </row>
     <row r="1779" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1779" s="3" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B1779" s="3" t="s">
         <v>4626</v>
       </c>
-      <c r="B1779" s="3" t="s">
+      <c r="C1779" s="3" t="s">
         <v>4627</v>
-      </c>
-      <c r="C1779" s="3" t="s">
-        <v>4628</v>
       </c>
       <c r="D1779" s="3"/>
       <c r="E1779" s="3" t="s">
@@ -58128,13 +58124,13 @@
     </row>
     <row r="1780" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1780" s="3" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1780" s="3" t="s">
         <v>4629</v>
       </c>
-      <c r="B1780" s="3" t="s">
+      <c r="C1780" s="3" t="s">
         <v>4630</v>
-      </c>
-      <c r="C1780" s="3" t="s">
-        <v>4631</v>
       </c>
       <c r="D1780" s="3"/>
       <c r="E1780" s="3" t="s">
@@ -58152,13 +58148,13 @@
     </row>
     <row r="1781" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1781" s="3" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B1781" s="3" t="s">
         <v>4632</v>
       </c>
-      <c r="B1781" s="3" t="s">
+      <c r="C1781" s="3" t="s">
         <v>4633</v>
-      </c>
-      <c r="C1781" s="3" t="s">
-        <v>4634</v>
       </c>
       <c r="D1781" s="3"/>
       <c r="E1781" s="3" t="s">
@@ -58176,13 +58172,13 @@
     </row>
     <row r="1782" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1782" s="3" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B1782" s="3" t="s">
         <v>4635</v>
       </c>
-      <c r="B1782" s="3" t="s">
+      <c r="C1782" s="3" t="s">
         <v>4636</v>
-      </c>
-      <c r="C1782" s="3" t="s">
-        <v>4637</v>
       </c>
       <c r="D1782" s="3"/>
       <c r="E1782" s="3" t="s">
@@ -58200,13 +58196,13 @@
     </row>
     <row r="1783" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1783" s="3" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B1783" s="3" t="s">
         <v>4638</v>
       </c>
-      <c r="B1783" s="3" t="s">
+      <c r="C1783" s="3" t="s">
         <v>4639</v>
-      </c>
-      <c r="C1783" s="3" t="s">
-        <v>4640</v>
       </c>
       <c r="D1783" s="3"/>
       <c r="E1783" s="3" t="s">
@@ -58224,13 +58220,13 @@
     </row>
     <row r="1784" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1784" s="3" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B1784" s="3" t="s">
         <v>4641</v>
       </c>
-      <c r="B1784" s="3" t="s">
-        <v>4642</v>
-      </c>
       <c r="C1784" s="3" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="D1784" s="3"/>
       <c r="E1784" s="3" t="s">
@@ -58248,13 +58244,13 @@
     </row>
     <row r="1785" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1785" s="3" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B1785" s="3" t="s">
         <v>4643</v>
       </c>
-      <c r="B1785" s="3" t="s">
+      <c r="C1785" s="3" t="s">
         <v>4644</v>
-      </c>
-      <c r="C1785" s="3" t="s">
-        <v>4645</v>
       </c>
       <c r="D1785" s="3"/>
       <c r="E1785" s="3" t="s">
@@ -58272,13 +58268,13 @@
     </row>
     <row r="1786" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1786" s="3" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B1786" s="3" t="s">
         <v>4646</v>
       </c>
-      <c r="B1786" s="3" t="s">
+      <c r="C1786" s="3" t="s">
         <v>4647</v>
-      </c>
-      <c r="C1786" s="3" t="s">
-        <v>4648</v>
       </c>
       <c r="D1786" s="3"/>
       <c r="E1786" s="3" t="s">
@@ -58296,13 +58292,13 @@
     </row>
     <row r="1787" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1787" s="3" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B1787" s="3" t="s">
         <v>4649</v>
       </c>
-      <c r="B1787" s="3" t="s">
+      <c r="C1787" s="3" t="s">
         <v>4650</v>
-      </c>
-      <c r="C1787" s="3" t="s">
-        <v>4651</v>
       </c>
       <c r="D1787" s="3"/>
       <c r="E1787" s="3" t="s">
@@ -58320,13 +58316,13 @@
     </row>
     <row r="1788" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1788" s="3" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B1788" s="3" t="s">
         <v>4652</v>
       </c>
-      <c r="B1788" s="3" t="s">
+      <c r="C1788" s="3" t="s">
         <v>4653</v>
-      </c>
-      <c r="C1788" s="3" t="s">
-        <v>4654</v>
       </c>
       <c r="D1788" s="3"/>
       <c r="E1788" s="3" t="s">
@@ -58344,13 +58340,13 @@
     </row>
     <row r="1789" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1789" s="3" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B1789" s="3" t="s">
         <v>4655</v>
       </c>
-      <c r="B1789" s="3" t="s">
+      <c r="C1789" s="3" t="s">
         <v>4656</v>
-      </c>
-      <c r="C1789" s="3" t="s">
-        <v>4657</v>
       </c>
       <c r="D1789" s="3"/>
       <c r="E1789" s="3" t="s">
@@ -58368,13 +58364,13 @@
     </row>
     <row r="1790" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1790" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B1790" s="3" t="s">
         <v>4658</v>
       </c>
-      <c r="B1790" s="3" t="s">
+      <c r="C1790" s="3" t="s">
         <v>4659</v>
-      </c>
-      <c r="C1790" s="3" t="s">
-        <v>4660</v>
       </c>
       <c r="D1790" s="3"/>
       <c r="E1790" s="3" t="s">
@@ -58392,16 +58388,16 @@
     </row>
     <row r="1791" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1791" s="3" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B1791" s="3" t="s">
         <v>4661</v>
       </c>
-      <c r="B1791" s="3" t="s">
+      <c r="C1791" s="3" t="s">
         <v>4662</v>
       </c>
-      <c r="C1791" s="3" t="s">
+      <c r="D1791" s="3" t="s">
         <v>4663</v>
-      </c>
-      <c r="D1791" s="3" t="s">
-        <v>4664</v>
       </c>
       <c r="E1791" s="3" t="s">
         <v>742</v>
@@ -58418,13 +58414,13 @@
     </row>
     <row r="1792" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1792" s="3" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B1792" s="3" t="s">
         <v>4665</v>
       </c>
-      <c r="B1792" s="3" t="s">
+      <c r="C1792" s="3" t="s">
         <v>4666</v>
-      </c>
-      <c r="C1792" s="3" t="s">
-        <v>4667</v>
       </c>
       <c r="D1792" s="3"/>
       <c r="E1792" s="3" t="s">
@@ -58442,7 +58438,7 @@
     </row>
     <row r="1793" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1793" s="3" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="B1793" s="3" t="s">
         <v>330</v>
@@ -58466,7 +58462,7 @@
     </row>
     <row r="1794" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1794" s="3" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="B1794" s="3" t="s">
         <v>342</v>
@@ -58490,7 +58486,7 @@
     </row>
     <row r="1795" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1795" s="3" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
       <c r="B1795" s="3" t="s">
         <v>120</v>
@@ -58514,36 +58510,36 @@
     </row>
     <row r="1796" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1796" s="3" t="s">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="B1796" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C1796" s="3" t="s">
+        <v>4671</v>
+      </c>
+      <c r="D1796" s="3" t="s">
         <v>4672</v>
       </c>
-      <c r="D1796" s="3" t="s">
-        <v>4673</v>
-      </c>
       <c r="E1796" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F1796" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1796" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H1796" s="5">
-        <v>44992.7020833333</v>
+        <v>44992.7104166667</v>
       </c>
     </row>
     <row r="1797" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1797" s="3" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B1797" s="3" t="s">
         <v>4674</v>
-      </c>
-      <c r="B1797" s="3" t="s">
-        <v>4675</v>
       </c>
       <c r="C1797" s="3" t="s">
         <v>997</v>
@@ -58564,16 +58560,16 @@
     </row>
     <row r="1798" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1798" s="3" t="s">
-        <v>4676</v>
+        <v>4675</v>
       </c>
       <c r="B1798" s="3" t="s">
         <v>417</v>
       </c>
       <c r="C1798" s="3" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D1798" s="3" t="s">
         <v>4677</v>
-      </c>
-      <c r="D1798" s="3" t="s">
-        <v>4678</v>
       </c>
       <c r="E1798" s="3" t="s">
         <v>58</v>
@@ -58590,7 +58586,7 @@
     </row>
     <row r="1799" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1799" s="3" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="B1799" s="3" t="s">
         <v>360</v>
@@ -58614,13 +58610,13 @@
     </row>
     <row r="1800" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1800" s="3" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B1800" s="3" t="s">
         <v>4680</v>
       </c>
-      <c r="B1800" s="3" t="s">
+      <c r="C1800" s="3" t="s">
         <v>4681</v>
-      </c>
-      <c r="C1800" s="3" t="s">
-        <v>4682</v>
       </c>
       <c r="D1800" s="3"/>
       <c r="E1800" s="3" t="s">
@@ -58638,13 +58634,13 @@
     </row>
     <row r="1801" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1801" s="3" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B1801" s="3" t="s">
         <v>4683</v>
       </c>
-      <c r="B1801" s="3" t="s">
+      <c r="C1801" s="3" t="s">
         <v>4684</v>
-      </c>
-      <c r="C1801" s="3" t="s">
-        <v>4685</v>
       </c>
       <c r="D1801" s="3"/>
       <c r="E1801" s="3" t="s">
@@ -58662,13 +58658,13 @@
     </row>
     <row r="1802" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1802" s="3" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B1802" s="3" t="s">
         <v>4686</v>
       </c>
-      <c r="B1802" s="3" t="s">
+      <c r="C1802" s="3" t="s">
         <v>4687</v>
-      </c>
-      <c r="C1802" s="3" t="s">
-        <v>4688</v>
       </c>
       <c r="D1802" s="3"/>
       <c r="E1802" s="3" t="s">
@@ -58686,13 +58682,13 @@
     </row>
     <row r="1803" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1803" s="3" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="B1803" s="3" t="s">
         <v>423</v>
       </c>
       <c r="C1803" s="3" t="s">
-        <v>4690</v>
+        <v>4689</v>
       </c>
       <c r="D1803" s="3"/>
       <c r="E1803" s="3" t="s">
@@ -58710,13 +58706,13 @@
     </row>
     <row r="1804" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1804" s="3" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B1804" s="3" t="s">
         <v>4691</v>
       </c>
-      <c r="B1804" s="3" t="s">
+      <c r="C1804" s="3" t="s">
         <v>4692</v>
-      </c>
-      <c r="C1804" s="3" t="s">
-        <v>4693</v>
       </c>
       <c r="D1804" s="3"/>
       <c r="E1804" s="3" t="s">
@@ -58734,7 +58730,7 @@
     </row>
     <row r="1805" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1805" s="3" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="B1805" s="3" t="s">
         <v>408</v>
@@ -58758,13 +58754,13 @@
     </row>
     <row r="1806" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1806" s="3" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B1806" s="3" t="s">
         <v>4695</v>
       </c>
-      <c r="B1806" s="3" t="s">
+      <c r="C1806" s="3" t="s">
         <v>4696</v>
-      </c>
-      <c r="C1806" s="3" t="s">
-        <v>4697</v>
       </c>
       <c r="D1806" s="3"/>
       <c r="E1806" s="3" t="s">
@@ -58782,13 +58778,13 @@
     </row>
     <row r="1807" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1807" s="3" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B1807" s="3" t="s">
         <v>4698</v>
       </c>
-      <c r="B1807" s="3" t="s">
+      <c r="C1807" s="3" t="s">
         <v>4699</v>
-      </c>
-      <c r="C1807" s="3" t="s">
-        <v>4700</v>
       </c>
       <c r="D1807" s="3"/>
       <c r="E1807" s="3" t="s">
@@ -58806,13 +58802,13 @@
     </row>
     <row r="1808" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1808" s="3" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B1808" s="3" t="s">
         <v>4701</v>
       </c>
-      <c r="B1808" s="3" t="s">
+      <c r="C1808" s="3" t="s">
         <v>4702</v>
-      </c>
-      <c r="C1808" s="3" t="s">
-        <v>4703</v>
       </c>
       <c r="D1808" s="3"/>
       <c r="E1808" s="3" t="s">
@@ -58830,13 +58826,13 @@
     </row>
     <row r="1809" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1809" s="3" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B1809" s="3" t="s">
         <v>4704</v>
       </c>
-      <c r="B1809" s="3" t="s">
+      <c r="C1809" s="3" t="s">
         <v>4705</v>
-      </c>
-      <c r="C1809" s="3" t="s">
-        <v>4706</v>
       </c>
       <c r="D1809" s="3"/>
       <c r="E1809" s="3" t="s">
@@ -58854,13 +58850,13 @@
     </row>
     <row r="1810" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1810" s="3" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B1810" s="3" t="s">
         <v>4707</v>
       </c>
-      <c r="B1810" s="3" t="s">
+      <c r="C1810" s="3" t="s">
         <v>4708</v>
-      </c>
-      <c r="C1810" s="3" t="s">
-        <v>4709</v>
       </c>
       <c r="D1810" s="3"/>
       <c r="E1810" s="3" t="s">
@@ -58878,13 +58874,13 @@
     </row>
     <row r="1811" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1811" s="3" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B1811" s="3" t="s">
         <v>4710</v>
       </c>
-      <c r="B1811" s="3" t="s">
+      <c r="C1811" s="3" t="s">
         <v>4711</v>
-      </c>
-      <c r="C1811" s="3" t="s">
-        <v>4712</v>
       </c>
       <c r="D1811" s="3"/>
       <c r="E1811" s="3" t="s">
@@ -58902,13 +58898,13 @@
     </row>
     <row r="1812" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1812" s="3" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B1812" s="3" t="s">
         <v>4713</v>
       </c>
-      <c r="B1812" s="3" t="s">
+      <c r="C1812" s="3" t="s">
         <v>4714</v>
-      </c>
-      <c r="C1812" s="3" t="s">
-        <v>4715</v>
       </c>
       <c r="D1812" s="3"/>
       <c r="E1812" s="3" t="s">
@@ -58926,13 +58922,13 @@
     </row>
     <row r="1813" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1813" s="3" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B1813" s="3" t="s">
         <v>4716</v>
       </c>
-      <c r="B1813" s="3" t="s">
+      <c r="C1813" s="3" t="s">
         <v>4717</v>
-      </c>
-      <c r="C1813" s="3" t="s">
-        <v>4718</v>
       </c>
       <c r="D1813" s="3"/>
       <c r="E1813" s="3" t="s">
@@ -58950,13 +58946,13 @@
     </row>
     <row r="1814" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1814" s="3" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B1814" s="3" t="s">
         <v>4719</v>
       </c>
-      <c r="B1814" s="3" t="s">
+      <c r="C1814" s="3" t="s">
         <v>4720</v>
-      </c>
-      <c r="C1814" s="3" t="s">
-        <v>4721</v>
       </c>
       <c r="D1814" s="3"/>
       <c r="E1814" s="3" t="s">
@@ -58974,13 +58970,13 @@
     </row>
     <row r="1815" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1815" s="3" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B1815" s="3" t="s">
         <v>4722</v>
       </c>
-      <c r="B1815" s="3" t="s">
+      <c r="C1815" s="3" t="s">
         <v>4723</v>
-      </c>
-      <c r="C1815" s="3" t="s">
-        <v>4724</v>
       </c>
       <c r="D1815" s="3"/>
       <c r="E1815" s="3" t="s">
@@ -58998,13 +58994,13 @@
     </row>
     <row r="1816" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1816" s="3" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B1816" s="3" t="s">
         <v>4725</v>
       </c>
-      <c r="B1816" s="3" t="s">
+      <c r="C1816" s="3" t="s">
         <v>4726</v>
-      </c>
-      <c r="C1816" s="3" t="s">
-        <v>4727</v>
       </c>
       <c r="D1816" s="3"/>
       <c r="E1816" s="3" t="s">
@@ -59022,13 +59018,13 @@
     </row>
     <row r="1817" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1817" s="3" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B1817" s="3" t="s">
         <v>4728</v>
       </c>
-      <c r="B1817" s="3" t="s">
+      <c r="C1817" s="3" t="s">
         <v>4729</v>
-      </c>
-      <c r="C1817" s="3" t="s">
-        <v>4730</v>
       </c>
       <c r="D1817" s="3"/>
       <c r="E1817" s="3" t="s">
@@ -59046,13 +59042,13 @@
     </row>
     <row r="1818" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1818" s="3" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B1818" s="3" t="s">
         <v>4731</v>
       </c>
-      <c r="B1818" s="3" t="s">
+      <c r="C1818" s="3" t="s">
         <v>4732</v>
-      </c>
-      <c r="C1818" s="3" t="s">
-        <v>4733</v>
       </c>
       <c r="D1818" s="3"/>
       <c r="E1818" s="3" t="s">
@@ -59070,13 +59066,13 @@
     </row>
     <row r="1819" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1819" s="3" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B1819" s="3" t="s">
         <v>4734</v>
       </c>
-      <c r="B1819" s="3" t="s">
+      <c r="C1819" s="3" t="s">
         <v>4735</v>
-      </c>
-      <c r="C1819" s="3" t="s">
-        <v>4736</v>
       </c>
       <c r="D1819" s="3"/>
       <c r="E1819" s="3" t="s">
@@ -59094,13 +59090,13 @@
     </row>
     <row r="1820" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1820" s="3" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B1820" s="3" t="s">
         <v>4737</v>
       </c>
-      <c r="B1820" s="3" t="s">
+      <c r="C1820" s="3" t="s">
         <v>4738</v>
-      </c>
-      <c r="C1820" s="3" t="s">
-        <v>4739</v>
       </c>
       <c r="D1820" s="3"/>
       <c r="E1820" s="3" t="s">
@@ -59118,13 +59114,13 @@
     </row>
     <row r="1821" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1821" s="3" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B1821" s="3" t="s">
         <v>4740</v>
       </c>
-      <c r="B1821" s="3" t="s">
+      <c r="C1821" s="3" t="s">
         <v>4741</v>
-      </c>
-      <c r="C1821" s="3" t="s">
-        <v>4742</v>
       </c>
       <c r="D1821" s="3"/>
       <c r="E1821" s="3" t="s">
@@ -59142,13 +59138,13 @@
     </row>
     <row r="1822" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1822" s="3" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B1822" s="3" t="s">
         <v>4743</v>
       </c>
-      <c r="B1822" s="3" t="s">
+      <c r="C1822" s="3" t="s">
         <v>4744</v>
-      </c>
-      <c r="C1822" s="3" t="s">
-        <v>4745</v>
       </c>
       <c r="D1822" s="3"/>
       <c r="E1822" s="3" t="s">
@@ -59166,13 +59162,13 @@
     </row>
     <row r="1823" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1823" s="3" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B1823" s="3" t="s">
         <v>4746</v>
       </c>
-      <c r="B1823" s="3" t="s">
+      <c r="C1823" s="3" t="s">
         <v>4747</v>
-      </c>
-      <c r="C1823" s="3" t="s">
-        <v>4748</v>
       </c>
       <c r="D1823" s="3"/>
       <c r="E1823" s="3" t="s">
@@ -59190,13 +59186,13 @@
     </row>
     <row r="1824" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1824" s="3" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B1824" s="3" t="s">
         <v>4749</v>
       </c>
-      <c r="B1824" s="3" t="s">
+      <c r="C1824" s="3" t="s">
         <v>4750</v>
-      </c>
-      <c r="C1824" s="3" t="s">
-        <v>4751</v>
       </c>
       <c r="D1824" s="3"/>
       <c r="E1824" s="3" t="s">
@@ -59214,13 +59210,13 @@
     </row>
     <row r="1825" s="3" customFormat="1" ht="12.85" customHeight="1" spans="1:8">
       <c r="A1825" s="3" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B1825" s="3" t="s">
         <v>4752</v>
       </c>
-      <c r="B1825" s="3" t="s">
+      <c r="C1825" s="3" t="s">
         <v>4753</v>
-      </c>
-      <c r="C1825" s="3" t="s">
-        <v>4754</v>
       </c>
       <c r="D1825" s="3"/>
       <c r="E1825" s="3" t="s">
@@ -59241,7 +59237,7 @@
         <v>1571</v>
       </c>
       <c r="C1826" s="3" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="D1826" s="3"/>
       <c r="E1826" s="3" t="s">
@@ -59280,47 +59276,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
     </row>
   </sheetData>
